--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_799.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_799.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32668-d78097-Reviews-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>214</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Travelodge-By-Wyndham-Lynwood.h6193.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_799.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_799.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="730">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,2074 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r588215722-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>32668</t>
+  </si>
+  <si>
+    <t>78097</t>
+  </si>
+  <si>
+    <t>588215722</t>
+  </si>
+  <si>
+    <t>06/17/2018</t>
+  </si>
+  <si>
+    <t>needs refurbishment</t>
+  </si>
+  <si>
+    <t>interesting neighbourhood in plaza mexico, night bazaar comes alive in evening with open fires &amp; stalls selling ethnic wares.  However, hotel is old, carpet is dirty and should be replaced. Manager however, was kind and allowed early check in, and responded to our request to add refrigerator to the room for the 2nd night. Lots of eating places and shopping nearby, including a skecher's warehouse store with great bargains.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r585643347-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>585643347</t>
+  </si>
+  <si>
+    <t>06/06/2018</t>
+  </si>
+  <si>
+    <t>Good hotel - great location</t>
+  </si>
+  <si>
+    <t>I always stay at this hotel, when I am in L.A. The main reason is the location - it‘s a 4 min. walk from the Long Beach Blvd. Green Line Metro station. I don‘t have a car. The rooms are spacious and clean. Comfy and big bed. They are cleaned everyday. The Wi-Fi works sometimes great and sometimes not at all. They have Direct-TV. The breakfast is o.k. and it‘s from 06:30 to 09:30. The staff is very friendly. Also the rates are very reasonable for L.A. Will be back in January 2019 for 3 weeks.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r575293170-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>575293170</t>
+  </si>
+  <si>
+    <t>04/23/2018</t>
+  </si>
+  <si>
+    <t>Incredibly Dirty and Unhygenic</t>
+  </si>
+  <si>
+    <t>I arrived at this motel when I was very tired. The $80 price was definitely too much for this place. The pictures I am attaching include black mold on the bathroom walls - I actually found a lot more mold above the tub later that night. Black mold causes respiratory problems. The sticky, dirty carpet made it difficult to find a place to stand to brush my teeth - I felt like this was outdoors and I was supposed to keep my shoes on. When I ate breakfast - the bagel was very stale, but I was too hungry to skip it. Most of the fruits were spoiled. Three African American cleaners of this place were standing outside yelling at each other when I arrived, and then they were yelling again as I was trying to fall asleep. I heard somebody scratching against my door at night. A strange guy walked up to me and started harassing me as I was waiting for Lyft outside this place. Overall a pretty dangerous place to stay at. The outside is also decomposing and not like in the pictures. Somebody left boogers in the sheets - suggesting that they were not changed after whoever stayed there before me. There was also a hole in the sheets. If I hadn't stayed up for nearly 48 hours by that point, I would've asked for a different room or a refund, but I opted against this....I arrived at this motel when I was very tired. The $80 price was definitely too much for this place. The pictures I am attaching include black mold on the bathroom walls - I actually found a lot more mold above the tub later that night. Black mold causes respiratory problems. The sticky, dirty carpet made it difficult to find a place to stand to brush my teeth - I felt like this was outdoors and I was supposed to keep my shoes on. When I ate breakfast - the bagel was very stale, but I was too hungry to skip it. Most of the fruits were spoiled. Three African American cleaners of this place were standing outside yelling at each other when I arrived, and then they were yelling again as I was trying to fall asleep. I heard somebody scratching against my door at night. A strange guy walked up to me and started harassing me as I was waiting for Lyft outside this place. Overall a pretty dangerous place to stay at. The outside is also decomposing and not like in the pictures. Somebody left boogers in the sheets - suggesting that they were not changed after whoever stayed there before me. There was also a hole in the sheets. If I hadn't stayed up for nearly 48 hours by that point, I would've asked for a different room or a refund, but I opted against this. One bright point was that for the first time in many motel stays, there were no loud harassing homeless people or other violent-looking shady characters in the dining room when I ate breakfast: maybe because I arrived first thing at 6:30am.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I arrived at this motel when I was very tired. The $80 price was definitely too much for this place. The pictures I am attaching include black mold on the bathroom walls - I actually found a lot more mold above the tub later that night. Black mold causes respiratory problems. The sticky, dirty carpet made it difficult to find a place to stand to brush my teeth - I felt like this was outdoors and I was supposed to keep my shoes on. When I ate breakfast - the bagel was very stale, but I was too hungry to skip it. Most of the fruits were spoiled. Three African American cleaners of this place were standing outside yelling at each other when I arrived, and then they were yelling again as I was trying to fall asleep. I heard somebody scratching against my door at night. A strange guy walked up to me and started harassing me as I was waiting for Lyft outside this place. Overall a pretty dangerous place to stay at. The outside is also decomposing and not like in the pictures. Somebody left boogers in the sheets - suggesting that they were not changed after whoever stayed there before me. There was also a hole in the sheets. If I hadn't stayed up for nearly 48 hours by that point, I would've asked for a different room or a refund, but I opted against this....I arrived at this motel when I was very tired. The $80 price was definitely too much for this place. The pictures I am attaching include black mold on the bathroom walls - I actually found a lot more mold above the tub later that night. Black mold causes respiratory problems. The sticky, dirty carpet made it difficult to find a place to stand to brush my teeth - I felt like this was outdoors and I was supposed to keep my shoes on. When I ate breakfast - the bagel was very stale, but I was too hungry to skip it. Most of the fruits were spoiled. Three African American cleaners of this place were standing outside yelling at each other when I arrived, and then they were yelling again as I was trying to fall asleep. I heard somebody scratching against my door at night. A strange guy walked up to me and started harassing me as I was waiting for Lyft outside this place. Overall a pretty dangerous place to stay at. The outside is also decomposing and not like in the pictures. Somebody left boogers in the sheets - suggesting that they were not changed after whoever stayed there before me. There was also a hole in the sheets. If I hadn't stayed up for nearly 48 hours by that point, I would've asked for a different room or a refund, but I opted against this. One bright point was that for the first time in many motel stays, there were no loud harassing homeless people or other violent-looking shady characters in the dining room when I ate breakfast: maybe because I arrived first thing at 6:30am.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r563572807-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>563572807</t>
+  </si>
+  <si>
+    <t>03/01/2018</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Sue P, Manager at Travelodge by Wyndham Lynwood, responded to this reviewResponded March 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 22, 2018</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r559506212-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>559506212</t>
+  </si>
+  <si>
+    <t>02/09/2018</t>
+  </si>
+  <si>
+    <t>Not a baaad spot</t>
+  </si>
+  <si>
+    <t>Nice room. Hardwood floor so you dont have to walk on nasty carpet. Shower worded good. Nice size tv. Only issue is walls are then. People next door were super load. Around 1am had to call security to have them be quite. Close to stapes center abot 12 milesMoreShow less</t>
+  </si>
+  <si>
+    <t>Nice room. Hardwood floor so you dont have to walk on nasty carpet. Shower worded good. Nice size tv. Only issue is walls are then. People next door were super load. Around 1am had to call security to have them be quite. Close to stapes center abot 12 milesMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r554936451-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>554936451</t>
+  </si>
+  <si>
+    <t>01/20/2018</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r551259422-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>551259422</t>
+  </si>
+  <si>
+    <t>01/03/2018</t>
+  </si>
+  <si>
+    <t>Very basic but clean</t>
+  </si>
+  <si>
+    <t>Location is shady and hard to get to, as the entrance is from the shopping plaza. The area is a bit low income, which is good for dining options, but safety wise, who knows. I liked that the rooms have been maintained well, and carpets have been replaced with nice white washed laminate. The breakfast is a joke, don't waste time, go down to Jack in the Box or Danny's (our choice). The nearby buffet has a take-out option, which my hubby did for 1 night. Overall, it's far from everything in LA, so we didn't enjoy the extra traffic... Also, the deposit is being held now for over 2 weeks... not sure if it's the hotel or the bank. It's also unreasonably high for this budget chain - $200!!!!Other better hotels in the same trip charged $25 and $75... and returned properly. They also DON'T have cribs or roll-away beds, or fridge.Anyhow, I got it via Priceline, without knowing much about the area, so can't complain.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Location is shady and hard to get to, as the entrance is from the shopping plaza. The area is a bit low income, which is good for dining options, but safety wise, who knows. I liked that the rooms have been maintained well, and carpets have been replaced with nice white washed laminate. The breakfast is a joke, don't waste time, go down to Jack in the Box or Danny's (our choice). The nearby buffet has a take-out option, which my hubby did for 1 night. Overall, it's far from everything in LA, so we didn't enjoy the extra traffic... Also, the deposit is being held now for over 2 weeks... not sure if it's the hotel or the bank. It's also unreasonably high for this budget chain - $200!!!!Other better hotels in the same trip charged $25 and $75... and returned properly. They also DON'T have cribs or roll-away beds, or fridge.Anyhow, I got it via Priceline, without knowing much about the area, so can't complain.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r550954676-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>550954676</t>
+  </si>
+  <si>
+    <t>01/02/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r547373705-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>547373705</t>
+  </si>
+  <si>
+    <t>12/15/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r524507699-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>524507699</t>
+  </si>
+  <si>
+    <t>09/14/2017</t>
+  </si>
+  <si>
+    <t>Convenient location, good rates</t>
+  </si>
+  <si>
+    <t>This is not the first time I have stayed at Travelodge Lynwood and it won't be the last. The hotel is convenient to public transport across the LA area because it is right next to the Metro Greenline which opens up all access to the Metro system, and just a short distance to LAX - connected to Aviation Station by bus.  Rooms are comfortable and clean and there is a continental breakfast supplied each morning. Plenty of options for food with a handful of fast food outlets within a block and a couple of supermarkets right next door; and a chinese restaurant which has a decent buffet is also next door.  Staff are friendly and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Sue P, Manager at Travelodge by Wyndham Lynwood, responded to this reviewResponded September 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 18, 2017</t>
+  </si>
+  <si>
+    <t>This is not the first time I have stayed at Travelodge Lynwood and it won't be the last. The hotel is convenient to public transport across the LA area because it is right next to the Metro Greenline which opens up all access to the Metro system, and just a short distance to LAX - connected to Aviation Station by bus.  Rooms are comfortable and clean and there is a continental breakfast supplied each morning. Plenty of options for food with a handful of fast food outlets within a block and a couple of supermarkets right next door; and a chinese restaurant which has a decent buffet is also next door.  Staff are friendly and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r521577802-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>521577802</t>
+  </si>
+  <si>
+    <t>09/05/2017</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r517193425-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>517193425</t>
+  </si>
+  <si>
+    <t>08/24/2017</t>
+  </si>
+  <si>
+    <t>I have bug bites all over my body!</t>
+  </si>
+  <si>
+    <t>I have been staying in this hotel for over a year, and was pretty satisfied specially with the location. Unfourtunately in my last visit bugs bit me all over my arms and feet in the first night and only got worse with each night that passed. I asked for a frisge and they did not give it to me because they "don't have many".MoreShow less</t>
+  </si>
+  <si>
+    <t>I have been staying in this hotel for over a year, and was pretty satisfied specially with the location. Unfourtunately in my last visit bugs bit me all over my arms and feet in the first night and only got worse with each night that passed. I asked for a frisge and they did not give it to me because they "don't have many".More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r503212969-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>503212969</t>
+  </si>
+  <si>
+    <t>07/18/2017</t>
+  </si>
+  <si>
+    <t>Don't waste your time or money</t>
+  </si>
+  <si>
+    <t>Travelodge Lynwood CA, has been holding a pending charge of $400 on my credit card for nearly 3 weeks after my visit. They refuse to acknowledge and reverse this pending charge. I'm forced to wait 30 days for my credit card company to drop this charge. Room/accommodations-  The rooms does not automatically come with a fridge or microwave. You must request those extras in advance, but,  be forewarned they have only have a few on site. The cable TV is a complete JOKE! They had maybe 4 working channels. If you encounter the TV problem with the 5 channel line up, be prepared to hear this excuse from the front desk, "we are having trouble with the satellite".  A friend who reserved during the same time didn't have any TV channels to show for at least a whole day.The carpet was a bit nasty and stained, however the beds were comfortable and the bathrooms were clean.  Due to the credit card charge, managers response, fridge and microwave mishaps, I will never use this hotel again. This place is not worthy of $116 a night! There are other hotels in the city of Bellflower, Carson and Gardena that are far better and cheaper than Lynwood Travelodge. Now in closing, if I can just get Sue (site manager) to run me my coins,  I would be happily on my way!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Travelodge Lynwood CA, has been holding a pending charge of $400 on my credit card for nearly 3 weeks after my visit. They refuse to acknowledge and reverse this pending charge. I'm forced to wait 30 days for my credit card company to drop this charge. Room/accommodations-  The rooms does not automatically come with a fridge or microwave. You must request those extras in advance, but,  be forewarned they have only have a few on site. The cable TV is a complete JOKE! They had maybe 4 working channels. If you encounter the TV problem with the 5 channel line up, be prepared to hear this excuse from the front desk, "we are having trouble with the satellite".  A friend who reserved during the same time didn't have any TV channels to show for at least a whole day.The carpet was a bit nasty and stained, however the beds were comfortable and the bathrooms were clean.  Due to the credit card charge, managers response, fridge and microwave mishaps, I will never use this hotel again. This place is not worthy of $116 a night! There are other hotels in the city of Bellflower, Carson and Gardena that are far better and cheaper than Lynwood Travelodge. Now in closing, if I can just get Sue (site manager) to run me my coins,  I would be happily on my way!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r497807806-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>497807806</t>
+  </si>
+  <si>
+    <t>07/01/2017</t>
+  </si>
+  <si>
+    <t>Excellent Service</t>
+  </si>
+  <si>
+    <t>The front desk staff was very friendly and accommodating. Housekeeping kept our room clean and tidy.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Sue P, General Manager at Travelodge by Wyndham Lynwood, responded to this reviewResponded July 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 4, 2017</t>
+  </si>
+  <si>
+    <t>The front desk staff was very friendly and accommodating. Housekeeping kept our room clean and tidy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r491528987-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>491528987</t>
+  </si>
+  <si>
+    <t>06/08/2017</t>
+  </si>
+  <si>
+    <t>Sue P, Manager at Travelodge by Wyndham Lynwood, responded to this reviewResponded June 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r485028620-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>485028620</t>
+  </si>
+  <si>
+    <t>05/17/2017</t>
+  </si>
+  <si>
+    <t>Reserved non-smoking room but the room smelled like someone had just smoked a pack of cigarettes in th room.</t>
+  </si>
+  <si>
+    <t>When I called front desk to complain about the smoke smell the receptionist said the maid didn't not tell her it smelled. She couldn't put me in another room because there weren't any available. She said she would check with her other coworker and call back. Never got a call back. Couldn't sleep due to the smell burning my nose. Horrible stay. Bathroom was dirty. Hair left in the bath tub. Toilet wasn't cleaned. I've stayed here before and never experienced this. Don't want to go back. Especially because nothing was done about the room. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Sue P, Manager at Travelodge by Wyndham Lynwood, responded to this reviewResponded May 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 20, 2017</t>
+  </si>
+  <si>
+    <t>When I called front desk to complain about the smoke smell the receptionist said the maid didn't not tell her it smelled. She couldn't put me in another room because there weren't any available. She said she would check with her other coworker and call back. Never got a call back. Couldn't sleep due to the smell burning my nose. Horrible stay. Bathroom was dirty. Hair left in the bath tub. Toilet wasn't cleaned. I've stayed here before and never experienced this. Don't want to go back. Especially because nothing was done about the room. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r483525669-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>483525669</t>
+  </si>
+  <si>
+    <t>05/11/2017</t>
+  </si>
+  <si>
+    <t>Love this place</t>
+  </si>
+  <si>
+    <t>I love staying here...its super clean....all the maids do a very good job n are friendly...gr8t hotelMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Sue P, Manager at Travelodge by Wyndham Lynwood, responded to this reviewResponded May 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 13, 2017</t>
+  </si>
+  <si>
+    <t>I love staying here...its super clean....all the maids do a very good job n are friendly...gr8t hotelMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r482483705-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>482483705</t>
+  </si>
+  <si>
+    <t>05/07/2017</t>
+  </si>
+  <si>
+    <t>Nice room but...</t>
+  </si>
+  <si>
+    <t>Bring your own breakfast.  Oh they had ...breakfast but no waffles, no microwave, they had oatmeal but no hot water, just bagels and little cinnamon rolls and danishes.  Overall I'd stay here again based on price and cleanliness of my room but I'd bring an ice chest (no room fridge) and I'd bring fruit or something else to supplement my breakfast.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Sue P, Manager at Travelodge by Wyndham Lynwood, responded to this reviewResponded May 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2017</t>
+  </si>
+  <si>
+    <t>Bring your own breakfast.  Oh they had ...breakfast but no waffles, no microwave, they had oatmeal but no hot water, just bagels and little cinnamon rolls and danishes.  Overall I'd stay here again based on price and cleanliness of my room but I'd bring an ice chest (no room fridge) and I'd bring fruit or something else to supplement my breakfast.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r480254002-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>480254002</t>
+  </si>
+  <si>
+    <t>04/30/2017</t>
+  </si>
+  <si>
+    <t>Sue P, Manager at Travelodge by Wyndham Lynwood, responded to this reviewResponded May 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 2, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r479536045-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>479536045</t>
+  </si>
+  <si>
+    <t>04/27/2017</t>
+  </si>
+  <si>
+    <t>Clean &amp; affordable!</t>
+  </si>
+  <si>
+    <t>It was a last minute trip, clean rooms that were affordable. We didn't spend too much time in rooms. Just to rest at night but it met our needs.MoreShow less</t>
+  </si>
+  <si>
+    <t>It was a last minute trip, clean rooms that were affordable. We didn't spend too much time in rooms. Just to rest at night but it met our needs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r474203364-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>474203364</t>
+  </si>
+  <si>
+    <t>04/10/2017</t>
+  </si>
+  <si>
+    <t>nothing to complain about</t>
+  </si>
+  <si>
+    <t>Quiet-Clean-Easy access to busses and train (L.A. metro green line). Right next to several fast foods and Rite AidMoreShow less</t>
+  </si>
+  <si>
+    <t>Sue P, Manager at Travelodge by Wyndham Lynwood, responded to this reviewResponded April 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 11, 2017</t>
+  </si>
+  <si>
+    <t>Quiet-Clean-Easy access to busses and train (L.A. metro green line). Right next to several fast foods and Rite AidMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r470980144-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>470980144</t>
+  </si>
+  <si>
+    <t>03/28/2017</t>
+  </si>
+  <si>
+    <t>Weekend of 3/24/17--3/26/17</t>
+  </si>
+  <si>
+    <t>Trip Advisors said no deposit but I had to pay a  $200.00 deposit at check-in &amp; that is something that should be disclosed when booking the room!! ( amount please ) Thank youMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Sue P, Manager at Travelodge by Wyndham Lynwood, responded to this reviewResponded March 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2017</t>
+  </si>
+  <si>
+    <t>Trip Advisors said no deposit but I had to pay a  $200.00 deposit at check-in &amp; that is something that should be disclosed when booking the room!! ( amount please ) Thank youMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r470923552-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>470923552</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r469705038-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>469705038</t>
+  </si>
+  <si>
+    <t>03/23/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r465070485-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>465070485</t>
+  </si>
+  <si>
+    <t>03/06/2017</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Sue P, Manager at Travelodge by Wyndham Lynwood, responded to this reviewResponded March 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 9, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r463249992-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>463249992</t>
+  </si>
+  <si>
+    <t>02/27/2017</t>
+  </si>
+  <si>
+    <t>Friendly staff, great location, noisy freeway</t>
+  </si>
+  <si>
+    <t>I really enjoy the location of this hotel, it's close to the freeway and rooms are clean. Negatives: It is not a good looking hotel and the freeway can get noisy but that's LA. A regular stay is $85 which is a bit expensive for how old school the hotel is but I always stay there because it's safe and rooms are clean. Plus sally in the front desk is very friendly and helpful!MoreShow less</t>
+  </si>
+  <si>
+    <t>Sue P, Manager at Travelodge by Wyndham Lynwood, responded to this reviewResponded March 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 1, 2017</t>
+  </si>
+  <si>
+    <t>I really enjoy the location of this hotel, it's close to the freeway and rooms are clean. Negatives: It is not a good looking hotel and the freeway can get noisy but that's LA. A regular stay is $85 which is a bit expensive for how old school the hotel is but I always stay there because it's safe and rooms are clean. Plus sally in the front desk is very friendly and helpful!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r461256084-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>461256084</t>
+  </si>
+  <si>
+    <t>02/19/2017</t>
+  </si>
+  <si>
+    <t>Really nice</t>
+  </si>
+  <si>
+    <t>I went here with my boy friend for Valentine's Day and it was nice. I don't go to hotel much but I would hav preferred if the tv cable had more channels. For $80 I wanted better channels. The bedding and decor was nice. The room was clean. I like how the cups were provided. The room should come with a fridge for $80. MoreShow less</t>
+  </si>
+  <si>
+    <t>Sue P, Manager at Travelodge by Wyndham Lynwood, responded to this reviewResponded February 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 23, 2017</t>
+  </si>
+  <si>
+    <t>I went here with my boy friend for Valentine's Day and it was nice. I don't go to hotel much but I would hav preferred if the tv cable had more channels. For $80 I wanted better channels. The bedding and decor was nice. The room was clean. I like how the cups were provided. The room should come with a fridge for $80. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r457177614-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>457177614</t>
+  </si>
+  <si>
+    <t>02/04/2017</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Sue P, Manager at Travelodge by Wyndham Lynwood, responded to this reviewResponded February 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 10, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r451080647-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>451080647</t>
+  </si>
+  <si>
+    <t>01/10/2017</t>
+  </si>
+  <si>
+    <t>Ok stay</t>
+  </si>
+  <si>
+    <t>The beds were comfortable enough. There was very poor water pressure in the shower. The continental breakfast was very poor. Your choice was bagels or cereal. The coffee did not taste good. The person looking after the breakfast did not speak English so communication was extremely difficult.  The wifi was not good at all. We stayed there for 5 days and for most of the time there was no wifi. The noise level between rooms was very loud.  I wouldn't likely stay there again. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>The beds were comfortable enough. There was very poor water pressure in the shower. The continental breakfast was very poor. Your choice was bagels or cereal. The coffee did not taste good. The person looking after the breakfast did not speak English so communication was extremely difficult.  The wifi was not good at all. We stayed there for 5 days and for most of the time there was no wifi. The noise level between rooms was very loud.  I wouldn't likely stay there again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r449233018-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>449233018</t>
+  </si>
+  <si>
+    <t>01/04/2017</t>
+  </si>
+  <si>
+    <t>great place I would come back</t>
+  </si>
+  <si>
+    <t>at the beginning it looks scary, but it is a nice area to stay around, and a lot of business to go to, it was a safe place I really enjoy it, I will recommended MoreShow less</t>
+  </si>
+  <si>
+    <t>Sue P, Manager at Travelodge by Wyndham Lynwood, responded to this reviewResponded January 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 6, 2017</t>
+  </si>
+  <si>
+    <t>at the beginning it looks scary, but it is a nice area to stay around, and a lot of business to go to, it was a safe place I really enjoy it, I will recommended More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r441811822-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>441811822</t>
+  </si>
+  <si>
+    <t>12/03/2016</t>
+  </si>
+  <si>
+    <t>Comfortable and close to freeway</t>
+  </si>
+  <si>
+    <t>Clean rooms, close to restaurants, fwy, plaza with Mexican specialty shopping. Internet worked well. The tv channels are limitedMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Sue P, Manager at Travelodge by Wyndham Lynwood, responded to this reviewResponded December 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 28, 2016</t>
+  </si>
+  <si>
+    <t>Clean rooms, close to restaurants, fwy, plaza with Mexican specialty shopping. Internet worked well. The tv channels are limitedMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r440977904-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>440977904</t>
+  </si>
+  <si>
+    <t>11/29/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r439099098-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>439099098</t>
+  </si>
+  <si>
+    <t>11/21/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r434644173-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>434644173</t>
+  </si>
+  <si>
+    <t>11/04/2016</t>
+  </si>
+  <si>
+    <t>Acceptable room, but the smells....</t>
+  </si>
+  <si>
+    <t>Typical Travelodge accommodation however, the first night of a two night stay, upon entering the room, smelled like someone(s) had been locked away in the room with the windows shut and the heat on.  Housekeeping must have noticed the next day as night two, the room smelled so bad of Fabuloso, that I could not open the bathroom door without a burning taste in my sinuses and throat.  The only other thing is getting into the place.  Turn into the shopping center right after Jack in the Box, or you'll end up on the freeway.  The street is set up very strangely.  Other than this, the bed was comfortable, room spacious, and most acceptable for the price.I did not contact hotel staff, but next time I will ask to be changed to another room.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sue P, Manager at Travelodge by Wyndham Lynwood, responded to this reviewResponded November 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 7, 2016</t>
+  </si>
+  <si>
+    <t>Typical Travelodge accommodation however, the first night of a two night stay, upon entering the room, smelled like someone(s) had been locked away in the room with the windows shut and the heat on.  Housekeeping must have noticed the next day as night two, the room smelled so bad of Fabuloso, that I could not open the bathroom door without a burning taste in my sinuses and throat.  The only other thing is getting into the place.  Turn into the shopping center right after Jack in the Box, or you'll end up on the freeway.  The street is set up very strangely.  Other than this, the bed was comfortable, room spacious, and most acceptable for the price.I did not contact hotel staff, but next time I will ask to be changed to another room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r433658336-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>433658336</t>
+  </si>
+  <si>
+    <t>11/01/2016</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Sue P, Manager at Travelodge by Wyndham Lynwood, responded to this reviewResponded November 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 3, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r428528344-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>428528344</t>
+  </si>
+  <si>
+    <t>10/16/2016</t>
+  </si>
+  <si>
+    <t>Sue P, Manager at Travelodge by Wyndham Lynwood, responded to this reviewResponded October 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 18, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r415401641-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>415401641</t>
+  </si>
+  <si>
+    <t>09/06/2016</t>
+  </si>
+  <si>
+    <t>Okay Hotel if you are renting a car and not going to LA everyday</t>
+  </si>
+  <si>
+    <t>The hotel was quite small and fairly clean although the bed sheets smelt a bit musty. The surroundings were good with a lot of supermarkets and cheap places to eat. It was far from LA but we had a lot of day trips to places other than LA so it did not matter too much to us. We decided to shorten the stay and alter our booking and they kindly obliged which was a notable positive. The breakfast was not anything great but the food was fine to eat. The receptionists were very helpful and gave us anything we required. All in all, a pleasant enough stay for us although the hotel is quite mediocre.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Sue P, Manager at Travelodge by Wyndham Lynwood, responded to this reviewResponded September 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 19, 2016</t>
+  </si>
+  <si>
+    <t>The hotel was quite small and fairly clean although the bed sheets smelt a bit musty. The surroundings were good with a lot of supermarkets and cheap places to eat. It was far from LA but we had a lot of day trips to places other than LA so it did not matter too much to us. We decided to shorten the stay and alter our booking and they kindly obliged which was a notable positive. The breakfast was not anything great but the food was fine to eat. The receptionists were very helpful and gave us anything we required. All in all, a pleasant enough stay for us although the hotel is quite mediocre.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r411469263-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>411469263</t>
+  </si>
+  <si>
+    <t>08/27/2016</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Sue P, General Manager at Travelodge by Wyndham Lynwood, responded to this reviewResponded September 19, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r405877576-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>405877576</t>
+  </si>
+  <si>
+    <t>08/15/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r403433013-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>403433013</t>
+  </si>
+  <si>
+    <t>08/09/2016</t>
+  </si>
+  <si>
+    <t>Little mexico atmosphere</t>
+  </si>
+  <si>
+    <t>Very far location from all shopping areas (Santa Monica/ Hollywood &amp; Highlands/ The Grove etc). Taxi fares can go up to $75-90 to go to these places especially with the traffic in Los Angeles! Hotel was so so in general..room was big and well cleaned very day. Air con was good..wifi was a bit bumpy from time to time. Had a pool which I didn't have time to try unfortunately. Breakfast was very very poor (toast with butter or jam, cereals, ready-to-go small muffins, coffee and milk - that was it!) The lobby was too small to accomodate all visitors for breakfast. Some customers ended up eating in their rooms. The water from the tap had a strong smell of chlorine. Even the towels had the same strong smell of chlorine. Taxis were never on time. I was very stressed on my departure day because taxi came 30mins late. Good thing is that there are 2 supermarkets and some fastfood nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>Very far location from all shopping areas (Santa Monica/ Hollywood &amp; Highlands/ The Grove etc). Taxi fares can go up to $75-90 to go to these places especially with the traffic in Los Angeles! Hotel was so so in general..room was big and well cleaned very day. Air con was good..wifi was a bit bumpy from time to time. Had a pool which I didn't have time to try unfortunately. Breakfast was very very poor (toast with butter or jam, cereals, ready-to-go small muffins, coffee and milk - that was it!) The lobby was too small to accomodate all visitors for breakfast. Some customers ended up eating in their rooms. The water from the tap had a strong smell of chlorine. Even the towels had the same strong smell of chlorine. Taxis were never on time. I was very stressed on my departure day because taxi came 30mins late. Good thing is that there are 2 supermarkets and some fastfood nearby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r401903073-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>401903073</t>
+  </si>
+  <si>
+    <t>08/05/2016</t>
+  </si>
+  <si>
+    <t>Excellent stay once again!</t>
+  </si>
+  <si>
+    <t>Let me start by saying that my wife and I have stayed here at least 5 times here and we keep coming back do to the excellent service here by Sally. She is extremely professional, knows how to treat her guests, is always on top of any tasks to make her guests feel appreciated and welcomed. The rooms themselves are nice, very clean, not to mention that the staff of ladies that work there are extremely hard workers and polite to help in anyway. Also you have the 105 freeway by you which is not very loud, a bit Mexican plaza near the hotel, dominos, Chinese food, food 4 less, taco Bell and Jack in the box walking distance. Never the less my wife and I are always very happy to be welcomed back by Sally and her staff. Thank you guysMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Let me start by saying that my wife and I have stayed here at least 5 times here and we keep coming back do to the excellent service here by Sally. She is extremely professional, knows how to treat her guests, is always on top of any tasks to make her guests feel appreciated and welcomed. The rooms themselves are nice, very clean, not to mention that the staff of ladies that work there are extremely hard workers and polite to help in anyway. Also you have the 105 freeway by you which is not very loud, a bit Mexican plaza near the hotel, dominos, Chinese food, food 4 less, taco Bell and Jack in the box walking distance. Never the less my wife and I are always very happy to be welcomed back by Sally and her staff. Thank you guysMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r399351199-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>399351199</t>
+  </si>
+  <si>
+    <t>07/30/2016</t>
+  </si>
+  <si>
+    <t>Relaxing place to stay</t>
+  </si>
+  <si>
+    <t>Lynwood Century Freeway Travelodge  very clean and a great place to stay at in Los Angeles, I think their should be more selecting to choose from for breaksfast and the deposit fee is to high other then that I love staying there.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sue P, Manager at Travelodge by Wyndham Lynwood, responded to this reviewResponded August 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2016</t>
+  </si>
+  <si>
+    <t>Lynwood Century Freeway Travelodge  very clean and a great place to stay at in Los Angeles, I think their should be more selecting to choose from for breaksfast and the deposit fee is to high other then that I love staying there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r393297804-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>393297804</t>
+  </si>
+  <si>
+    <t>07/16/2016</t>
+  </si>
+  <si>
+    <t>Easy access to and from LAX</t>
+  </si>
+  <si>
+    <t>The rooms are clean and the staff is friendly.The Metro is only a few minutes walk from the hotel and gives you access to a lot of LA.The area has everything you need food/drinks or groceries.  The breakfast is limited to just bagels, coffee, muffins and cereals and there was no place to sit for breakfast. It was crowded and small.We were told that breakfast was from 7.15 to 10.15, but a very persistent member of the staff would remove it at 9.30.The last day of our stay water began to run down from the bathroom ceiling.All in all the stay was alright.MoreShow less</t>
+  </si>
+  <si>
+    <t>The rooms are clean and the staff is friendly.The Metro is only a few minutes walk from the hotel and gives you access to a lot of LA.The area has everything you need food/drinks or groceries.  The breakfast is limited to just bagels, coffee, muffins and cereals and there was no place to sit for breakfast. It was crowded and small.We were told that breakfast was from 7.15 to 10.15, but a very persistent member of the staff would remove it at 9.30.The last day of our stay water began to run down from the bathroom ceiling.All in all the stay was alright.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r392936004-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>392936004</t>
+  </si>
+  <si>
+    <t>07/15/2016</t>
+  </si>
+  <si>
+    <t>Clean room, street noise a little loud</t>
+  </si>
+  <si>
+    <t>The room was clean and neat, well-priced.  The street noise was a little loud due to the hotel location, however I was very pleased with the actual hotel.  The staff was friendly and knowledgable, and the inernet was easy to access.MoreShow less</t>
+  </si>
+  <si>
+    <t>The room was clean and neat, well-priced.  The street noise was a little loud due to the hotel location, however I was very pleased with the actual hotel.  The staff was friendly and knowledgable, and the inernet was easy to access.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r392888194-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>392888194</t>
+  </si>
+  <si>
+    <t>Ok for the price!</t>
+  </si>
+  <si>
+    <t>Spacious and clean room. Plenty of shops nearby, taco bell, pizza hut, Rite aid etc etc. The only problem was the breakfast which was not nice. Just bagels, coffee, muffins and cereals and there was no place to sit in the lobby for breakfast. It was crowded and small. MoreShow less</t>
+  </si>
+  <si>
+    <t>Spacious and clean room. Plenty of shops nearby, taco bell, pizza hut, Rite aid etc etc. The only problem was the breakfast which was not nice. Just bagels, coffee, muffins and cereals and there was no place to sit in the lobby for breakfast. It was crowded and small. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r386909137-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>386909137</t>
+  </si>
+  <si>
+    <t>06/28/2016</t>
+  </si>
+  <si>
+    <t>Clean, nice staff, good stay</t>
+  </si>
+  <si>
+    <t>This hotel has a good price and pretty good location as it's only a 4 min walk away from the metro station. The staff was very helpful and always happy to assist which I appreciated very much. The breakfast is just basic with apples, bagels, muffins and drinks but you get what you pay for. The parking lot is big enough and it's located in a decent area with several food shops (Dominos next door).MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Sue P, Manager at Travelodge by Wyndham Lynwood, responded to this reviewResponded July 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 2, 2016</t>
+  </si>
+  <si>
+    <t>This hotel has a good price and pretty good location as it's only a 4 min walk away from the metro station. The staff was very helpful and always happy to assist which I appreciated very much. The breakfast is just basic with apples, bagels, muffins and drinks but you get what you pay for. The parking lot is big enough and it's located in a decent area with several food shops (Dominos next door).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r382601375-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>382601375</t>
+  </si>
+  <si>
+    <t>06/14/2016</t>
+  </si>
+  <si>
+    <t>Exceeded my expectations</t>
+  </si>
+  <si>
+    <t>I was not expecting much from this hotel, since other Travelodge hotels I have stayed at were nothing to rave about. But this particular hotel exceeded my expectations. Staff were friendly and helpful, rooms were exceptionally clean, beds were very comfortable. I am not saying it was perfect. Breakfast was simple - bagels and cereal - and wifi was intermittent. But overall it is a very good deal for the price.  I will definitely stay here again if I am back in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sue P, General Manager at Travelodge by Wyndham Lynwood, responded to this reviewResponded June 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 16, 2016</t>
+  </si>
+  <si>
+    <t>I was not expecting much from this hotel, since other Travelodge hotels I have stayed at were nothing to rave about. But this particular hotel exceeded my expectations. Staff were friendly and helpful, rooms were exceptionally clean, beds were very comfortable. I am not saying it was perfect. Breakfast was simple - bagels and cereal - and wifi was intermittent. But overall it is a very good deal for the price.  I will definitely stay here again if I am back in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r376489921-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>376489921</t>
+  </si>
+  <si>
+    <t>05/25/2016</t>
+  </si>
+  <si>
+    <t>You get what you pay for</t>
+  </si>
+  <si>
+    <t>Everything was exactly like how I expected for the price I paid. We got woken up several time due to noises from outside. Not just cars and ambulances, but there were several kids running back and forth early in the morning on the hallway, and it was obnoxiously loud. That went on for at least 15 mins before their mom told them to stop. However, the front desk person took it to another level of hospitality. She was super nice and easy to talk to. She accommodated our basic requests with an attitude that would light up your day.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Sue P, Manager at Travelodge by Wyndham Lynwood, responded to this reviewResponded May 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 27, 2016</t>
+  </si>
+  <si>
+    <t>Everything was exactly like how I expected for the price I paid. We got woken up several time due to noises from outside. Not just cars and ambulances, but there were several kids running back and forth early in the morning on the hallway, and it was obnoxiously loud. That went on for at least 15 mins before their mom told them to stop. However, the front desk person took it to another level of hospitality. She was super nice and easy to talk to. She accommodated our basic requests with an attitude that would light up your day.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r373368532-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>373368532</t>
+  </si>
+  <si>
+    <t>05/16/2016</t>
+  </si>
+  <si>
+    <t>Sue P, Manager at Travelodge by Wyndham Lynwood, responded to this reviewResponded May 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 17, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r373210059-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>373210059</t>
+  </si>
+  <si>
+    <t>05/15/2016</t>
+  </si>
+  <si>
+    <t>Nice Staff Friendly Hotel</t>
+  </si>
+  <si>
+    <t>The hotel is very nice. Close to restaurants and a small shopping center.  Close to the highway.    Comfortable and clean.  MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is very nice. Close to restaurants and a small shopping center.  Close to the highway.    Comfortable and clean.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r371648501-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>371648501</t>
+  </si>
+  <si>
+    <t>05/09/2016</t>
+  </si>
+  <si>
+    <t>Good for the price</t>
+  </si>
+  <si>
+    <t>Stayed for 3 nights at this Hotel. It is located in the quiet suburb of Lynwood but has shopping, restaurants in close vicinity. Check in was a breeze &amp; the room was nice and clean. Only issue was the breakfast.....which was bare basic. All in all a good experience. MoreShow less</t>
+  </si>
+  <si>
+    <t>Sue P, Manager at Travelodge by Wyndham Lynwood, responded to this reviewResponded May 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 11, 2016</t>
+  </si>
+  <si>
+    <t>Stayed for 3 nights at this Hotel. It is located in the quiet suburb of Lynwood but has shopping, restaurants in close vicinity. Check in was a breeze &amp; the room was nice and clean. Only issue was the breakfast.....which was bare basic. All in all a good experience. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r364620683-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>364620683</t>
+  </si>
+  <si>
+    <t>04/16/2016</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Sue P, Manager at Travelodge by Wyndham Lynwood, responded to this reviewResponded April 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r364041941-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>364041941</t>
+  </si>
+  <si>
+    <t>04/13/2016</t>
+  </si>
+  <si>
+    <t>Clean and nice receptionist( night- shifted) I left my...</t>
+  </si>
+  <si>
+    <t>Clean and nice receptionist( night- shifted) I left my luggage at hotel for a 3 day trip and I get back my luggage and stay for 2 days more.The breakfast is average. Near to Metro and airport, goodMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Clean and nice receptionist( night- shifted) I left my luggage at hotel for a 3 day trip and I get back my luggage and stay for 2 days more.The breakfast is average. Near to Metro and airport, goodMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r363948587-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>363948587</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r357719898-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>357719898</t>
+  </si>
+  <si>
+    <t>03/22/2016</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Sue P, Manager at Travelodge by Wyndham Lynwood, responded to this reviewResponded April 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 15, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r356793764-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>356793764</t>
+  </si>
+  <si>
+    <t>03/19/2016</t>
+  </si>
+  <si>
+    <t>Perfect</t>
+  </si>
+  <si>
+    <t>It's very good, the hotel is economy, the room is clean, it's a good option for stay near plaza Mexico MoreShow less</t>
+  </si>
+  <si>
+    <t>Sue-per1, Manager at Travelodge by Wyndham Lynwood, responded to this reviewResponded March 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 21, 2016</t>
+  </si>
+  <si>
+    <t>It's very good, the hotel is economy, the room is clean, it's a good option for stay near plaza Mexico More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r354614166-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>354614166</t>
+  </si>
+  <si>
+    <t>03/11/2016</t>
+  </si>
+  <si>
+    <t>I love the travelodge</t>
+  </si>
+  <si>
+    <t>Travelodge is the best for me to get my rest .its shopping centers near by .the staff are so kind Sally is my favorite over all MoreShow less</t>
+  </si>
+  <si>
+    <t>Travelodge is the best for me to get my rest .its shopping centers near by .the staff are so kind Sally is my favorite over all More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r342476947-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>342476947</t>
+  </si>
+  <si>
+    <t>01/24/2016</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r339531150-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>339531150</t>
+  </si>
+  <si>
+    <t>01/12/2016</t>
+  </si>
+  <si>
+    <t>Brother and Sisters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room kind of noisy - could hear noise from next room.Mattress too soft.Other than that all was ok all things considered.I would go back to this hotel if needed to come back to this presice area in LA. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r331689598-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>331689598</t>
+  </si>
+  <si>
+    <t>12/09/2015</t>
+  </si>
+  <si>
+    <t>Great Stay!</t>
+  </si>
+  <si>
+    <t>Great place to get away.. even if it is only for a day or two. The location could use a bit of an upgrade but overall it is a great place to stay. Don't count on the continental breakfast... The juice is pretty bad and it seems to be cleaned out by 8:30am. Parking is pretty scarce in the weekends and check in/out is a breeze. The comp WiFi seems a lot slower than using your mobile data. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Sue-per1, General Manager at Travelodge by Wyndham Lynwood, responded to this reviewResponded December 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 11, 2015</t>
+  </si>
+  <si>
+    <t>Great place to get away.. even if it is only for a day or two. The location could use a bit of an upgrade but overall it is a great place to stay. Don't count on the continental breakfast... The juice is pretty bad and it seems to be cleaned out by 8:30am. Parking is pretty scarce in the weekends and check in/out is a breeze. The comp WiFi seems a lot slower than using your mobile data. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r318291290-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>318291290</t>
+  </si>
+  <si>
+    <t>10/13/2015</t>
+  </si>
+  <si>
+    <t>Three finns near the end of Route 66</t>
+  </si>
+  <si>
+    <t>Clean, well located and easy to find, close to Plaza Mexico with excellent restaurants!Breakfast limited, no guest laundry.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Sue-per1, General Manager at Travelodge by Wyndham Lynwood, responded to this reviewResponded October 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 14, 2015</t>
+  </si>
+  <si>
+    <t>Clean, well located and easy to find, close to Plaza Mexico with excellent restaurants!Breakfast limited, no guest laundry.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r314935081-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>314935081</t>
+  </si>
+  <si>
+    <t>09/29/2015</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>For the most part is always a good visit.  I would like to be able to check in a little early and it would be nice to have access to the pool. This visit our toilet could of been a little cleaner.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r309065839-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>309065839</t>
+  </si>
+  <si>
+    <t>09/10/2015</t>
+  </si>
+  <si>
+    <t>Our stay at Travelodge</t>
+  </si>
+  <si>
+    <t>Room was ok. But they charged for ice and they said refrigerator and microwavez are available upon request. We requested them when we made our reservation. It was not in our room when we arrived on Saturday check in, we got it after maid service Sunday afternoon but we were leaving Monday morning so they were not there when we needed them.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sue-per1, General Manager at Travelodge by Wyndham Lynwood, responded to this reviewResponded September 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 12, 2015</t>
+  </si>
+  <si>
+    <t>Room was ok. But they charged for ice and they said refrigerator and microwavez are available upon request. We requested them when we made our reservation. It was not in our room when we arrived on Saturday check in, we got it after maid service Sunday afternoon but we were leaving Monday morning so they were not there when we needed them.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r299720889-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>299720889</t>
+  </si>
+  <si>
+    <t>08/15/2015</t>
+  </si>
+  <si>
+    <t>Smoking</t>
+  </si>
+  <si>
+    <t>Room was clean. We got a nonsmoking room but had people standing right outside our door smoking. No refrigerator or microwave in the rooms.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r292799764-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>292799764</t>
+  </si>
+  <si>
+    <t>07/26/2015</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r291584314-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>291584314</t>
+  </si>
+  <si>
+    <t>07/22/2015</t>
+  </si>
+  <si>
+    <t>good for one night near the airport</t>
+  </si>
+  <si>
+    <t>old furniture in the room, with view on a wallgood breakfastbut the staff is not very comprehensive</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r274928431-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>274928431</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r272892740-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>272892740</t>
+  </si>
+  <si>
+    <t>05/18/2015</t>
+  </si>
+  <si>
+    <t>Good hotel Friendly people</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed in this hotel for two nights. The place is good quite and the rooms was fine. Location is in ok neighborhood, nearby grocery shoppers and restaurants.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r272037929-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>272037929</t>
+  </si>
+  <si>
+    <t>05/14/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very budget motel like </t>
+  </si>
+  <si>
+    <t>Pretty decent sized room. Old and outdated.  Smells old.. very one night stand motel feel to it . I won't stay here again unless has major renovation .But big plus is the wide selection of food shopping across the parking lot</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r262884524-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>262884524</t>
+  </si>
+  <si>
+    <t>03/31/2015</t>
+  </si>
+  <si>
+    <t>Never going to book at this place again.</t>
+  </si>
+  <si>
+    <t>I liked how this place was cheap for us during our stay however that's pretty much it. What I didn't like was the; sketchy surrounding area,wi-fi was too slow, there were ants crawling every where from the counter to the floor, the poor service, some random person kept calling our phone, the cleaning people just threw away our food and drinks that we had bought the night before and the carpet was super dirty, though it didn't look like it when I walked in but once I walked around for a few minutes both of my foot turned black as if I have been stepping in dirt the whole day. YEP, I am never coming back to this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>I liked how this place was cheap for us during our stay however that's pretty much it. What I didn't like was the; sketchy surrounding area,wi-fi was too slow, there were ants crawling every where from the counter to the floor, the poor service, some random person kept calling our phone, the cleaning people just threw away our food and drinks that we had bought the night before and the carpet was super dirty, though it didn't look like it when I walked in but once I walked around for a few minutes both of my foot turned black as if I have been stepping in dirt the whole day. YEP, I am never coming back to this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r261721660-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>261721660</t>
+  </si>
+  <si>
+    <t>03/25/2015</t>
+  </si>
+  <si>
+    <t>Hotel is fine, area is shady</t>
+  </si>
+  <si>
+    <t>The hotel was pretty good actually. Staff was MEGA friendly, hotel room was enormous, with free breakfast, wifi and parking. No refrigerator and microwave though. The reason I wouldn't go back is the area. I booked there because it was relatively near the airport, but if I had known the area was that awful, I would have booked elsewhere. It is an industrial neighborhood; dirty, grey, no houses, no friendly faces and I honestly didn't feel safe. The hotel is 10 meters away from the freeway entrance. Kudos for the hotel, it's a pity it's located there.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Sue-per1, General Manager at Travelodge by Wyndham Lynwood, responded to this reviewResponded March 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 27, 2015</t>
+  </si>
+  <si>
+    <t>The hotel was pretty good actually. Staff was MEGA friendly, hotel room was enormous, with free breakfast, wifi and parking. No refrigerator and microwave though. The reason I wouldn't go back is the area. I booked there because it was relatively near the airport, but if I had known the area was that awful, I would have booked elsewhere. It is an industrial neighborhood; dirty, grey, no houses, no friendly faces and I honestly didn't feel safe. The hotel is 10 meters away from the freeway entrance. Kudos for the hotel, it's a pity it's located there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r256468753-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>256468753</t>
+  </si>
+  <si>
+    <t>02/25/2015</t>
+  </si>
+  <si>
+    <t>okay for the price</t>
+  </si>
+  <si>
+    <t>Clean and okay for the price. We arrived late and the lady at the desk was fast to get us our room sincr we were all tired from our long drive.The place was quiet but the walls are too thin that I could hear the conversations from the next room.</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r250802958-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>250802958</t>
+  </si>
+  <si>
+    <t>01/24/2015</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Sue-per1, General Manager at Travelodge by Wyndham Lynwood, responded to this reviewResponded January 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 26, 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r248643260-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>248643260</t>
+  </si>
+  <si>
+    <t>01/10/2015</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r247170227-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>247170227</t>
+  </si>
+  <si>
+    <t>01/03/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r241765581-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>241765581</t>
+  </si>
+  <si>
+    <t>11/27/2014</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Sue-per1, General Manager at Travelodge by Wyndham Lynwood, responded to this reviewResponded December 16, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 16, 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r241319481-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>241319481</t>
+  </si>
+  <si>
+    <t>11/24/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r238196930-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>238196930</t>
+  </si>
+  <si>
+    <t>11/04/2014</t>
+  </si>
+  <si>
+    <t>Cheap price wasn't worth it!</t>
+  </si>
+  <si>
+    <t>Basically needed a bed for a late night arrival out of town. We booked this online without really checking it out because the price was cheap. I'm not so sure it was worth it. Our bed was super uncomfortable. The sheets were scratchy, like they had been washed a million times, and needed to be replaced. The sink had no water pressure at all! It took me like 10 minutes to brush my teeth. The lighting was real bad too. I had to turn every lamp on manually in the room and it was still pretty dark in there. I definitely remember taking a very dark shower. The Kleenex box cover broke right off the wall the moment I went to grab a Kleenex. And the continental breakfast was a joke. It was basically apples, bagels, and cheap coffee. 
+And just a note about getting there, there is no actual entrance, which is very confusing. What looks to be the entrance into the hotel is actually the on-ramp to a major highway (which we unknowingly took). We had to reroute on the highway for a couple of miles and take back-roads to get back to the hotel. The entrance is only through a parking plaza on the very backside. So in case you haven't figured this out yet, there is constant highway noise in the background. But if you're looking for something super cheap, and don't care about any of...Basically needed a bed for a late night arrival out of town. We booked this online without really checking it out because the price was cheap. I'm not so sure it was worth it. Our bed was super uncomfortable. The sheets were scratchy, like they had been washed a million times, and needed to be replaced. The sink had no water pressure at all! It took me like 10 minutes to brush my teeth. The lighting was real bad too. I had to turn every lamp on manually in the room and it was still pretty dark in there. I definitely remember taking a very dark shower. The Kleenex box cover broke right off the wall the moment I went to grab a Kleenex. And the continental breakfast was a joke. It was basically apples, bagels, and cheap coffee. And just a note about getting there, there is no actual entrance, which is very confusing. What looks to be the entrance into the hotel is actually the on-ramp to a major highway (which we unknowingly took). We had to reroute on the highway for a couple of miles and take back-roads to get back to the hotel. The entrance is only through a parking plaza on the very backside. So in case you haven't figured this out yet, there is constant highway noise in the background. But if you're looking for something super cheap, and don't care about any of this, this is the hotel for you!MoreShow less</t>
+  </si>
+  <si>
+    <t>Sue-per1, General Manager at Travelodge by Wyndham Lynwood, responded to this reviewResponded November 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 6, 2014</t>
+  </si>
+  <si>
+    <t>Basically needed a bed for a late night arrival out of town. We booked this online without really checking it out because the price was cheap. I'm not so sure it was worth it. Our bed was super uncomfortable. The sheets were scratchy, like they had been washed a million times, and needed to be replaced. The sink had no water pressure at all! It took me like 10 minutes to brush my teeth. The lighting was real bad too. I had to turn every lamp on manually in the room and it was still pretty dark in there. I definitely remember taking a very dark shower. The Kleenex box cover broke right off the wall the moment I went to grab a Kleenex. And the continental breakfast was a joke. It was basically apples, bagels, and cheap coffee. 
+And just a note about getting there, there is no actual entrance, which is very confusing. What looks to be the entrance into the hotel is actually the on-ramp to a major highway (which we unknowingly took). We had to reroute on the highway for a couple of miles and take back-roads to get back to the hotel. The entrance is only through a parking plaza on the very backside. So in case you haven't figured this out yet, there is constant highway noise in the background. But if you're looking for something super cheap, and don't care about any of...Basically needed a bed for a late night arrival out of town. We booked this online without really checking it out because the price was cheap. I'm not so sure it was worth it. Our bed was super uncomfortable. The sheets were scratchy, like they had been washed a million times, and needed to be replaced. The sink had no water pressure at all! It took me like 10 minutes to brush my teeth. The lighting was real bad too. I had to turn every lamp on manually in the room and it was still pretty dark in there. I definitely remember taking a very dark shower. The Kleenex box cover broke right off the wall the moment I went to grab a Kleenex. And the continental breakfast was a joke. It was basically apples, bagels, and cheap coffee. And just a note about getting there, there is no actual entrance, which is very confusing. What looks to be the entrance into the hotel is actually the on-ramp to a major highway (which we unknowingly took). We had to reroute on the highway for a couple of miles and take back-roads to get back to the hotel. The entrance is only through a parking plaza on the very backside. So in case you haven't figured this out yet, there is constant highway noise in the background. But if you're looking for something super cheap, and don't care about any of this, this is the hotel for you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r234416057-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>234416057</t>
+  </si>
+  <si>
+    <t>10/14/2014</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r231366606-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>231366606</t>
+  </si>
+  <si>
+    <t>09/28/2014</t>
+  </si>
+  <si>
+    <t>Decent option for the price</t>
+  </si>
+  <si>
+    <t>Stayed here on arrival in LA late at night. Check in was quick and friendly. The room was absolutely fine and had decent shower and linens etc. Seemed comfortable and fairly quiet.Breakfast was ok if you were just hungry - bagels (couldnt see any spread), plastic wrapped pastries and cereal (milk again missing). Coffee was good and fruit available.There are restaurants close by if, like us, you skip it!For what I paid it was a decent choice close to the freeway for the start of our drive north.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r223276873-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>223276873</t>
+  </si>
+  <si>
+    <t>08/20/2014</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r220166746-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>220166746</t>
+  </si>
+  <si>
+    <t>08/06/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r211922744-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>211922744</t>
+  </si>
+  <si>
+    <t>06/24/2014</t>
+  </si>
+  <si>
+    <t>this place was awful everywhere</t>
+  </si>
+  <si>
+    <t>there were ants all over the bathroom manager did nothing said there was nothing they could do they were very condescending I will never stay there againthe attitude of the manager was unprofessionalthey did absolutely nothing to try and fix the situation when I told them I would never be coming back they said that was my choicethey were supposed to have continental breakfast till 11 at 10:10 they decided to close it said there was enough already put out I will never stay here again I have never felt so belittle dMoreShow less</t>
+  </si>
+  <si>
+    <t>Sue-per1, General Manager at Travelodge by Wyndham Lynwood, responded to this reviewResponded June 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2014</t>
+  </si>
+  <si>
+    <t>there were ants all over the bathroom manager did nothing said there was nothing they could do they were very condescending I will never stay there againthe attitude of the manager was unprofessionalthey did absolutely nothing to try and fix the situation when I told them I would never be coming back they said that was my choicethey were supposed to have continental breakfast till 11 at 10:10 they decided to close it said there was enough already put out I will never stay here again I have never felt so belittle dMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r210512565-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>210512565</t>
+  </si>
+  <si>
+    <t>06/15/2014</t>
+  </si>
+  <si>
+    <t>Clean and comfy room but noisy due to the highway</t>
+  </si>
+  <si>
+    <t>The room itself is fine, clean and spacious. Unfortunately, our room was right in the corner facing the highway and the long beach boulevard therefore it got s bit noisy at times especially when sirens were off from the police cars and ambulances.Staff were helpful though we had a call at 10.30 advising us that the cake  out time was 11am which was a bit strange. Breakfast is a nice touch too with cheese, bagels, marmalade, apples, bananas and 2 types of cereal.There are heaps of food places including a Chinese buffet, and various mexican restaurants as well as food for less supermarket. 4 minute walk from the metro station and about 30  - 40 minutes from LAX. Local police advised us to be careful around long beach boulevard as you do see some strange characters hanging out especially underneath the highway bridge. Overall we were happy with our stay at this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>The room itself is fine, clean and spacious. Unfortunately, our room was right in the corner facing the highway and the long beach boulevard therefore it got s bit noisy at times especially when sirens were off from the police cars and ambulances.Staff were helpful though we had a call at 10.30 advising us that the cake  out time was 11am which was a bit strange. Breakfast is a nice touch too with cheese, bagels, marmalade, apples, bananas and 2 types of cereal.There are heaps of food places including a Chinese buffet, and various mexican restaurants as well as food for less supermarket. 4 minute walk from the metro station and about 30  - 40 minutes from LAX. Local police advised us to be careful around long beach boulevard as you do see some strange characters hanging out especially underneath the highway bridge. Overall we were happy with our stay at this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r204902763-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>204902763</t>
+  </si>
+  <si>
+    <t>05/09/2014</t>
+  </si>
+  <si>
+    <t>Monthly visit</t>
+  </si>
+  <si>
+    <t>I have stayed here three times an each time gets better great staff clean rooms and very helpful every time we were given quick service and even checked in early girl at front desk very sweet this is the only place I will stay in.lynwood going back may 24</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r197754445-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>197754445</t>
+  </si>
+  <si>
+    <t>03/17/2014</t>
+  </si>
+  <si>
+    <t>LA Stay</t>
+  </si>
+  <si>
+    <t>I did a QUICK search for Travel Loge in LA. Not knowing the area very well. I would have to say it is in a convenient location. One BAD thing was, I wish there was at least a mini fridge in the room!! MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Sue-per1, General Manager at Travelodge by Wyndham Lynwood, responded to this reviewResponded March 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2014</t>
+  </si>
+  <si>
+    <t>I did a QUICK search for Travel Loge in LA. Not knowing the area very well. I would have to say it is in a convenient location. One BAD thing was, I wish there was at least a mini fridge in the room!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r196770144-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>196770144</t>
+  </si>
+  <si>
+    <t>03/09/2014</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r188470850-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>188470850</t>
+  </si>
+  <si>
+    <t>12/24/2013</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r187659563-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>187659563</t>
+  </si>
+  <si>
+    <t>12/14/2013</t>
+  </si>
+  <si>
+    <t>Horrible</t>
+  </si>
+  <si>
+    <t>One thing nice is the staff other than that the rooms are outdated the TV is old and only has local channels the shower head barely had water coming out I would not stay here ever again even if I was paid. The TV had missing knobs and when I called about the cable channels I was told they no longer work. This location gets a big fat F....MoreShow less</t>
+  </si>
+  <si>
+    <t>Sue-per1, General Manager at Travelodge by Wyndham Lynwood, responded to this reviewResponded December 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 16, 2013</t>
+  </si>
+  <si>
+    <t>One thing nice is the staff other than that the rooms are outdated the TV is old and only has local channels the shower head barely had water coming out I would not stay here ever again even if I was paid. The TV had missing knobs and when I called about the cable channels I was told they no longer work. This location gets a big fat F....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r185543462-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>185543462</t>
+  </si>
+  <si>
+    <t>11/22/2013</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r177240501-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>177240501</t>
+  </si>
+  <si>
+    <t>09/15/2013</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r175835991-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>175835991</t>
+  </si>
+  <si>
+    <t>09/04/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r172744810-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>172744810</t>
+  </si>
+  <si>
+    <t>08/17/2013</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r171804163-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>171804163</t>
+  </si>
+  <si>
+    <t>08/11/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r166993049-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>166993049</t>
+  </si>
+  <si>
+    <t>07/09/2013</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Sue-per1, General Manager at Travelodge by Wyndham Lynwood, responded to this reviewResponded July 15, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 15, 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r166698473-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>166698473</t>
+  </si>
+  <si>
+    <t>07/07/2013</t>
+  </si>
+  <si>
+    <t>A Rather Pleasant Stay</t>
+  </si>
+  <si>
+    <t>For the price and proximity to LA, I think this Travelodge was a great choice! Pros: The room was nice; it seemed a little better/more refurbished than the current photos suggest.  The housekeeping was courteous and cleaned the room everyday (made beds, emptied trash, replenished toiletries, etc.).  The front desk reception was polite and very prompt in getting my friend and myself the room.  The surrounding area was safe during my stay and the location of the hotel is very convenient as there's affordable options for food (Taco Bell, Jack in the Box, McDonalds, Denny's, a Chinese buffet), gas stations, a Food 4 Less, and is right by a freeway entrance.Cons: The walls seemed a bit thin and you could sometimes hear what was on going in the next room.  Since my room was on the first floor you could also hear the stomps from the people staying above.  Some people might find this annoying, but I didn't find it to be particularly bothersome.The small hotel parking lot is a bit of an inconvenience. One night, I got to the room late at night and found that the hotel parking lot was full, so I had to park in the lot across the way nearby the shopping plaza. Luckily, my car was still there the next morning.Overall, I enjoyed my four nights here and would definitely choose to stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>For the price and proximity to LA, I think this Travelodge was a great choice! Pros: The room was nice; it seemed a little better/more refurbished than the current photos suggest.  The housekeeping was courteous and cleaned the room everyday (made beds, emptied trash, replenished toiletries, etc.).  The front desk reception was polite and very prompt in getting my friend and myself the room.  The surrounding area was safe during my stay and the location of the hotel is very convenient as there's affordable options for food (Taco Bell, Jack in the Box, McDonalds, Denny's, a Chinese buffet), gas stations, a Food 4 Less, and is right by a freeway entrance.Cons: The walls seemed a bit thin and you could sometimes hear what was on going in the next room.  Since my room was on the first floor you could also hear the stomps from the people staying above.  Some people might find this annoying, but I didn't find it to be particularly bothersome.The small hotel parking lot is a bit of an inconvenience. One night, I got to the room late at night and found that the hotel parking lot was full, so I had to park in the lot across the way nearby the shopping plaza. Luckily, my car was still there the next morning.Overall, I enjoyed my four nights here and would definitely choose to stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r160336498-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>160336498</t>
+  </si>
+  <si>
+    <t>05/10/2013</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r160124261-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>160124261</t>
+  </si>
+  <si>
+    <t>05/08/2013</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Sue-per1, General Manager at Travelodge by Wyndham Lynwood, responded to this reviewResponded May 12, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 12, 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r159423136-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>159423136</t>
+  </si>
+  <si>
+    <t>05/02/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r156856068-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>156856068</t>
+  </si>
+  <si>
+    <t>04/07/2013</t>
+  </si>
+  <si>
+    <t>good service</t>
+  </si>
+  <si>
+    <t>i stayed there lash. week and i check  in at 2.00 am in the morning that check in was very nice and fast ,that person who check mi in wast very nice lady very ,i like mi room nice and clean smell nice i love to stayed thereMoreShow less</t>
+  </si>
+  <si>
+    <t>i stayed there lash. week and i check  in at 2.00 am in the morning that check in was very nice and fast ,that person who check mi in wast very nice lady very ,i like mi room nice and clean smell nice i love to stayed thereMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r155989200-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>155989200</t>
+  </si>
+  <si>
+    <t>03/29/2013</t>
+  </si>
+  <si>
+    <t>Don't drive around this area at night; Dirty room</t>
+  </si>
+  <si>
+    <t>Disgusting discovery on 'clean' towels.Dirty bathroom area.Was advised by local friends not to drive in that area at night due to gang issues.Poor breakfast.Pool closed.Polite but ineffective receptionist.Moved hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Sue-per1, General Manager at Travelodge by Wyndham Lynwood, responded to this reviewResponded March 31, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 31, 2013</t>
+  </si>
+  <si>
+    <t>Disgusting discovery on 'clean' towels.Dirty bathroom area.Was advised by local friends not to drive in that area at night due to gang issues.Poor breakfast.Pool closed.Polite but ineffective receptionist.Moved hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r155654241-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>155654241</t>
+  </si>
+  <si>
+    <t>03/25/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r153254422-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>153254422</t>
+  </si>
+  <si>
+    <t>02/26/2013</t>
+  </si>
+  <si>
+    <t>Nice place right price</t>
+  </si>
+  <si>
+    <t>I stayed from February 22-24, 2013 The check in was fast, common area nice and clean, nice landscaping. Security cameras covering parking lot. Rooms were nice and clean, smell nice ad bathrooms too. It was a good place to stay for a limited budget nice pillows and clean bedding, carpets were clean too. Fast food and pharmacy walking distance. I would only add a toaster in the breakfast area for the bagels other than that I will stay again on my next visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>Sue-per1, General Manager at Travelodge by Wyndham Lynwood, responded to this reviewResponded February 28, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 28, 2013</t>
+  </si>
+  <si>
+    <t>I stayed from February 22-24, 2013 The check in was fast, common area nice and clean, nice landscaping. Security cameras covering parking lot. Rooms were nice and clean, smell nice ad bathrooms too. It was a good place to stay for a limited budget nice pillows and clean bedding, carpets were clean too. Fast food and pharmacy walking distance. I would only add a toaster in the breakfast area for the bagels other than that I will stay again on my next visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r152412349-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>152412349</t>
+  </si>
+  <si>
+    <t>02/18/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r150301822-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>150301822</t>
+  </si>
+  <si>
+    <t>01/22/2013</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r145355676-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>145355676</t>
+  </si>
+  <si>
+    <t>11/13/2012</t>
+  </si>
+  <si>
+    <t>nice experince</t>
+  </si>
+  <si>
+    <t>the service is good the room is cleanthe location is good I liked thje only thing i don't like is the tv is no't clear   is to oldneed to renew the tv in all rooms  the location is perfet closed to fwy in shoping centerMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Sue-per1, Manager at Travelodge by Wyndham Lynwood, responded to this reviewResponded November 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 17, 2012</t>
+  </si>
+  <si>
+    <t>the service is good the room is cleanthe location is good I liked thje only thing i don't like is the tv is no't clear   is to oldneed to renew the tv in all rooms  the location is perfet closed to fwy in shoping centerMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r139702204-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>139702204</t>
+  </si>
+  <si>
+    <t>09/07/2012</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>Sue-per1, General Manager at Travelodge by Wyndham Lynwood, responded to this reviewResponded October 15, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 15, 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r131871026-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>131871026</t>
+  </si>
+  <si>
+    <t>06/12/2012</t>
+  </si>
+  <si>
+    <t>Very nice and great location</t>
+  </si>
+  <si>
+    <t>I was a little apprehensive about staying here after reading some of the reviews, but I was pleasantly surprised on my 3 night stay. The location was great, centrally located between Hollywood and Anaheim, where i was working. Very quite neighborhood, and close to grocery and drug stores as well as plenty of restaurants. The staff were extremely friendly and attentive. Room smelled very fresh and clean and the bathrooms were all marble and ceramic tile. 
+Don't be fooled by these haters who think they should get a 5 star room for $49 bucks a night.... You get what you pay for.... and i don't understand all the nit picking you guys do. I am in the entertainment ( Music )  industry and I have stayed at them all from Ritz Carlton's to Motel 6, over the years. I get my itinerary  from my boss and I stay where I am placed...... so....  I know the difference.. !!!  
+This place was very well kept form the groundskeeping to the rooms.... 
+I would recommend this hotel to my friends and relatives in a heartbeat.... and I am sure none will be disappointed or delusional by thinking they will have mints on their pillows at a Travel lodge. 
+Again... If you see an ant crawl across the sidewalk OUTSIDE ... that does not warrant a negative comment. Its hard enough going through all the reviews trying to sort out decent places to...I was a little apprehensive about staying here after reading some of the reviews, but I was pleasantly surprised on my 3 night stay. The location was great, centrally located between Hollywood and Anaheim, where i was working. Very quite neighborhood, and close to grocery and drug stores as well as plenty of restaurants. The staff were extremely friendly and attentive. Room smelled very fresh and clean and the bathrooms were all marble and ceramic tile. Don't be fooled by these haters who think they should get a 5 star room for $49 bucks a night.... You get what you pay for.... and i don't understand all the nit picking you guys do. I am in the entertainment ( Music )  industry and I have stayed at them all from Ritz Carlton's to Motel 6, over the years. I get my itinerary  from my boss and I stay where I am placed...... so....  I know the difference.. !!!  This place was very well kept form the groundskeeping to the rooms.... I would recommend this hotel to my friends and relatives in a heartbeat.... and I am sure none will be disappointed or delusional by thinking they will have mints on their pillows at a Travel lodge. Again... If you see an ant crawl across the sidewalk OUTSIDE ... that does not warrant a negative comment. Its hard enough going through all the reviews trying to sort out decent places to stay.... If I would have listened to the negative comments on this place, I would have never discovered this diamond in the rough... !!!  Great job travel Lodge staff... I WILL BE BACK !!!!!!                 Frank J.                  Memphis TennesseeMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>I was a little apprehensive about staying here after reading some of the reviews, but I was pleasantly surprised on my 3 night stay. The location was great, centrally located between Hollywood and Anaheim, where i was working. Very quite neighborhood, and close to grocery and drug stores as well as plenty of restaurants. The staff were extremely friendly and attentive. Room smelled very fresh and clean and the bathrooms were all marble and ceramic tile. 
+Don't be fooled by these haters who think they should get a 5 star room for $49 bucks a night.... You get what you pay for.... and i don't understand all the nit picking you guys do. I am in the entertainment ( Music )  industry and I have stayed at them all from Ritz Carlton's to Motel 6, over the years. I get my itinerary  from my boss and I stay where I am placed...... so....  I know the difference.. !!!  
+This place was very well kept form the groundskeeping to the rooms.... 
+I would recommend this hotel to my friends and relatives in a heartbeat.... and I am sure none will be disappointed or delusional by thinking they will have mints on their pillows at a Travel lodge. 
+Again... If you see an ant crawl across the sidewalk OUTSIDE ... that does not warrant a negative comment. Its hard enough going through all the reviews trying to sort out decent places to...I was a little apprehensive about staying here after reading some of the reviews, but I was pleasantly surprised on my 3 night stay. The location was great, centrally located between Hollywood and Anaheim, where i was working. Very quite neighborhood, and close to grocery and drug stores as well as plenty of restaurants. The staff were extremely friendly and attentive. Room smelled very fresh and clean and the bathrooms were all marble and ceramic tile. Don't be fooled by these haters who think they should get a 5 star room for $49 bucks a night.... You get what you pay for.... and i don't understand all the nit picking you guys do. I am in the entertainment ( Music )  industry and I have stayed at them all from Ritz Carlton's to Motel 6, over the years. I get my itinerary  from my boss and I stay where I am placed...... so....  I know the difference.. !!!  This place was very well kept form the groundskeeping to the rooms.... I would recommend this hotel to my friends and relatives in a heartbeat.... and I am sure none will be disappointed or delusional by thinking they will have mints on their pillows at a Travel lodge. Again... If you see an ant crawl across the sidewalk OUTSIDE ... that does not warrant a negative comment. Its hard enough going through all the reviews trying to sort out decent places to stay.... If I would have listened to the negative comments on this place, I would have never discovered this diamond in the rough... !!!  Great job travel Lodge staff... I WILL BE BACK !!!!!!                 Frank J.                  Memphis TennesseeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r125955454-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>125955454</t>
+  </si>
+  <si>
+    <t>03/11/2012</t>
+  </si>
+  <si>
+    <t>A very tired motel conveniently located</t>
+  </si>
+  <si>
+    <t>We stayed here after arriving late at night into LAX. It was easy to find and the lady on the reception desk was friendly and efficient. This was our first stay in a Travelodge and will be our last.The room we had was on the ground floor...The decor is very tired, with smoke stained peeling wallpaper and carpet which doesn't meet the edge of the room properly. In our room the carpet was clean apart from around the edged where there were months worth of dust and dirt! The bathroom was wallpapered and again this was peeling.The bathroom was however very clean and the towels and linens were white and obviously fresh. The bed was the main issue, it was so soft and lumpy, along with the lumpy pillows that it made it hard to sleep. Breakfast was very basic, with pre-packed pastries and cereals. The orange juice was terrible, however the tea and coffee were fine.For the amount that this cost per night, I would be unable to recommend it to others.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>We stayed here after arriving late at night into LAX. It was easy to find and the lady on the reception desk was friendly and efficient. This was our first stay in a Travelodge and will be our last.The room we had was on the ground floor...The decor is very tired, with smoke stained peeling wallpaper and carpet which doesn't meet the edge of the room properly. In our room the carpet was clean apart from around the edged where there were months worth of dust and dirt! The bathroom was wallpapered and again this was peeling.The bathroom was however very clean and the towels and linens were white and obviously fresh. The bed was the main issue, it was so soft and lumpy, along with the lumpy pillows that it made it hard to sleep. Breakfast was very basic, with pre-packed pastries and cereals. The orange juice was terrible, however the tea and coffee were fine.For the amount that this cost per night, I would be unable to recommend it to others.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r122081561-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>122081561</t>
+  </si>
+  <si>
+    <t>12/25/2011</t>
+  </si>
+  <si>
+    <t>The Travel Lodge in Lynnwood CA.</t>
+  </si>
+  <si>
+    <t>I had a great stay at the Travel Lodge in Lynnwood. The rooms were very clean and the staff could not have been more freindly. The hotel is walking distance to some great resturants and shops. I would highly recommend this hotel. I will use this hotel the next time I am in Los Angelas.Gregg H.</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r122071266-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>122071266</t>
+  </si>
+  <si>
+    <t>12/24/2011</t>
+  </si>
+  <si>
+    <t>Great location</t>
+  </si>
+  <si>
+    <t>Very clean rooms and great location to shopping and restuarants. Enjoyed our stay</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r122029927-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>122029927</t>
+  </si>
+  <si>
+    <t>12/23/2011</t>
+  </si>
+  <si>
+    <t>Company Business Trip</t>
+  </si>
+  <si>
+    <t>I would highly recommend the Travel Lodge in Lynwood. I spent 3 nights and found it to be very comfortable, clean and  affordable. The staff was helpful and attentive to all my needs during my stay. They have a nice breakfast area in their lobby as well. The location is right off the freeway which makes it very easy to get to.</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r122013404-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>122013404</t>
+  </si>
+  <si>
+    <t>12/22/2011</t>
+  </si>
+  <si>
+    <t>Cleaner than a 5-star hotel</t>
+  </si>
+  <si>
+    <t>The staff is very service oriented. Everything is so clean. The parking lot looks like a car never drove on it. You feel safe while on property. Great mexican retaurants at the connecting PLaza de Mexico. Minutes from LAX centrally located. Great value for your money.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r120739533-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
+  </si>
+  <si>
+    <t>120739533</t>
+  </si>
+  <si>
+    <t>11/18/2011</t>
+  </si>
+  <si>
+    <t>Clean, no problems</t>
+  </si>
+  <si>
+    <t>The hotel was clean, realtively calm, although close to a highway. There is a Danny's restaurant close to it. Unfortunately the wifi did not work - was under repair. For some strange reason my booking was made 3 times - online booking, no idea why. They very kindly cancelled 2 of these, hence no problem with triple paying etc. The continental breakfast is quite small - as everywhere in these hotels in the US.</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2716,7598 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s"/>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>74</v>
+      </c>
+      <c r="X5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>73</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>74</v>
+      </c>
+      <c r="X6" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s"/>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s">
+        <v>72</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>92</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>74</v>
+      </c>
+      <c r="X9" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s">
+        <v>72</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>92</v>
+      </c>
+      <c r="O10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>74</v>
+      </c>
+      <c r="X10" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>101</v>
+      </c>
+      <c r="J11" t="s">
+        <v>102</v>
+      </c>
+      <c r="K11" t="s">
+        <v>103</v>
+      </c>
+      <c r="L11" t="s">
+        <v>104</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>105</v>
+      </c>
+      <c r="O11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>106</v>
+      </c>
+      <c r="X11" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>110</v>
+      </c>
+      <c r="J12" t="s">
+        <v>111</v>
+      </c>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s">
+        <v>72</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>112</v>
+      </c>
+      <c r="O12" t="s">
+        <v>113</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>106</v>
+      </c>
+      <c r="X12" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>115</v>
+      </c>
+      <c r="J13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K13" t="s">
+        <v>117</v>
+      </c>
+      <c r="L13" t="s">
+        <v>118</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>112</v>
+      </c>
+      <c r="O13" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>2</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>106</v>
+      </c>
+      <c r="X13" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>121</v>
+      </c>
+      <c r="J14" t="s">
+        <v>122</v>
+      </c>
+      <c r="K14" t="s">
+        <v>123</v>
+      </c>
+      <c r="L14" t="s">
+        <v>124</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>125</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>106</v>
+      </c>
+      <c r="X14" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>128</v>
+      </c>
+      <c r="J15" t="s">
+        <v>129</v>
+      </c>
+      <c r="K15" t="s">
+        <v>130</v>
+      </c>
+      <c r="L15" t="s">
+        <v>131</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>132</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>133</v>
+      </c>
+      <c r="X15" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>137</v>
+      </c>
+      <c r="J16" t="s">
+        <v>138</v>
+      </c>
+      <c r="K16" t="s"/>
+      <c r="L16" t="s">
+        <v>72</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>132</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>139</v>
+      </c>
+      <c r="X16" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>142</v>
+      </c>
+      <c r="J17" t="s">
+        <v>143</v>
+      </c>
+      <c r="K17" t="s">
+        <v>144</v>
+      </c>
+      <c r="L17" t="s">
+        <v>145</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>146</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>147</v>
+      </c>
+      <c r="X17" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>151</v>
+      </c>
+      <c r="J18" t="s">
+        <v>152</v>
+      </c>
+      <c r="K18" t="s">
+        <v>153</v>
+      </c>
+      <c r="L18" t="s">
+        <v>154</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>155</v>
+      </c>
+      <c r="O18" t="s">
+        <v>60</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>156</v>
+      </c>
+      <c r="X18" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>159</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>160</v>
+      </c>
+      <c r="J19" t="s">
+        <v>161</v>
+      </c>
+      <c r="K19" t="s">
+        <v>162</v>
+      </c>
+      <c r="L19" t="s">
+        <v>163</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>155</v>
+      </c>
+      <c r="O19" t="s">
+        <v>67</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>164</v>
+      </c>
+      <c r="X19" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>167</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>168</v>
+      </c>
+      <c r="J20" t="s">
+        <v>169</v>
+      </c>
+      <c r="K20" t="s"/>
+      <c r="L20" t="s">
+        <v>72</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>155</v>
+      </c>
+      <c r="O20" t="s">
+        <v>113</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>170</v>
+      </c>
+      <c r="X20" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>172</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>173</v>
+      </c>
+      <c r="J21" t="s">
+        <v>174</v>
+      </c>
+      <c r="K21" t="s">
+        <v>175</v>
+      </c>
+      <c r="L21" t="s">
+        <v>176</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>155</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>170</v>
+      </c>
+      <c r="X21" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>178</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>179</v>
+      </c>
+      <c r="J22" t="s">
+        <v>180</v>
+      </c>
+      <c r="K22" t="s">
+        <v>181</v>
+      </c>
+      <c r="L22" t="s">
+        <v>182</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>155</v>
+      </c>
+      <c r="O22" t="s">
+        <v>67</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>183</v>
+      </c>
+      <c r="X22" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>186</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>187</v>
+      </c>
+      <c r="J23" t="s">
+        <v>188</v>
+      </c>
+      <c r="K23" t="s">
+        <v>189</v>
+      </c>
+      <c r="L23" t="s">
+        <v>190</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>191</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>192</v>
+      </c>
+      <c r="X23" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>195</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>196</v>
+      </c>
+      <c r="J24" t="s">
+        <v>188</v>
+      </c>
+      <c r="K24" t="s"/>
+      <c r="L24" t="s">
+        <v>72</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>191</v>
+      </c>
+      <c r="O24" t="s">
+        <v>197</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>192</v>
+      </c>
+      <c r="X24" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>198</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>199</v>
+      </c>
+      <c r="J25" t="s">
+        <v>200</v>
+      </c>
+      <c r="K25" t="s"/>
+      <c r="L25" t="s">
+        <v>72</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>191</v>
+      </c>
+      <c r="O25" t="s">
+        <v>60</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>192</v>
+      </c>
+      <c r="X25" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>201</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>202</v>
+      </c>
+      <c r="J26" t="s">
+        <v>203</v>
+      </c>
+      <c r="K26" t="s"/>
+      <c r="L26" t="s">
+        <v>72</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>204</v>
+      </c>
+      <c r="O26" t="s">
+        <v>67</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>205</v>
+      </c>
+      <c r="X26" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>207</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>208</v>
+      </c>
+      <c r="J27" t="s">
+        <v>209</v>
+      </c>
+      <c r="K27" t="s">
+        <v>210</v>
+      </c>
+      <c r="L27" t="s">
+        <v>211</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>204</v>
+      </c>
+      <c r="O27" t="s">
+        <v>113</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>212</v>
+      </c>
+      <c r="X27" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>215</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>216</v>
+      </c>
+      <c r="J28" t="s">
+        <v>217</v>
+      </c>
+      <c r="K28" t="s">
+        <v>218</v>
+      </c>
+      <c r="L28" t="s">
+        <v>219</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>204</v>
+      </c>
+      <c r="O28" t="s">
+        <v>113</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>220</v>
+      </c>
+      <c r="X28" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>223</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>224</v>
+      </c>
+      <c r="J29" t="s">
+        <v>225</v>
+      </c>
+      <c r="K29" t="s"/>
+      <c r="L29" t="s">
+        <v>72</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>226</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>227</v>
+      </c>
+      <c r="X29" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>229</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>230</v>
+      </c>
+      <c r="J30" t="s">
+        <v>231</v>
+      </c>
+      <c r="K30" t="s">
+        <v>232</v>
+      </c>
+      <c r="L30" t="s">
+        <v>233</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>234</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>227</v>
+      </c>
+      <c r="X30" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>236</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>237</v>
+      </c>
+      <c r="J31" t="s">
+        <v>238</v>
+      </c>
+      <c r="K31" t="s">
+        <v>239</v>
+      </c>
+      <c r="L31" t="s">
+        <v>240</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>234</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>241</v>
+      </c>
+      <c r="X31" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>244</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>245</v>
+      </c>
+      <c r="J32" t="s">
+        <v>246</v>
+      </c>
+      <c r="K32" t="s">
+        <v>247</v>
+      </c>
+      <c r="L32" t="s">
+        <v>248</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>249</v>
+      </c>
+      <c r="O32" t="s">
+        <v>67</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>250</v>
+      </c>
+      <c r="X32" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>253</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>254</v>
+      </c>
+      <c r="J33" t="s">
+        <v>255</v>
+      </c>
+      <c r="K33" t="s"/>
+      <c r="L33" t="s">
+        <v>72</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>249</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>250</v>
+      </c>
+      <c r="X33" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>256</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>257</v>
+      </c>
+      <c r="J34" t="s">
+        <v>258</v>
+      </c>
+      <c r="K34" t="s"/>
+      <c r="L34" t="s">
+        <v>72</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>249</v>
+      </c>
+      <c r="O34" t="s">
+        <v>67</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>250</v>
+      </c>
+      <c r="X34" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>259</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>260</v>
+      </c>
+      <c r="J35" t="s">
+        <v>261</v>
+      </c>
+      <c r="K35" t="s">
+        <v>262</v>
+      </c>
+      <c r="L35" t="s">
+        <v>263</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>249</v>
+      </c>
+      <c r="O35" t="s">
+        <v>67</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>264</v>
+      </c>
+      <c r="X35" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>267</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>268</v>
+      </c>
+      <c r="J36" t="s">
+        <v>269</v>
+      </c>
+      <c r="K36" t="s"/>
+      <c r="L36" t="s">
+        <v>72</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>270</v>
+      </c>
+      <c r="O36" t="s">
+        <v>67</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>271</v>
+      </c>
+      <c r="X36" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>273</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>274</v>
+      </c>
+      <c r="J37" t="s">
+        <v>275</v>
+      </c>
+      <c r="K37" t="s"/>
+      <c r="L37" t="s">
+        <v>72</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>270</v>
+      </c>
+      <c r="O37" t="s">
+        <v>113</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>276</v>
+      </c>
+      <c r="X37" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>278</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>279</v>
+      </c>
+      <c r="J38" t="s">
+        <v>280</v>
+      </c>
+      <c r="K38" t="s">
+        <v>281</v>
+      </c>
+      <c r="L38" t="s">
+        <v>282</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>283</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>284</v>
+      </c>
+      <c r="X38" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>287</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>288</v>
+      </c>
+      <c r="J39" t="s">
+        <v>289</v>
+      </c>
+      <c r="K39" t="s"/>
+      <c r="L39" t="s">
+        <v>72</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>290</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3</v>
+      </c>
+      <c r="R39" t="n">
+        <v>2</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>291</v>
+      </c>
+      <c r="X39" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>292</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>293</v>
+      </c>
+      <c r="J40" t="s">
+        <v>294</v>
+      </c>
+      <c r="K40" t="s"/>
+      <c r="L40" t="s">
+        <v>72</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="s">
+        <v>290</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>291</v>
+      </c>
+      <c r="X40" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>295</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>296</v>
+      </c>
+      <c r="J41" t="s">
+        <v>297</v>
+      </c>
+      <c r="K41" t="s">
+        <v>298</v>
+      </c>
+      <c r="L41" t="s">
+        <v>299</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" t="s">
+        <v>290</v>
+      </c>
+      <c r="O41" t="s">
+        <v>67</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>291</v>
+      </c>
+      <c r="X41" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>301</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>302</v>
+      </c>
+      <c r="J42" t="s">
+        <v>303</v>
+      </c>
+      <c r="K42" t="s">
+        <v>304</v>
+      </c>
+      <c r="L42" t="s">
+        <v>305</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>306</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>308</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>309</v>
+      </c>
+      <c r="J43" t="s">
+        <v>310</v>
+      </c>
+      <c r="K43" t="s">
+        <v>311</v>
+      </c>
+      <c r="L43" t="s">
+        <v>312</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>283</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>313</v>
+      </c>
+      <c r="X43" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>316</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>317</v>
+      </c>
+      <c r="J44" t="s">
+        <v>318</v>
+      </c>
+      <c r="K44" t="s">
+        <v>319</v>
+      </c>
+      <c r="L44" t="s">
+        <v>320</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>283</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>313</v>
+      </c>
+      <c r="X44" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>322</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>323</v>
+      </c>
+      <c r="J45" t="s">
+        <v>324</v>
+      </c>
+      <c r="K45" t="s">
+        <v>325</v>
+      </c>
+      <c r="L45" t="s">
+        <v>326</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>283</v>
+      </c>
+      <c r="O45" t="s">
+        <v>67</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>313</v>
+      </c>
+      <c r="X45" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>328</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>329</v>
+      </c>
+      <c r="J46" t="s">
+        <v>324</v>
+      </c>
+      <c r="K46" t="s">
+        <v>330</v>
+      </c>
+      <c r="L46" t="s">
+        <v>331</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>283</v>
+      </c>
+      <c r="O46" t="s">
+        <v>113</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>313</v>
+      </c>
+      <c r="X46" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>333</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>334</v>
+      </c>
+      <c r="J47" t="s">
+        <v>335</v>
+      </c>
+      <c r="K47" t="s">
+        <v>336</v>
+      </c>
+      <c r="L47" t="s">
+        <v>337</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>338</v>
+      </c>
+      <c r="O47" t="s">
+        <v>60</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>339</v>
+      </c>
+      <c r="X47" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>342</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>343</v>
+      </c>
+      <c r="J48" t="s">
+        <v>344</v>
+      </c>
+      <c r="K48" t="s">
+        <v>345</v>
+      </c>
+      <c r="L48" t="s">
+        <v>346</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>338</v>
+      </c>
+      <c r="O48" t="s">
+        <v>67</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>347</v>
+      </c>
+      <c r="X48" t="s">
+        <v>348</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>350</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>351</v>
+      </c>
+      <c r="J49" t="s">
+        <v>352</v>
+      </c>
+      <c r="K49" t="s">
+        <v>353</v>
+      </c>
+      <c r="L49" t="s">
+        <v>354</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>338</v>
+      </c>
+      <c r="O49" t="s">
+        <v>113</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>355</v>
+      </c>
+      <c r="X49" t="s">
+        <v>356</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>358</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>359</v>
+      </c>
+      <c r="J50" t="s">
+        <v>360</v>
+      </c>
+      <c r="K50" t="s"/>
+      <c r="L50" t="s">
+        <v>72</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>338</v>
+      </c>
+      <c r="O50" t="s">
+        <v>113</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>361</v>
+      </c>
+      <c r="X50" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>363</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>364</v>
+      </c>
+      <c r="J51" t="s">
+        <v>365</v>
+      </c>
+      <c r="K51" t="s">
+        <v>366</v>
+      </c>
+      <c r="L51" t="s">
+        <v>367</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>338</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>361</v>
+      </c>
+      <c r="X51" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>369</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>370</v>
+      </c>
+      <c r="J52" t="s">
+        <v>371</v>
+      </c>
+      <c r="K52" t="s">
+        <v>372</v>
+      </c>
+      <c r="L52" t="s">
+        <v>373</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>338</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>374</v>
+      </c>
+      <c r="X52" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>377</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>378</v>
+      </c>
+      <c r="J53" t="s">
+        <v>379</v>
+      </c>
+      <c r="K53" t="s"/>
+      <c r="L53" t="s">
+        <v>72</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>380</v>
+      </c>
+      <c r="O53" t="s">
+        <v>67</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>381</v>
+      </c>
+      <c r="X53" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>383</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>384</v>
+      </c>
+      <c r="J54" t="s">
+        <v>385</v>
+      </c>
+      <c r="K54" t="s">
+        <v>386</v>
+      </c>
+      <c r="L54" t="s">
+        <v>387</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>388</v>
+      </c>
+      <c r="O54" t="s">
+        <v>113</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>381</v>
+      </c>
+      <c r="X54" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>390</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>391</v>
+      </c>
+      <c r="J55" t="s">
+        <v>385</v>
+      </c>
+      <c r="K55" t="s"/>
+      <c r="L55" t="s">
+        <v>72</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>380</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>381</v>
+      </c>
+      <c r="X55" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>392</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>393</v>
+      </c>
+      <c r="J56" t="s">
+        <v>394</v>
+      </c>
+      <c r="K56" t="s"/>
+      <c r="L56" t="s">
+        <v>72</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>395</v>
+      </c>
+      <c r="O56" t="s">
+        <v>197</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>396</v>
+      </c>
+      <c r="X56" t="s">
+        <v>397</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>398</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>399</v>
+      </c>
+      <c r="J57" t="s">
+        <v>400</v>
+      </c>
+      <c r="K57" t="s">
+        <v>401</v>
+      </c>
+      <c r="L57" t="s">
+        <v>402</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>388</v>
+      </c>
+      <c r="O57" t="s">
+        <v>113</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>403</v>
+      </c>
+      <c r="X57" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>406</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>407</v>
+      </c>
+      <c r="J58" t="s">
+        <v>408</v>
+      </c>
+      <c r="K58" t="s">
+        <v>409</v>
+      </c>
+      <c r="L58" t="s">
+        <v>410</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>388</v>
+      </c>
+      <c r="O58" t="s">
+        <v>113</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>403</v>
+      </c>
+      <c r="X58" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>412</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>413</v>
+      </c>
+      <c r="J59" t="s">
+        <v>414</v>
+      </c>
+      <c r="K59" t="s"/>
+      <c r="L59" t="s"/>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>415</v>
+      </c>
+      <c r="O59" t="s">
+        <v>67</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>416</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>417</v>
+      </c>
+      <c r="J60" t="s">
+        <v>418</v>
+      </c>
+      <c r="K60" t="s">
+        <v>419</v>
+      </c>
+      <c r="L60" t="s">
+        <v>420</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>415</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>421</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>422</v>
+      </c>
+      <c r="J61" t="s">
+        <v>423</v>
+      </c>
+      <c r="K61" t="s">
+        <v>424</v>
+      </c>
+      <c r="L61" t="s">
+        <v>425</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>426</v>
+      </c>
+      <c r="O61" t="s">
+        <v>113</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>427</v>
+      </c>
+      <c r="X61" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>430</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>431</v>
+      </c>
+      <c r="J62" t="s">
+        <v>432</v>
+      </c>
+      <c r="K62" t="s">
+        <v>433</v>
+      </c>
+      <c r="L62" t="s">
+        <v>434</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>435</v>
+      </c>
+      <c r="O62" t="s">
+        <v>197</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>436</v>
+      </c>
+      <c r="X62" t="s">
+        <v>437</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>439</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>440</v>
+      </c>
+      <c r="J63" t="s">
+        <v>441</v>
+      </c>
+      <c r="K63" t="s">
+        <v>442</v>
+      </c>
+      <c r="L63" t="s">
+        <v>443</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s">
+        <v>444</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>2</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>3</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>445</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>446</v>
+      </c>
+      <c r="J64" t="s">
+        <v>447</v>
+      </c>
+      <c r="K64" t="s">
+        <v>448</v>
+      </c>
+      <c r="L64" t="s">
+        <v>449</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>444</v>
+      </c>
+      <c r="O64" t="s">
+        <v>197</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3</v>
+      </c>
+      <c r="S64" t="n">
+        <v>3</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>3</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>450</v>
+      </c>
+      <c r="X64" t="s">
+        <v>451</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>453</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>454</v>
+      </c>
+      <c r="J65" t="s">
+        <v>455</v>
+      </c>
+      <c r="K65" t="s">
+        <v>456</v>
+      </c>
+      <c r="L65" t="s">
+        <v>457</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s">
+        <v>458</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>459</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>460</v>
+      </c>
+      <c r="J66" t="s">
+        <v>461</v>
+      </c>
+      <c r="K66" t="s"/>
+      <c r="L66" t="s"/>
+      <c r="M66" t="n">
+        <v>2</v>
+      </c>
+      <c r="N66" t="s">
+        <v>462</v>
+      </c>
+      <c r="O66" t="s">
+        <v>60</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>1</v>
+      </c>
+      <c r="R66" t="n">
+        <v>1</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>1</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>463</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>464</v>
+      </c>
+      <c r="J67" t="s">
+        <v>465</v>
+      </c>
+      <c r="K67" t="s">
+        <v>466</v>
+      </c>
+      <c r="L67" t="s">
+        <v>467</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>462</v>
+      </c>
+      <c r="O67" t="s">
+        <v>197</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>3</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>2</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>468</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>469</v>
+      </c>
+      <c r="J68" t="s">
+        <v>470</v>
+      </c>
+      <c r="K68" t="s"/>
+      <c r="L68" t="s"/>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>471</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>472</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>473</v>
+      </c>
+      <c r="J69" t="s">
+        <v>474</v>
+      </c>
+      <c r="K69" t="s">
+        <v>475</v>
+      </c>
+      <c r="L69" t="s">
+        <v>476</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>471</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>477</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>478</v>
+      </c>
+      <c r="J70" t="s">
+        <v>479</v>
+      </c>
+      <c r="K70" t="s">
+        <v>480</v>
+      </c>
+      <c r="L70" t="s">
+        <v>481</v>
+      </c>
+      <c r="M70" t="n">
+        <v>2</v>
+      </c>
+      <c r="N70" t="s">
+        <v>471</v>
+      </c>
+      <c r="O70" t="s">
+        <v>60</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="s"/>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>482</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>483</v>
+      </c>
+      <c r="J71" t="s">
+        <v>484</v>
+      </c>
+      <c r="K71" t="s">
+        <v>485</v>
+      </c>
+      <c r="L71" t="s">
+        <v>486</v>
+      </c>
+      <c r="M71" t="n">
+        <v>2</v>
+      </c>
+      <c r="N71" t="s">
+        <v>487</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="n">
+        <v>2</v>
+      </c>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>2</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>489</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>490</v>
+      </c>
+      <c r="J72" t="s">
+        <v>491</v>
+      </c>
+      <c r="K72" t="s">
+        <v>492</v>
+      </c>
+      <c r="L72" t="s">
+        <v>493</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s">
+        <v>494</v>
+      </c>
+      <c r="O72" t="s">
+        <v>113</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="n">
+        <v>1</v>
+      </c>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>495</v>
+      </c>
+      <c r="X72" t="s">
+        <v>496</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>498</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>499</v>
+      </c>
+      <c r="J73" t="s">
+        <v>500</v>
+      </c>
+      <c r="K73" t="s">
+        <v>501</v>
+      </c>
+      <c r="L73" t="s">
+        <v>502</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="s">
+        <v>503</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>3</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>504</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>505</v>
+      </c>
+      <c r="J74" t="s">
+        <v>506</v>
+      </c>
+      <c r="K74" t="s"/>
+      <c r="L74" t="s">
+        <v>72</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s">
+        <v>507</v>
+      </c>
+      <c r="O74" t="s">
+        <v>113</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>3</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>3</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>508</v>
+      </c>
+      <c r="X74" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>510</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>511</v>
+      </c>
+      <c r="J75" t="s">
+        <v>512</v>
+      </c>
+      <c r="K75" t="s"/>
+      <c r="L75" t="s"/>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s">
+        <v>513</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>3</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>514</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>515</v>
+      </c>
+      <c r="J76" t="s">
+        <v>516</v>
+      </c>
+      <c r="K76" t="s"/>
+      <c r="L76" t="s"/>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>513</v>
+      </c>
+      <c r="O76" t="s">
+        <v>113</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>517</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>518</v>
+      </c>
+      <c r="J77" t="s">
+        <v>519</v>
+      </c>
+      <c r="K77" t="s"/>
+      <c r="L77" t="s">
+        <v>72</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>520</v>
+      </c>
+      <c r="O77" t="s">
+        <v>113</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>521</v>
+      </c>
+      <c r="X77" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>523</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>524</v>
+      </c>
+      <c r="J78" t="s">
+        <v>525</v>
+      </c>
+      <c r="K78" t="s"/>
+      <c r="L78" t="s"/>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>520</v>
+      </c>
+      <c r="O78" t="s">
+        <v>67</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>526</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>527</v>
+      </c>
+      <c r="J79" t="s">
+        <v>528</v>
+      </c>
+      <c r="K79" t="s">
+        <v>529</v>
+      </c>
+      <c r="L79" t="s">
+        <v>530</v>
+      </c>
+      <c r="M79" t="n">
+        <v>2</v>
+      </c>
+      <c r="N79" t="s">
+        <v>520</v>
+      </c>
+      <c r="O79" t="s">
+        <v>197</v>
+      </c>
+      <c r="P79" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="s"/>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>531</v>
+      </c>
+      <c r="X79" t="s">
+        <v>532</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>534</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>535</v>
+      </c>
+      <c r="J80" t="s">
+        <v>536</v>
+      </c>
+      <c r="K80" t="s"/>
+      <c r="L80" t="s">
+        <v>72</v>
+      </c>
+      <c r="M80" t="n">
+        <v>3</v>
+      </c>
+      <c r="N80" t="s">
+        <v>537</v>
+      </c>
+      <c r="O80" t="s">
+        <v>113</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>3</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>538</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>539</v>
+      </c>
+      <c r="J81" t="s">
+        <v>540</v>
+      </c>
+      <c r="K81" t="s">
+        <v>541</v>
+      </c>
+      <c r="L81" t="s">
+        <v>542</v>
+      </c>
+      <c r="M81" t="n">
+        <v>3</v>
+      </c>
+      <c r="N81" t="s">
+        <v>543</v>
+      </c>
+      <c r="O81" t="s">
+        <v>197</v>
+      </c>
+      <c r="P81" t="s"/>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="s"/>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="s"/>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>544</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>545</v>
+      </c>
+      <c r="J82" t="s">
+        <v>546</v>
+      </c>
+      <c r="K82" t="s"/>
+      <c r="L82" t="s"/>
+      <c r="M82" t="n">
+        <v>2</v>
+      </c>
+      <c r="N82" t="s">
+        <v>547</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>3</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>3</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>3</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>548</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>549</v>
+      </c>
+      <c r="J83" t="s">
+        <v>550</v>
+      </c>
+      <c r="K83" t="s"/>
+      <c r="L83" t="s"/>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>547</v>
+      </c>
+      <c r="O83" t="s">
+        <v>113</v>
+      </c>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>4</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>551</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>552</v>
+      </c>
+      <c r="J84" t="s">
+        <v>553</v>
+      </c>
+      <c r="K84" t="s">
+        <v>554</v>
+      </c>
+      <c r="L84" t="s">
+        <v>555</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="s"/>
+      <c r="O84" t="s"/>
+      <c r="P84" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>2</v>
+      </c>
+      <c r="R84" t="n">
+        <v>3</v>
+      </c>
+      <c r="S84" t="n">
+        <v>1</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>1</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>556</v>
+      </c>
+      <c r="X84" t="s">
+        <v>557</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>559</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>560</v>
+      </c>
+      <c r="J85" t="s">
+        <v>561</v>
+      </c>
+      <c r="K85" t="s">
+        <v>562</v>
+      </c>
+      <c r="L85" t="s">
+        <v>563</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>564</v>
+      </c>
+      <c r="O85" t="s">
+        <v>113</v>
+      </c>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="s"/>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>566</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>567</v>
+      </c>
+      <c r="J86" t="s">
+        <v>568</v>
+      </c>
+      <c r="K86" t="s">
+        <v>569</v>
+      </c>
+      <c r="L86" t="s">
+        <v>570</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>571</v>
+      </c>
+      <c r="O86" t="s">
+        <v>197</v>
+      </c>
+      <c r="P86" t="s"/>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="s"/>
+      <c r="S86" t="s"/>
+      <c r="T86" t="s"/>
+      <c r="U86" t="s"/>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>572</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>573</v>
+      </c>
+      <c r="J87" t="s">
+        <v>574</v>
+      </c>
+      <c r="K87" t="s">
+        <v>575</v>
+      </c>
+      <c r="L87" t="s">
+        <v>576</v>
+      </c>
+      <c r="M87" t="n">
+        <v>3</v>
+      </c>
+      <c r="N87" t="s">
+        <v>577</v>
+      </c>
+      <c r="O87" t="s">
+        <v>53</v>
+      </c>
+      <c r="P87" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>3</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="n">
+        <v>3</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>3</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>578</v>
+      </c>
+      <c r="X87" t="s">
+        <v>579</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>581</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>582</v>
+      </c>
+      <c r="J88" t="s">
+        <v>583</v>
+      </c>
+      <c r="K88" t="s"/>
+      <c r="L88" t="s">
+        <v>72</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>584</v>
+      </c>
+      <c r="O88" t="s">
+        <v>60</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>578</v>
+      </c>
+      <c r="X88" t="s">
+        <v>579</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>585</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>586</v>
+      </c>
+      <c r="J89" t="s">
+        <v>587</v>
+      </c>
+      <c r="K89" t="s"/>
+      <c r="L89" t="s"/>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>588</v>
+      </c>
+      <c r="O89" t="s">
+        <v>60</v>
+      </c>
+      <c r="P89" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>4</v>
+      </c>
+      <c r="R89" t="n">
+        <v>4</v>
+      </c>
+      <c r="S89" t="n">
+        <v>4</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>4</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>589</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>590</v>
+      </c>
+      <c r="J90" t="s">
+        <v>591</v>
+      </c>
+      <c r="K90" t="s">
+        <v>592</v>
+      </c>
+      <c r="L90" t="s">
+        <v>593</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="s">
+        <v>588</v>
+      </c>
+      <c r="O90" t="s">
+        <v>197</v>
+      </c>
+      <c r="P90" t="s"/>
+      <c r="Q90" t="s"/>
+      <c r="R90" t="s"/>
+      <c r="S90" t="s"/>
+      <c r="T90" t="s"/>
+      <c r="U90" t="s"/>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>594</v>
+      </c>
+      <c r="X90" t="s">
+        <v>595</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>597</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>598</v>
+      </c>
+      <c r="J91" t="s">
+        <v>599</v>
+      </c>
+      <c r="K91" t="s"/>
+      <c r="L91" t="s"/>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>600</v>
+      </c>
+      <c r="O91" t="s">
+        <v>67</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>4</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>601</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>602</v>
+      </c>
+      <c r="J92" t="s">
+        <v>603</v>
+      </c>
+      <c r="K92" t="s"/>
+      <c r="L92" t="s"/>
+      <c r="M92" t="n">
+        <v>3</v>
+      </c>
+      <c r="N92" t="s">
+        <v>604</v>
+      </c>
+      <c r="O92" t="s">
+        <v>197</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>3</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>4</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>3</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>605</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>606</v>
+      </c>
+      <c r="J93" t="s">
+        <v>607</v>
+      </c>
+      <c r="K93" t="s"/>
+      <c r="L93" t="s"/>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>604</v>
+      </c>
+      <c r="O93" t="s">
+        <v>53</v>
+      </c>
+      <c r="P93" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>4</v>
+      </c>
+      <c r="S93" t="n">
+        <v>4</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>3</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>608</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>609</v>
+      </c>
+      <c r="J94" t="s">
+        <v>610</v>
+      </c>
+      <c r="K94" t="s"/>
+      <c r="L94" t="s"/>
+      <c r="M94" t="n">
+        <v>2</v>
+      </c>
+      <c r="N94" t="s">
+        <v>611</v>
+      </c>
+      <c r="O94" t="s">
+        <v>113</v>
+      </c>
+      <c r="P94" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>3</v>
+      </c>
+      <c r="R94" t="n">
+        <v>1</v>
+      </c>
+      <c r="S94" t="n">
+        <v>4</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>3</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>612</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>613</v>
+      </c>
+      <c r="J95" t="s">
+        <v>614</v>
+      </c>
+      <c r="K95" t="s"/>
+      <c r="L95" t="s"/>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s">
+        <v>611</v>
+      </c>
+      <c r="O95" t="s">
+        <v>113</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>4</v>
+      </c>
+      <c r="R95" t="n">
+        <v>4</v>
+      </c>
+      <c r="S95" t="n">
+        <v>4</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>615</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>616</v>
+      </c>
+      <c r="J96" t="s">
+        <v>617</v>
+      </c>
+      <c r="K96" t="s"/>
+      <c r="L96" t="s">
+        <v>72</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>618</v>
+      </c>
+      <c r="O96" t="s">
+        <v>113</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>4</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>619</v>
+      </c>
+      <c r="X96" t="s">
+        <v>620</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>621</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>622</v>
+      </c>
+      <c r="J97" t="s">
+        <v>623</v>
+      </c>
+      <c r="K97" t="s">
+        <v>624</v>
+      </c>
+      <c r="L97" t="s">
+        <v>625</v>
+      </c>
+      <c r="M97" t="n">
+        <v>4</v>
+      </c>
+      <c r="N97" t="s">
+        <v>618</v>
+      </c>
+      <c r="O97" t="s">
+        <v>197</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>4</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>4</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>4</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>619</v>
+      </c>
+      <c r="X97" t="s">
+        <v>620</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>627</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>628</v>
+      </c>
+      <c r="J98" t="s">
+        <v>629</v>
+      </c>
+      <c r="K98" t="s"/>
+      <c r="L98" t="s"/>
+      <c r="M98" t="n">
+        <v>4</v>
+      </c>
+      <c r="N98" t="s">
+        <v>630</v>
+      </c>
+      <c r="O98" t="s">
+        <v>60</v>
+      </c>
+      <c r="P98" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>4</v>
+      </c>
+      <c r="R98" t="n">
+        <v>4</v>
+      </c>
+      <c r="S98" t="n">
+        <v>3</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>631</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>632</v>
+      </c>
+      <c r="J99" t="s">
+        <v>633</v>
+      </c>
+      <c r="K99" t="s"/>
+      <c r="L99" t="s">
+        <v>72</v>
+      </c>
+      <c r="M99" t="n">
+        <v>2</v>
+      </c>
+      <c r="N99" t="s">
+        <v>634</v>
+      </c>
+      <c r="O99" t="s">
+        <v>67</v>
+      </c>
+      <c r="P99" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>2</v>
+      </c>
+      <c r="R99" t="n">
+        <v>3</v>
+      </c>
+      <c r="S99" t="n">
+        <v>4</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>3</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>635</v>
+      </c>
+      <c r="X99" t="s">
+        <v>636</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>637</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>638</v>
+      </c>
+      <c r="J100" t="s">
+        <v>639</v>
+      </c>
+      <c r="K100" t="s"/>
+      <c r="L100" t="s">
+        <v>72</v>
+      </c>
+      <c r="M100" t="n">
+        <v>2</v>
+      </c>
+      <c r="N100" t="s">
+        <v>630</v>
+      </c>
+      <c r="O100" t="s">
+        <v>67</v>
+      </c>
+      <c r="P100" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>2</v>
+      </c>
+      <c r="R100" t="n">
+        <v>4</v>
+      </c>
+      <c r="S100" t="n">
+        <v>3</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>4</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s">
+        <v>635</v>
+      </c>
+      <c r="X100" t="s">
+        <v>636</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>640</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>641</v>
+      </c>
+      <c r="J101" t="s">
+        <v>642</v>
+      </c>
+      <c r="K101" t="s">
+        <v>643</v>
+      </c>
+      <c r="L101" t="s">
+        <v>644</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s">
+        <v>630</v>
+      </c>
+      <c r="O101" t="s">
+        <v>60</v>
+      </c>
+      <c r="P101" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>5</v>
+      </c>
+      <c r="R101" t="n">
+        <v>5</v>
+      </c>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s">
+        <v>635</v>
+      </c>
+      <c r="X101" t="s">
+        <v>636</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>646</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>647</v>
+      </c>
+      <c r="J102" t="s">
+        <v>648</v>
+      </c>
+      <c r="K102" t="s">
+        <v>649</v>
+      </c>
+      <c r="L102" t="s">
+        <v>650</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="s">
+        <v>651</v>
+      </c>
+      <c r="O102" t="s">
+        <v>113</v>
+      </c>
+      <c r="P102" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>2</v>
+      </c>
+      <c r="R102" t="n">
+        <v>1</v>
+      </c>
+      <c r="S102" t="n">
+        <v>1</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>2</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s">
+        <v>652</v>
+      </c>
+      <c r="X102" t="s">
+        <v>653</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>655</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>656</v>
+      </c>
+      <c r="J103" t="s">
+        <v>657</v>
+      </c>
+      <c r="K103" t="s"/>
+      <c r="L103" t="s">
+        <v>72</v>
+      </c>
+      <c r="M103" t="n">
+        <v>5</v>
+      </c>
+      <c r="N103" t="s">
+        <v>651</v>
+      </c>
+      <c r="O103" t="s">
+        <v>67</v>
+      </c>
+      <c r="P103" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>5</v>
+      </c>
+      <c r="R103" t="n">
+        <v>5</v>
+      </c>
+      <c r="S103" t="n">
+        <v>4</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s">
+        <v>652</v>
+      </c>
+      <c r="X103" t="s">
+        <v>653</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>658</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>659</v>
+      </c>
+      <c r="J104" t="s">
+        <v>660</v>
+      </c>
+      <c r="K104" t="s">
+        <v>661</v>
+      </c>
+      <c r="L104" t="s">
+        <v>662</v>
+      </c>
+      <c r="M104" t="n">
+        <v>4</v>
+      </c>
+      <c r="N104" t="s">
+        <v>663</v>
+      </c>
+      <c r="O104" t="s">
+        <v>53</v>
+      </c>
+      <c r="P104" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>4</v>
+      </c>
+      <c r="R104" t="n">
+        <v>4</v>
+      </c>
+      <c r="S104" t="n">
+        <v>4</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>4</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s">
+        <v>664</v>
+      </c>
+      <c r="X104" t="s">
+        <v>665</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>667</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>668</v>
+      </c>
+      <c r="J105" t="s">
+        <v>669</v>
+      </c>
+      <c r="K105" t="s"/>
+      <c r="L105" t="s">
+        <v>72</v>
+      </c>
+      <c r="M105" t="n">
+        <v>2</v>
+      </c>
+      <c r="N105" t="s">
+        <v>663</v>
+      </c>
+      <c r="O105" t="s">
+        <v>197</v>
+      </c>
+      <c r="P105" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>4</v>
+      </c>
+      <c r="R105" t="n">
+        <v>4</v>
+      </c>
+      <c r="S105" t="n">
+        <v>4</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>2</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s">
+        <v>664</v>
+      </c>
+      <c r="X105" t="s">
+        <v>665</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>670</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>671</v>
+      </c>
+      <c r="J106" t="s">
+        <v>672</v>
+      </c>
+      <c r="K106" t="s"/>
+      <c r="L106" t="s">
+        <v>72</v>
+      </c>
+      <c r="M106" t="n">
+        <v>3</v>
+      </c>
+      <c r="N106" t="s">
+        <v>673</v>
+      </c>
+      <c r="O106" t="s">
+        <v>113</v>
+      </c>
+      <c r="P106" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>3</v>
+      </c>
+      <c r="R106" t="n">
+        <v>5</v>
+      </c>
+      <c r="S106" t="n">
+        <v>4</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>3</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s">
+        <v>664</v>
+      </c>
+      <c r="X106" t="s">
+        <v>665</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>674</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>675</v>
+      </c>
+      <c r="J107" t="s">
+        <v>676</v>
+      </c>
+      <c r="K107" t="s">
+        <v>677</v>
+      </c>
+      <c r="L107" t="s">
+        <v>678</v>
+      </c>
+      <c r="M107" t="n">
+        <v>4</v>
+      </c>
+      <c r="N107" t="s">
+        <v>679</v>
+      </c>
+      <c r="O107" t="s">
+        <v>53</v>
+      </c>
+      <c r="P107" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>4</v>
+      </c>
+      <c r="R107" t="n">
+        <v>5</v>
+      </c>
+      <c r="S107" t="n">
+        <v>5</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>5</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s">
+        <v>680</v>
+      </c>
+      <c r="X107" t="s">
+        <v>681</v>
+      </c>
+      <c r="Y107" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>683</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>684</v>
+      </c>
+      <c r="J108" t="s">
+        <v>685</v>
+      </c>
+      <c r="K108" t="s"/>
+      <c r="L108" t="s">
+        <v>72</v>
+      </c>
+      <c r="M108" t="n">
+        <v>3</v>
+      </c>
+      <c r="N108" t="s">
+        <v>686</v>
+      </c>
+      <c r="O108" t="s">
+        <v>197</v>
+      </c>
+      <c r="P108" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>1</v>
+      </c>
+      <c r="R108" t="n">
+        <v>4</v>
+      </c>
+      <c r="S108" t="n">
+        <v>3</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>3</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s">
+        <v>687</v>
+      </c>
+      <c r="X108" t="s">
+        <v>688</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>689</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>690</v>
+      </c>
+      <c r="J109" t="s">
+        <v>691</v>
+      </c>
+      <c r="K109" t="s">
+        <v>692</v>
+      </c>
+      <c r="L109" t="s">
+        <v>693</v>
+      </c>
+      <c r="M109" t="n">
+        <v>4</v>
+      </c>
+      <c r="N109" t="s">
+        <v>694</v>
+      </c>
+      <c r="O109" t="s">
+        <v>67</v>
+      </c>
+      <c r="P109" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>5</v>
+      </c>
+      <c r="R109" t="n">
+        <v>4</v>
+      </c>
+      <c r="S109" t="n">
+        <v>5</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>5</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s">
+        <v>687</v>
+      </c>
+      <c r="X109" t="s">
+        <v>688</v>
+      </c>
+      <c r="Y109" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>696</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>697</v>
+      </c>
+      <c r="J110" t="s">
+        <v>698</v>
+      </c>
+      <c r="K110" t="s">
+        <v>699</v>
+      </c>
+      <c r="L110" t="s">
+        <v>700</v>
+      </c>
+      <c r="M110" t="n">
+        <v>2</v>
+      </c>
+      <c r="N110" t="s">
+        <v>701</v>
+      </c>
+      <c r="O110" t="s">
+        <v>113</v>
+      </c>
+      <c r="P110" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>2</v>
+      </c>
+      <c r="R110" t="n">
+        <v>4</v>
+      </c>
+      <c r="S110" t="n">
+        <v>3</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>4</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s"/>
+      <c r="X110" t="s"/>
+      <c r="Y110" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>703</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>704</v>
+      </c>
+      <c r="J111" t="s">
+        <v>705</v>
+      </c>
+      <c r="K111" t="s">
+        <v>706</v>
+      </c>
+      <c r="L111" t="s">
+        <v>707</v>
+      </c>
+      <c r="M111" t="n">
+        <v>5</v>
+      </c>
+      <c r="N111" t="s">
+        <v>708</v>
+      </c>
+      <c r="O111" t="s">
+        <v>67</v>
+      </c>
+      <c r="P111" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>5</v>
+      </c>
+      <c r="R111" t="n">
+        <v>4</v>
+      </c>
+      <c r="S111" t="n">
+        <v>5</v>
+      </c>
+      <c r="T111" t="s"/>
+      <c r="U111" t="n">
+        <v>4</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s"/>
+      <c r="X111" t="s"/>
+      <c r="Y111" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" t="s">
+        <v>709</v>
+      </c>
+      <c r="G112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H112" t="s">
+        <v>47</v>
+      </c>
+      <c r="I112" t="s">
+        <v>710</v>
+      </c>
+      <c r="J112" t="s">
+        <v>711</v>
+      </c>
+      <c r="K112" t="s">
+        <v>712</v>
+      </c>
+      <c r="L112" t="s">
+        <v>713</v>
+      </c>
+      <c r="M112" t="n">
+        <v>5</v>
+      </c>
+      <c r="N112" t="s">
+        <v>708</v>
+      </c>
+      <c r="O112" t="s">
+        <v>67</v>
+      </c>
+      <c r="P112" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>4</v>
+      </c>
+      <c r="R112" t="n">
+        <v>5</v>
+      </c>
+      <c r="S112" t="n">
+        <v>5</v>
+      </c>
+      <c r="T112" t="s"/>
+      <c r="U112" t="n">
+        <v>5</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s"/>
+      <c r="X112" t="s"/>
+      <c r="Y112" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B113" t="s"/>
+      <c r="C113" t="s"/>
+      <c r="D113" t="n">
+        <v>112</v>
+      </c>
+      <c r="E113" t="s">
+        <v>44</v>
+      </c>
+      <c r="F113" t="s">
+        <v>714</v>
+      </c>
+      <c r="G113" t="s">
+        <v>46</v>
+      </c>
+      <c r="H113" t="s">
+        <v>47</v>
+      </c>
+      <c r="I113" t="s">
+        <v>715</v>
+      </c>
+      <c r="J113" t="s">
+        <v>716</v>
+      </c>
+      <c r="K113" t="s">
+        <v>717</v>
+      </c>
+      <c r="L113" t="s">
+        <v>718</v>
+      </c>
+      <c r="M113" t="n">
+        <v>4</v>
+      </c>
+      <c r="N113" t="s">
+        <v>719</v>
+      </c>
+      <c r="O113" t="s">
+        <v>67</v>
+      </c>
+      <c r="P113" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>4</v>
+      </c>
+      <c r="R113" t="n">
+        <v>3</v>
+      </c>
+      <c r="S113" t="n">
+        <v>5</v>
+      </c>
+      <c r="T113" t="s"/>
+      <c r="U113" t="n">
+        <v>4</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="s"/>
+      <c r="X113" t="s"/>
+      <c r="Y113" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B114" t="s"/>
+      <c r="C114" t="s"/>
+      <c r="D114" t="n">
+        <v>113</v>
+      </c>
+      <c r="E114" t="s">
+        <v>44</v>
+      </c>
+      <c r="F114" t="s">
+        <v>720</v>
+      </c>
+      <c r="G114" t="s">
+        <v>46</v>
+      </c>
+      <c r="H114" t="s">
+        <v>47</v>
+      </c>
+      <c r="I114" t="s">
+        <v>721</v>
+      </c>
+      <c r="J114" t="s">
+        <v>722</v>
+      </c>
+      <c r="K114" t="s">
+        <v>723</v>
+      </c>
+      <c r="L114" t="s">
+        <v>724</v>
+      </c>
+      <c r="M114" t="n">
+        <v>5</v>
+      </c>
+      <c r="N114" t="s">
+        <v>708</v>
+      </c>
+      <c r="O114" t="s">
+        <v>67</v>
+      </c>
+      <c r="P114" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>5</v>
+      </c>
+      <c r="R114" t="n">
+        <v>5</v>
+      </c>
+      <c r="S114" t="n">
+        <v>5</v>
+      </c>
+      <c r="T114" t="s"/>
+      <c r="U114" t="n">
+        <v>5</v>
+      </c>
+      <c r="V114" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" t="s"/>
+      <c r="X114" t="s"/>
+      <c r="Y114" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>29043</v>
+      </c>
+      <c r="B115" t="s"/>
+      <c r="C115" t="s"/>
+      <c r="D115" t="n">
+        <v>114</v>
+      </c>
+      <c r="E115" t="s">
+        <v>44</v>
+      </c>
+      <c r="F115" t="s">
+        <v>725</v>
+      </c>
+      <c r="G115" t="s">
+        <v>46</v>
+      </c>
+      <c r="H115" t="s">
+        <v>47</v>
+      </c>
+      <c r="I115" t="s">
+        <v>726</v>
+      </c>
+      <c r="J115" t="s">
+        <v>727</v>
+      </c>
+      <c r="K115" t="s">
+        <v>728</v>
+      </c>
+      <c r="L115" t="s">
+        <v>729</v>
+      </c>
+      <c r="M115" t="n">
+        <v>4</v>
+      </c>
+      <c r="N115" t="s">
+        <v>719</v>
+      </c>
+      <c r="O115" t="s">
+        <v>113</v>
+      </c>
+      <c r="P115" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>4</v>
+      </c>
+      <c r="R115" t="n">
+        <v>3</v>
+      </c>
+      <c r="S115" t="n">
+        <v>4</v>
+      </c>
+      <c r="T115" t="s"/>
+      <c r="U115" t="n">
+        <v>4</v>
+      </c>
+      <c r="V115" t="n">
+        <v>0</v>
+      </c>
+      <c r="W115" t="s"/>
+      <c r="X115" t="s"/>
+      <c r="Y115" t="s">
+        <v>729</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_799.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_799.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="838">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>1Ming</t>
+  </si>
+  <si>
     <t>07/13/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Denis L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r585643347-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Anna F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r575293170-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -225,6 +234,9 @@
     <t>I arrived at this motel when I was very tired. The $80 price was definitely too much for this place. The pictures I am attaching include black mold on the bathroom walls - I actually found a lot more mold above the tub later that night. Black mold causes respiratory problems. The sticky, dirty carpet made it difficult to find a place to stand to brush my teeth - I felt like this was outdoors and I was supposed to keep my shoes on. When I ate breakfast - the bagel was very stale, but I was too hungry to skip it. Most of the fruits were spoiled. Three African American cleaners of this place were standing outside yelling at each other when I arrived, and then they were yelling again as I was trying to fall asleep. I heard somebody scratching against my door at night. A strange guy walked up to me and started harassing me as I was waiting for Lyft outside this place. Overall a pretty dangerous place to stay at. The outside is also decomposing and not like in the pictures. Somebody left boogers in the sheets - suggesting that they were not changed after whoever stayed there before me. There was also a hole in the sheets. If I hadn't stayed up for nearly 48 hours by that point, I would've asked for a different room or a refund, but I opted against this....I arrived at this motel when I was very tired. The $80 price was definitely too much for this place. The pictures I am attaching include black mold on the bathroom walls - I actually found a lot more mold above the tub later that night. Black mold causes respiratory problems. The sticky, dirty carpet made it difficult to find a place to stand to brush my teeth - I felt like this was outdoors and I was supposed to keep my shoes on. When I ate breakfast - the bagel was very stale, but I was too hungry to skip it. Most of the fruits were spoiled. Three African American cleaners of this place were standing outside yelling at each other when I arrived, and then they were yelling again as I was trying to fall asleep. I heard somebody scratching against my door at night. A strange guy walked up to me and started harassing me as I was waiting for Lyft outside this place. Overall a pretty dangerous place to stay at. The outside is also decomposing and not like in the pictures. Somebody left boogers in the sheets - suggesting that they were not changed after whoever stayed there before me. There was also a hole in the sheets. If I hadn't stayed up for nearly 48 hours by that point, I would've asked for a different room or a refund, but I opted against this. One bright point was that for the first time in many motel stays, there were no loud harassing homeless people or other violent-looking shady characters in the dining room when I ate breakfast: maybe because I arrived first thing at 6:30am.More</t>
   </si>
   <si>
+    <t>awdnzr99</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r563572807-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -249,6 +261,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>dodgechick24</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r559506212-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -267,6 +282,9 @@
     <t>Nice room. Hardwood floor so you dont have to walk on nasty carpet. Shower worded good. Nice size tv. Only issue is walls are then. People next door were super load. Around 1am had to call security to have them be quite. Close to stapes center abot 12 milesMore</t>
   </si>
   <si>
+    <t>ebonyl237</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r554936451-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -279,6 +297,9 @@
     <t>January 2018</t>
   </si>
   <si>
+    <t>Julia E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r551259422-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -300,6 +321,9 @@
     <t>Location is shady and hard to get to, as the entrance is from the shopping plaza. The area is a bit low income, which is good for dining options, but safety wise, who knows. I liked that the rooms have been maintained well, and carpets have been replaced with nice white washed laminate. The breakfast is a joke, don't waste time, go down to Jack in the Box or Danny's (our choice). The nearby buffet has a take-out option, which my hubby did for 1 night. Overall, it's far from everything in LA, so we didn't enjoy the extra traffic... Also, the deposit is being held now for over 2 weeks... not sure if it's the hotel or the bank. It's also unreasonably high for this budget chain - $200!!!!Other better hotels in the same trip charged $25 and $75... and returned properly. They also DON'T have cribs or roll-away beds, or fridge.Anyhow, I got it via Priceline, without knowing much about the area, so can't complain.More</t>
   </si>
   <si>
+    <t>xotwod</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r550954676-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -309,6 +333,9 @@
     <t>01/02/2018</t>
   </si>
   <si>
+    <t>smagana85</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r547373705-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -318,6 +345,9 @@
     <t>12/15/2017</t>
   </si>
   <si>
+    <t>David M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r524507699-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -345,6 +375,9 @@
     <t>This is not the first time I have stayed at Travelodge Lynwood and it won't be the last. The hotel is convenient to public transport across the LA area because it is right next to the Metro Greenline which opens up all access to the Metro system, and just a short distance to LAX - connected to Aviation Station by bus.  Rooms are comfortable and clean and there is a continental breakfast supplied each morning. Plenty of options for food with a handful of fast food outlets within a block and a couple of supermarkets right next door; and a chinese restaurant which has a decent buffet is also next door.  Staff are friendly and helpful.More</t>
   </si>
   <si>
+    <t>PGfreak</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r521577802-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -360,6 +393,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>debbyportillo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r517193425-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -378,6 +414,9 @@
     <t>I have been staying in this hotel for over a year, and was pretty satisfied specially with the location. Unfourtunately in my last visit bugs bit me all over my arms and feet in the first night and only got worse with each night that passed. I asked for a frisge and they did not give it to me because they "don't have many".More</t>
   </si>
   <si>
+    <t>Kimkat00</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r503212969-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -399,6 +438,9 @@
     <t>Travelodge Lynwood CA, has been holding a pending charge of $400 on my credit card for nearly 3 weeks after my visit. They refuse to acknowledge and reverse this pending charge. I'm forced to wait 30 days for my credit card company to drop this charge. Room/accommodations-  The rooms does not automatically come with a fridge or microwave. You must request those extras in advance, but,  be forewarned they have only have a few on site. The cable TV is a complete JOKE! They had maybe 4 working channels. If you encounter the TV problem with the 5 channel line up, be prepared to hear this excuse from the front desk, "we are having trouble with the satellite".  A friend who reserved during the same time didn't have any TV channels to show for at least a whole day.The carpet was a bit nasty and stained, however the beds were comfortable and the bathrooms were clean.  Due to the credit card charge, managers response, fridge and microwave mishaps, I will never use this hotel again. This place is not worthy of $116 a night! There are other hotels in the city of Bellflower, Carson and Gardena that are far better and cheaper than Lynwood Travelodge. Now in closing, if I can just get Sue (site manager) to run me my coins,  I would be happily on my way!More</t>
   </si>
   <si>
+    <t>Leonora U</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r497807806-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -426,6 +468,9 @@
     <t>The front desk staff was very friendly and accommodating. Housekeeping kept our room clean and tidy.More</t>
   </si>
   <si>
+    <t>daeishat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r491528987-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -441,6 +486,9 @@
     <t>Responded June 18, 2017</t>
   </si>
   <si>
+    <t>priscillag437</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r485028620-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -468,6 +516,9 @@
     <t>When I called front desk to complain about the smoke smell the receptionist said the maid didn't not tell her it smelled. She couldn't put me in another room because there weren't any available. She said she would check with her other coworker and call back. Never got a call back. Couldn't sleep due to the smell burning my nose. Horrible stay. Bathroom was dirty. Hair left in the bath tub. Toilet wasn't cleaned. I've stayed here before and never experienced this. Don't want to go back. Especially because nothing was done about the room. More</t>
   </si>
   <si>
+    <t>Demekinch</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r483525669-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -495,6 +546,9 @@
     <t>I love staying here...its super clean....all the maids do a very good job n are friendly...gr8t hotelMore</t>
   </si>
   <si>
+    <t>Mark T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r482483705-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -519,6 +573,9 @@
     <t>Bring your own breakfast.  Oh they had ...breakfast but no waffles, no microwave, they had oatmeal but no hot water, just bagels and little cinnamon rolls and danishes.  Overall I'd stay here again based on price and cleanliness of my room but I'd bring an ice chest (no room fridge) and I'd bring fruit or something else to supplement my breakfast.  More</t>
   </si>
   <si>
+    <t>William B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r480254002-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -534,6 +591,9 @@
     <t>Responded May 2, 2017</t>
   </si>
   <si>
+    <t>186priscillat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r479536045-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -552,6 +612,9 @@
     <t>It was a last minute trip, clean rooms that were affordable. We didn't spend too much time in rooms. Just to rest at night but it met our needs.More</t>
   </si>
   <si>
+    <t>629marilync</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r474203364-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -576,6 +639,9 @@
     <t>Quiet-Clean-Easy access to busses and train (L.A. metro green line). Right next to several fast foods and Rite AidMore</t>
   </si>
   <si>
+    <t>T7377PNclaudiam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r470980144-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -603,6 +669,9 @@
     <t>Trip Advisors said no deposit but I had to pay a  $200.00 deposit at check-in &amp; that is something that should be disclosed when booking the room!! ( amount please ) Thank youMore</t>
   </si>
   <si>
+    <t>Michelle J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r470923552-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -612,6 +681,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>539denish</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r469705038-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -621,6 +693,9 @@
     <t>03/23/2017</t>
   </si>
   <si>
+    <t>abnelr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r465070485-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -639,6 +714,9 @@
     <t>Responded March 9, 2017</t>
   </si>
   <si>
+    <t>ljlopez2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r463249992-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -663,6 +741,9 @@
     <t>I really enjoy the location of this hotel, it's close to the freeway and rooms are clean. Negatives: It is not a good looking hotel and the freeway can get noisy but that's LA. A regular stay is $85 which is a bit expensive for how old school the hotel is but I always stay there because it's safe and rooms are clean. Plus sally in the front desk is very friendly and helpful!More</t>
   </si>
   <si>
+    <t>Rochelle P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r461256084-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -687,6 +768,9 @@
     <t>I went here with my boy friend for Valentine's Day and it was nice. I don't go to hotel much but I would hav preferred if the tv cable had more channels. For $80 I wanted better channels. The bedding and decor was nice. The room was clean. I like how the cups were provided. The room should come with a fridge for $80. More</t>
   </si>
   <si>
+    <t>Z8537ZDmaryc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r457177614-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -705,6 +789,9 @@
     <t>Responded February 10, 2017</t>
   </si>
   <si>
+    <t>705roseh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r451080647-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -726,6 +813,9 @@
     <t>The beds were comfortable enough. There was very poor water pressure in the shower. The continental breakfast was very poor. Your choice was bagels or cereal. The coffee did not taste good. The person looking after the breakfast did not speak English so communication was extremely difficult.  The wifi was not good at all. We stayed there for 5 days and for most of the time there was no wifi. The noise level between rooms was very loud.  I wouldn't likely stay there again. More</t>
   </si>
   <si>
+    <t>C2260XUclaudiab</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r449233018-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -750,6 +840,9 @@
     <t>at the beginning it looks scary, but it is a nice area to stay around, and a lot of business to go to, it was a safe place I really enjoy it, I will recommended More</t>
   </si>
   <si>
+    <t>411Sandra</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r441811822-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -777,6 +870,9 @@
     <t>Clean rooms, close to restaurants, fwy, plaza with Mexican specialty shopping. Internet worked well. The tv channels are limitedMore</t>
   </si>
   <si>
+    <t>612miqueass</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r440977904-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -786,6 +882,9 @@
     <t>11/29/2016</t>
   </si>
   <si>
+    <t>lisabX3979FS</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r439099098-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -795,6 +894,9 @@
     <t>11/21/2016</t>
   </si>
   <si>
+    <t>Deann M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r434644173-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -837,6 +939,9 @@
     <t>Responded November 3, 2016</t>
   </si>
   <si>
+    <t>641antoniaw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r428528344-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -852,6 +957,9 @@
     <t>Responded October 18, 2016</t>
   </si>
   <si>
+    <t>Reviewer813</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r415401641-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -879,6 +987,9 @@
     <t>The hotel was quite small and fairly clean although the bed sheets smelt a bit musty. The surroundings were good with a lot of supermarkets and cheap places to eat. It was far from LA but we had a lot of day trips to places other than LA so it did not matter too much to us. We decided to shorten the stay and alter our booking and they kindly obliged which was a notable positive. The breakfast was not anything great but the food was fine to eat. The receptionists were very helpful and gave us anything we required. All in all, a pleasant enough stay for us although the hotel is quite mediocre.More</t>
   </si>
   <si>
+    <t>thechaos612</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r411469263-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -894,6 +1005,9 @@
     <t>Sue P, General Manager at Travelodge by Wyndham Lynwood, responded to this reviewResponded September 19, 2016</t>
   </si>
   <si>
+    <t>Samantha332211</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r405877576-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -903,6 +1017,9 @@
     <t>08/15/2016</t>
   </si>
   <si>
+    <t>capscody</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r403433013-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -921,6 +1038,9 @@
     <t>Very far location from all shopping areas (Santa Monica/ Hollywood &amp; Highlands/ The Grove etc). Taxi fares can go up to $75-90 to go to these places especially with the traffic in Los Angeles! Hotel was so so in general..room was big and well cleaned very day. Air con was good..wifi was a bit bumpy from time to time. Had a pool which I didn't have time to try unfortunately. Breakfast was very very poor (toast with butter or jam, cereals, ready-to-go small muffins, coffee and milk - that was it!) The lobby was too small to accomodate all visitors for breakfast. Some customers ended up eating in their rooms. The water from the tap had a strong smell of chlorine. Even the towels had the same strong smell of chlorine. Taxis were never on time. I was very stressed on my departure day because taxi came 30mins late. Good thing is that there are 2 supermarkets and some fastfood nearby.More</t>
   </si>
   <si>
+    <t>katkiller13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r401903073-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -942,6 +1062,9 @@
     <t>Let me start by saying that my wife and I have stayed here at least 5 times here and we keep coming back do to the excellent service here by Sally. She is extremely professional, knows how to treat her guests, is always on top of any tasks to make her guests feel appreciated and welcomed. The rooms themselves are nice, very clean, not to mention that the staff of ladies that work there are extremely hard workers and polite to help in anyway. Also you have the 105 freeway by you which is not very loud, a bit Mexican plaza near the hotel, dominos, Chinese food, food 4 less, taco Bell and Jack in the box walking distance. Never the less my wife and I are always very happy to be welcomed back by Sally and her staff. Thank you guysMore</t>
   </si>
   <si>
+    <t>Alison L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r399351199-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -966,6 +1089,9 @@
     <t>Lynwood Century Freeway Travelodge  very clean and a great place to stay at in Los Angeles, I think their should be more selecting to choose from for breaksfast and the deposit fee is to high other then that I love staying there.More</t>
   </si>
   <si>
+    <t>Lotte F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r393297804-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -984,6 +1110,9 @@
     <t>The rooms are clean and the staff is friendly.The Metro is only a few minutes walk from the hotel and gives you access to a lot of LA.The area has everything you need food/drinks or groceries.  The breakfast is limited to just bagels, coffee, muffins and cereals and there was no place to sit for breakfast. It was crowded and small.We were told that breakfast was from 7.15 to 10.15, but a very persistent member of the staff would remove it at 9.30.The last day of our stay water began to run down from the bathroom ceiling.All in all the stay was alright.More</t>
   </si>
   <si>
+    <t>997khristinew</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r392936004-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -1002,6 +1131,9 @@
     <t>The room was clean and neat, well-priced.  The street noise was a little loud due to the hotel location, however I was very pleased with the actual hotel.  The staff was friendly and knowledgable, and the inernet was easy to access.More</t>
   </si>
   <si>
+    <t>Luv_2_Travl_2gthr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r392888194-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -1017,6 +1149,9 @@
     <t>Spacious and clean room. Plenty of shops nearby, taco bell, pizza hut, Rite aid etc etc. The only problem was the breakfast which was not nice. Just bagels, coffee, muffins and cereals and there was no place to sit in the lobby for breakfast. It was crowded and small. More</t>
   </si>
   <si>
+    <t>Mihaela M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r386909137-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -1044,6 +1179,9 @@
     <t>This hotel has a good price and pretty good location as it's only a 4 min walk away from the metro station. The staff was very helpful and always happy to assist which I appreciated very much. The breakfast is just basic with apples, bagels, muffins and drinks but you get what you pay for. The parking lot is big enough and it's located in a decent area with several food shops (Dominos next door).More</t>
   </si>
   <si>
+    <t>Florecita_S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r382601375-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -1068,6 +1206,9 @@
     <t>I was not expecting much from this hotel, since other Travelodge hotels I have stayed at were nothing to rave about. But this particular hotel exceeded my expectations. Staff were friendly and helpful, rooms were exceptionally clean, beds were very comfortable. I am not saying it was perfect. Breakfast was simple - bagels and cereal - and wifi was intermittent. But overall it is a very good deal for the price.  I will definitely stay here again if I am back in the area.More</t>
   </si>
   <si>
+    <t>timdao4</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r376489921-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -1107,6 +1248,9 @@
     <t>Responded May 17, 2016</t>
   </si>
   <si>
+    <t>Edwin R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r373210059-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -1125,6 +1269,9 @@
     <t>The hotel is very nice. Close to restaurants and a small shopping center.  Close to the highway.    Comfortable and clean.  More</t>
   </si>
   <si>
+    <t>BimalB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r371648501-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -1149,6 +1296,9 @@
     <t>Stayed for 3 nights at this Hotel. It is located in the quiet suburb of Lynwood but has shopping, restaurants in close vicinity. Check in was a breeze &amp; the room was nice and clean. Only issue was the breakfast.....which was bare basic. All in all a good experience. More</t>
   </si>
   <si>
+    <t>Ervin p</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r364620683-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -1167,6 +1317,9 @@
     <t>Responded April 27, 2016</t>
   </si>
   <si>
+    <t>lwy2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r364041941-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -1188,12 +1341,18 @@
     <t>Clean and nice receptionist( night- shifted) I left my luggage at hotel for a 3 day trip and I get back my luggage and stay for 2 days more.The breakfast is average. Near to Metro and airport, goodMore</t>
   </si>
   <si>
+    <t>irmac120</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r363948587-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
     <t>363948587</t>
   </si>
   <si>
+    <t>Daniel S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r357719898-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -1212,6 +1371,9 @@
     <t>Responded April 15, 2016</t>
   </si>
   <si>
+    <t>anavO7844PI</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r356793764-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -1236,6 +1398,9 @@
     <t>It's very good, the hotel is economy, the room is clean, it's a good option for stay near plaza Mexico More</t>
   </si>
   <si>
+    <t>670aliciat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r354614166-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -1266,6 +1431,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>Rita L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r339531150-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -1308,6 +1476,9 @@
     <t>Great place to get away.. even if it is only for a day or two. The location could use a bit of an upgrade but overall it is a great place to stay. Don't count on the continental breakfast... The juice is pretty bad and it seems to be cleaned out by 8:30am. Parking is pretty scarce in the weekends and check in/out is a breeze. The comp WiFi seems a lot slower than using your mobile data. More</t>
   </si>
   <si>
+    <t>113kajs</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r318291290-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -1335,6 +1506,9 @@
     <t>Clean, well located and easy to find, close to Plaza Mexico with excellent restaurants!Breakfast limited, no guest laundry.More</t>
   </si>
   <si>
+    <t>Jorge C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r314935081-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -1353,6 +1527,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>Barbara Susan C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r309065839-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -1377,6 +1554,9 @@
     <t>Room was ok. But they charged for ice and they said refrigerator and microwavez are available upon request. We requested them when we made our reservation. It was not in our room when we arrived on Saturday check in, we got it after maid service Sunday afternoon but we were leaving Monday morning so they were not there when we needed them.More</t>
   </si>
   <si>
+    <t>945rosao</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r299720889-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -1395,6 +1575,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>alondrat383</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r292799764-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -1407,6 +1590,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>Franck P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r291584314-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -1422,6 +1608,9 @@
     <t>old furniture in the room, with view on a wallgood breakfastbut the staff is not very comprehensive</t>
   </si>
   <si>
+    <t>Chinthan Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r274928431-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -1434,6 +1623,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>bassel762015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r272892740-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -1449,6 +1641,9 @@
     <t xml:space="preserve">We stayed in this hotel for two nights. The place is good quite and the rooms was fine. Location is in ok neighborhood, nearby grocery shoppers and restaurants.  </t>
   </si>
   <si>
+    <t>David G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r272037929-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -1464,6 +1659,9 @@
     <t>Pretty decent sized room. Old and outdated.  Smells old.. very one night stand motel feel to it . I won't stay here again unless has major renovation .But big plus is the wide selection of food shopping across the parking lot</t>
   </si>
   <si>
+    <t>Dia T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r262884524-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -1485,6 +1683,9 @@
     <t>I liked how this place was cheap for us during our stay however that's pretty much it. What I didn't like was the; sketchy surrounding area,wi-fi was too slow, there were ants crawling every where from the counter to the floor, the poor service, some random person kept calling our phone, the cleaning people just threw away our food and drinks that we had bought the night before and the carpet was super dirty, though it didn't look like it when I walked in but once I walked around for a few minutes both of my foot turned black as if I have been stepping in dirt the whole day. YEP, I am never coming back to this place.More</t>
   </si>
   <si>
+    <t>luzrossi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r261721660-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -1512,6 +1713,9 @@
     <t>The hotel was pretty good actually. Staff was MEGA friendly, hotel room was enormous, with free breakfast, wifi and parking. No refrigerator and microwave though. The reason I wouldn't go back is the area. I booked there because it was relatively near the airport, but if I had known the area was that awful, I would have booked elsewhere. It is an industrial neighborhood; dirty, grey, no houses, no friendly faces and I honestly didn't feel safe. The hotel is 10 meters away from the freeway entrance. Kudos for the hotel, it's a pity it's located there.More</t>
   </si>
   <si>
+    <t>Vanessa A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r256468753-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -1530,6 +1734,9 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>hermilav2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r250802958-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -1548,6 +1755,9 @@
     <t>Responded January 26, 2015</t>
   </si>
   <si>
+    <t>Todd L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r248643260-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -1560,6 +1770,9 @@
     <t>December 2014</t>
   </si>
   <si>
+    <t>edgardgg2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r247170227-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -1569,6 +1782,9 @@
     <t>01/03/2015</t>
   </si>
   <si>
+    <t>Mary A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r241765581-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -1587,6 +1803,9 @@
     <t>Responded December 16, 2014</t>
   </si>
   <si>
+    <t>278shawnf</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r241319481-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -1594,6 +1813,9 @@
   </si>
   <si>
     <t>11/24/2014</t>
+  </si>
+  <si>
+    <t>MrsRojas26</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r238196930-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
@@ -1622,6 +1844,9 @@
 And just a note about getting there, there is no actual entrance, which is very confusing. What looks to be the entrance into the hotel is actually the on-ramp to a major highway (which we unknowingly took). We had to reroute on the highway for a couple of miles and take back-roads to get back to the hotel. The entrance is only through a parking plaza on the very backside. So in case you haven't figured this out yet, there is constant highway noise in the background. But if you're looking for something super cheap, and don't care about any of...Basically needed a bed for a late night arrival out of town. We booked this online without really checking it out because the price was cheap. I'm not so sure it was worth it. Our bed was super uncomfortable. The sheets were scratchy, like they had been washed a million times, and needed to be replaced. The sink had no water pressure at all! It took me like 10 minutes to brush my teeth. The lighting was real bad too. I had to turn every lamp on manually in the room and it was still pretty dark in there. I definitely remember taking a very dark shower. The Kleenex box cover broke right off the wall the moment I went to grab a Kleenex. And the continental breakfast was a joke. It was basically apples, bagels, and cheap coffee. And just a note about getting there, there is no actual entrance, which is very confusing. What looks to be the entrance into the hotel is actually the on-ramp to a major highway (which we unknowingly took). We had to reroute on the highway for a couple of miles and take back-roads to get back to the hotel. The entrance is only through a parking plaza on the very backside. So in case you haven't figured this out yet, there is constant highway noise in the background. But if you're looking for something super cheap, and don't care about any of this, this is the hotel for you!More</t>
   </si>
   <si>
+    <t>theblublur</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r234416057-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -1634,6 +1859,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>bluemonster</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r231366606-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -1652,6 +1880,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>Hilda W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r223276873-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -1664,6 +1895,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>Luis Alberto S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r220166746-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -1673,6 +1907,9 @@
     <t>08/06/2014</t>
   </si>
   <si>
+    <t>Evelyn C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r211922744-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -1697,6 +1934,9 @@
     <t>there were ants all over the bathroom manager did nothing said there was nothing they could do they were very condescending I will never stay there againthe attitude of the manager was unprofessionalthey did absolutely nothing to try and fix the situation when I told them I would never be coming back they said that was my choicethey were supposed to have continental breakfast till 11 at 10:10 they decided to close it said there was enough already put out I will never stay here again I have never felt so belittle dMore</t>
   </si>
   <si>
+    <t>Thorpe C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r210512565-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -1736,6 +1976,9 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>Angela H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r197754445-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -1775,6 +2018,9 @@
     <t>February 2014</t>
   </si>
   <si>
+    <t>Joe S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r188470850-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -1787,6 +2033,9 @@
     <t>December 2013</t>
   </si>
   <si>
+    <t>Nakia M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r187659563-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -1811,6 +2060,9 @@
     <t>One thing nice is the staff other than that the rooms are outdated the TV is old and only has local channels the shower head barely had water coming out I would not stay here ever again even if I was paid. The TV had missing knobs and when I called about the cable channels I was told they no longer work. This location gets a big fat F....More</t>
   </si>
   <si>
+    <t>Flo R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r185543462-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -1823,6 +2075,9 @@
     <t>November 2013</t>
   </si>
   <si>
+    <t>kaykuhns</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r177240501-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -1835,6 +2090,9 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>Marion D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r175835991-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -1844,6 +2102,9 @@
     <t>09/04/2013</t>
   </si>
   <si>
+    <t>DadoAle11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r172744810-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -1856,6 +2117,9 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>Alfred L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r171804163-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -1865,6 +2129,9 @@
     <t>08/11/2013</t>
   </si>
   <si>
+    <t>Alejandro P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r166993049-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -1883,6 +2150,9 @@
     <t>Responded July 15, 2013</t>
   </si>
   <si>
+    <t>michaelangelo936</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r166698473-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -1901,6 +2171,9 @@
     <t>For the price and proximity to LA, I think this Travelodge was a great choice! Pros: The room was nice; it seemed a little better/more refurbished than the current photos suggest.  The housekeeping was courteous and cleaned the room everyday (made beds, emptied trash, replenished toiletries, etc.).  The front desk reception was polite and very prompt in getting my friend and myself the room.  The surrounding area was safe during my stay and the location of the hotel is very convenient as there's affordable options for food (Taco Bell, Jack in the Box, McDonalds, Denny's, a Chinese buffet), gas stations, a Food 4 Less, and is right by a freeway entrance.Cons: The walls seemed a bit thin and you could sometimes hear what was on going in the next room.  Since my room was on the first floor you could also hear the stomps from the people staying above.  Some people might find this annoying, but I didn't find it to be particularly bothersome.The small hotel parking lot is a bit of an inconvenience. One night, I got to the room late at night and found that the hotel parking lot was full, so I had to park in the lot across the way nearby the shopping plaza. Luckily, my car was still there the next morning.Overall, I enjoyed my four nights here and would definitely choose to stay here again!More</t>
   </si>
   <si>
+    <t>Stephen S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r160336498-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -1913,6 +2186,9 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>Miguel E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r160124261-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -1931,6 +2207,9 @@
     <t>Responded May 12, 2013</t>
   </si>
   <si>
+    <t>Lee D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r159423136-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -1940,6 +2219,9 @@
     <t>05/02/2013</t>
   </si>
   <si>
+    <t>raull740</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r156856068-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -1958,6 +2240,9 @@
     <t>i stayed there lash. week and i check  in at 2.00 am in the morning that check in was very nice and fast ,that person who check mi in wast very nice lady very ,i like mi room nice and clean smell nice i love to stayed thereMore</t>
   </si>
   <si>
+    <t>A F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r155989200-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -1985,6 +2270,9 @@
     <t>Disgusting discovery on 'clean' towels.Dirty bathroom area.Was advised by local friends not to drive in that area at night due to gang issues.Poor breakfast.Pool closed.Polite but ineffective receptionist.Moved hotel.More</t>
   </si>
   <si>
+    <t>Boniface M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r155654241-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -1994,6 +2282,9 @@
     <t>03/25/2013</t>
   </si>
   <si>
+    <t>ssanchez72</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r153254422-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -2021,6 +2312,9 @@
     <t>I stayed from February 22-24, 2013 The check in was fast, common area nice and clean, nice landscaping. Security cameras covering parking lot. Rooms were nice and clean, smell nice ad bathrooms too. It was a good place to stay for a limited budget nice pillows and clean bedding, carpets were clean too. Fast food and pharmacy walking distance. I would only add a toaster in the breakfast area for the bagels other than that I will stay again on my next visit.More</t>
   </si>
   <si>
+    <t>Allan B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r152412349-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -2030,6 +2324,9 @@
     <t>02/18/2013</t>
   </si>
   <si>
+    <t>Love L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r150301822-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -2042,6 +2339,9 @@
     <t>January 2013</t>
   </si>
   <si>
+    <t>ROGELIO A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r145355676-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -2069,6 +2369,9 @@
     <t>the service is good the room is cleanthe location is good I liked thje only thing i don't like is the tv is no't clear   is to oldneed to renew the tv in all rooms  the location is perfet closed to fwy in shoping centerMore</t>
   </si>
   <si>
+    <t>FANNIE T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r139702204-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -2085,6 +2388,9 @@
   </si>
   <si>
     <t>Responded October 15, 2012</t>
+  </si>
+  <si>
+    <t>Frank J</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r131871026-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
@@ -2116,6 +2422,9 @@
 Again... If you see an ant crawl across the sidewalk OUTSIDE ... that does not warrant a negative comment. Its hard enough going through all the reviews trying to sort out decent places to...I was a little apprehensive about staying here after reading some of the reviews, but I was pleasantly surprised on my 3 night stay. The location was great, centrally located between Hollywood and Anaheim, where i was working. Very quite neighborhood, and close to grocery and drug stores as well as plenty of restaurants. The staff were extremely friendly and attentive. Room smelled very fresh and clean and the bathrooms were all marble and ceramic tile. Don't be fooled by these haters who think they should get a 5 star room for $49 bucks a night.... You get what you pay for.... and i don't understand all the nit picking you guys do. I am in the entertainment ( Music )  industry and I have stayed at them all from Ritz Carlton's to Motel 6, over the years. I get my itinerary  from my boss and I stay where I am placed...... so....  I know the difference.. !!!  This place was very well kept form the groundskeeping to the rooms.... I would recommend this hotel to my friends and relatives in a heartbeat.... and I am sure none will be disappointed or delusional by thinking they will have mints on their pillows at a Travel lodge. Again... If you see an ant crawl across the sidewalk OUTSIDE ... that does not warrant a negative comment. Its hard enough going through all the reviews trying to sort out decent places to stay.... If I would have listened to the negative comments on this place, I would have never discovered this diamond in the rough... !!!  Great job travel Lodge staff... I WILL BE BACK !!!!!!                 Frank J.                  Memphis TennesseeMore</t>
   </si>
   <si>
+    <t>teacherandteacher</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r125955454-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -2137,6 +2446,9 @@
     <t>We stayed here after arriving late at night into LAX. It was easy to find and the lady on the reception desk was friendly and efficient. This was our first stay in a Travelodge and will be our last.The room we had was on the ground floor...The decor is very tired, with smoke stained peeling wallpaper and carpet which doesn't meet the edge of the room properly. In our room the carpet was clean apart from around the edged where there were months worth of dust and dirt! The bathroom was wallpapered and again this was peeling.The bathroom was however very clean and the towels and linens were white and obviously fresh. The bed was the main issue, it was so soft and lumpy, along with the lumpy pillows that it made it hard to sleep. Breakfast was very basic, with pre-packed pastries and cereals. The orange juice was terrible, however the tea and coffee were fine.For the amount that this cost per night, I would be unable to recommend it to others.More</t>
   </si>
   <si>
+    <t>Gregg H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r122081561-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -2155,6 +2467,9 @@
     <t>December 2011</t>
   </si>
   <si>
+    <t>dallasgonz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r122071266-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -2170,6 +2485,9 @@
     <t>Very clean rooms and great location to shopping and restuarants. Enjoyed our stay</t>
   </si>
   <si>
+    <t>Robert H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r122029927-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -2188,6 +2506,9 @@
     <t>November 2011</t>
   </si>
   <si>
+    <t>Cheri T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r122013404-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
   </si>
   <si>
@@ -2201,6 +2522,9 @@
   </si>
   <si>
     <t>The staff is very service oriented. Everything is so clean. The parking lot looks like a car never drove on it. You feel safe while on property. Great mexican retaurants at the connecting PLaza de Mexico. Minutes from LAX centrally located. Great value for your money.</t>
+  </si>
+  <si>
+    <t>Katalin T</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32668-d78097-r120739533-Travelodge_by_Wyndham_Lynwood-Lynwood_California.html</t>
@@ -2720,43 +3044,47 @@
       <c r="A2" t="n">
         <v>29043</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -2774,50 +3102,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>29043</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2831,50 +3163,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>29043</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2892,48 +3228,52 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>29043</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -2955,56 +3295,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="X5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="Y5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>29043</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
         <v>77</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>78</v>
-      </c>
-      <c r="J6" t="s">
-        <v>79</v>
-      </c>
-      <c r="K6" t="s">
-        <v>80</v>
-      </c>
-      <c r="L6" t="s">
-        <v>81</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>73</v>
-      </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="n">
         <v>4</v>
@@ -3026,41 +3370,45 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="X6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>29043</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -3068,10 +3416,10 @@
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="O7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -3092,51 +3440,52 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
-      <c r="Y7" t="s"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>29043</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -3154,48 +3503,52 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>29043</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -3217,54 +3570,58 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="X9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="Y9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>29043</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>105</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="J10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="O10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P10" t="n">
         <v>3</v>
@@ -3286,56 +3643,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="X10" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="Y10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>29043</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>109</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="J11" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="K11" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="L11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="O11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
@@ -3353,54 +3714,58 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="X11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="Y11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>29043</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>119</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="J12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="O12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="P12" t="n">
         <v>4</v>
@@ -3422,56 +3787,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="X12" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="Y12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>29043</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>125</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="J13" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="K13" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="L13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="O13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -3489,56 +3858,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="X13" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="Y13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>29043</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>132</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="J14" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="K14" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="L14" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
@@ -3554,56 +3927,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="X14" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="Y14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>29043</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>140</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="J15" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="K15" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="L15" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -3625,54 +4002,58 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="X15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="Y15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>29043</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>150</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="J16" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="K16" t="s"/>
       <c r="L16" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -3694,56 +4075,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="X16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="Y16" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>29043</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>156</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="J17" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="K17" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="L17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="n">
         <v>3</v>
@@ -3765,56 +4150,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="X17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="Y17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>29043</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>166</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="J18" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="K18" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="L18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="O18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -3836,56 +4225,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="X18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="Y18" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>29043</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>176</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="J19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="K19" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="L19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="O19" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -3907,54 +4300,58 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="X19" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="Y19" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>29043</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>185</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="J20" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="K20" t="s"/>
       <c r="L20" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="O20" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="P20" t="n">
         <v>4</v>
@@ -3976,56 +4373,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="X20" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="Y20" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>29043</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>191</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
+        <v>192</v>
+      </c>
+      <c r="G21" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" t="s">
+        <v>193</v>
+      </c>
+      <c r="J21" t="s">
+        <v>194</v>
+      </c>
+      <c r="K21" t="s">
+        <v>195</v>
+      </c>
+      <c r="L21" t="s">
+        <v>196</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
         <v>172</v>
       </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" t="s">
-        <v>173</v>
-      </c>
-      <c r="J21" t="s">
-        <v>174</v>
-      </c>
-      <c r="K21" t="s">
-        <v>175</v>
-      </c>
-      <c r="L21" t="s">
-        <v>176</v>
-      </c>
-      <c r="M21" t="n">
-        <v>5</v>
-      </c>
-      <c r="N21" t="s">
-        <v>155</v>
-      </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -4047,56 +4448,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="X21" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="Y21" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>29043</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>198</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="J22" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="K22" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="L22" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="O22" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P22" t="n">
         <v>4</v>
@@ -4118,56 +4523,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="X22" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="Y22" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>29043</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>207</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="J23" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="K23" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="L23" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="n">
         <v>2</v>
@@ -4189,54 +4598,58 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="X23" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="Y23" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>29043</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>217</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="J24" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="K24" t="s"/>
       <c r="L24" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="O24" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="P24" t="n">
         <v>2</v>
@@ -4258,54 +4671,58 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="X24" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="Y24" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>29043</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>221</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="J25" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="K25" t="s"/>
       <c r="L25" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="O25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P25" t="n">
         <v>3</v>
@@ -4327,54 +4744,58 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="X25" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="Y25" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>29043</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>225</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="J26" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="K26" t="s"/>
       <c r="L26" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="O26" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -4396,56 +4817,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="X26" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="Y26" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>29043</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>232</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="J27" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="K27" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="L27" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="O27" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="P27" t="n">
         <v>2</v>
@@ -4467,56 +4892,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="X27" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="Y27" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>29043</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>241</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="J28" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="K28" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="L28" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="O28" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="P28" t="n">
         <v>4</v>
@@ -4538,54 +4967,58 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="X28" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="Y28" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>29043</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>250</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="J29" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="K29" t="s"/>
       <c r="L29" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -4607,56 +5040,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="X29" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="Y29" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>29043</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>257</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="J30" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="K30" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="L30" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="n">
         <v>2</v>
@@ -4678,56 +5115,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="X30" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="Y30" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>29043</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>265</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="J31" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="K31" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="L31" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="n">
         <v>4</v>
@@ -4749,56 +5190,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="X31" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="Y31" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>29043</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>274</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="J32" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="K32" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="L32" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="O32" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P32" t="n">
         <v>4</v>
@@ -4820,54 +5265,58 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="X32" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="Y32" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>29043</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>284</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="J33" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
       <c r="K33" t="s"/>
       <c r="L33" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="n">
         <v>4</v>
@@ -4889,54 +5338,58 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="X33" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="Y33" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>29043</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>288</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="J34" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="K34" t="s"/>
       <c r="L34" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M34" t="n">
         <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="O34" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P34" t="n">
         <v>4</v>
@@ -4958,56 +5411,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="X34" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="Y34" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>29043</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>292</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>259</v>
+        <v>293</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="J35" t="s">
-        <v>261</v>
+        <v>295</v>
       </c>
       <c r="K35" t="s">
-        <v>262</v>
+        <v>296</v>
       </c>
       <c r="L35" t="s">
-        <v>263</v>
+        <v>297</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="O35" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -5029,54 +5486,58 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="X35" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="Y35" t="s">
-        <v>266</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>29043</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>274</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>267</v>
+        <v>301</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="J36" t="s">
-        <v>269</v>
+        <v>303</v>
       </c>
       <c r="K36" t="s"/>
       <c r="L36" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="O36" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P36" t="n">
         <v>3</v>
@@ -5098,54 +5559,58 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="X36" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="Y36" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>29043</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>307</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="J37" t="s">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="K37" t="s"/>
       <c r="L37" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="O37" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="P37" t="n">
         <v>1</v>
@@ -5167,56 +5632,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="X37" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="Y37" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>29043</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>313</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="J38" t="s">
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="K38" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="L38" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>283</v>
+        <v>319</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="n">
         <v>3</v>
@@ -5232,54 +5701,58 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c r="X38" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c r="Y38" t="s">
-        <v>286</v>
+        <v>322</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>29043</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>323</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="J39" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="K39" t="s"/>
       <c r="L39" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M39" t="n">
         <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="n">
         <v>4</v>
@@ -5301,54 +5774,58 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="X39" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c r="Y39" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>29043</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>329</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>292</v>
+        <v>330</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>293</v>
+        <v>331</v>
       </c>
       <c r="J40" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="K40" t="s"/>
       <c r="L40" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M40" t="n">
         <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="n">
         <v>2</v>
@@ -5370,56 +5847,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="X40" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c r="Y40" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>29043</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>333</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="J41" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="K41" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
       <c r="L41" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="M41" t="n">
         <v>2</v>
       </c>
       <c r="N41" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="O41" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5431,56 +5912,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="X41" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c r="Y41" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>29043</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>340</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>301</v>
+        <v>341</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>302</v>
+        <v>342</v>
       </c>
       <c r="J42" t="s">
-        <v>303</v>
+        <v>343</v>
       </c>
       <c r="K42" t="s">
-        <v>304</v>
+        <v>344</v>
       </c>
       <c r="L42" t="s">
-        <v>305</v>
+        <v>345</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>306</v>
+        <v>346</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5494,50 +5979,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>307</v>
+        <v>347</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>29043</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>348</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>308</v>
+        <v>349</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>309</v>
+        <v>350</v>
       </c>
       <c r="J43" t="s">
-        <v>310</v>
+        <v>351</v>
       </c>
       <c r="K43" t="s">
-        <v>311</v>
+        <v>352</v>
       </c>
       <c r="L43" t="s">
-        <v>312</v>
+        <v>353</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>283</v>
+        <v>319</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -5559,56 +6048,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>313</v>
+        <v>354</v>
       </c>
       <c r="X43" t="s">
-        <v>314</v>
+        <v>355</v>
       </c>
       <c r="Y43" t="s">
-        <v>315</v>
+        <v>356</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>29043</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>357</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>316</v>
+        <v>358</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>317</v>
+        <v>359</v>
       </c>
       <c r="J44" t="s">
-        <v>318</v>
+        <v>360</v>
       </c>
       <c r="K44" t="s">
+        <v>361</v>
+      </c>
+      <c r="L44" t="s">
+        <v>362</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
         <v>319</v>
       </c>
-      <c r="L44" t="s">
-        <v>320</v>
-      </c>
-      <c r="M44" t="n">
-        <v>3</v>
-      </c>
-      <c r="N44" t="s">
-        <v>283</v>
-      </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -5626,56 +6119,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>313</v>
+        <v>354</v>
       </c>
       <c r="X44" t="s">
-        <v>314</v>
+        <v>355</v>
       </c>
       <c r="Y44" t="s">
-        <v>321</v>
+        <v>363</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>29043</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>364</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>322</v>
+        <v>365</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>323</v>
+        <v>366</v>
       </c>
       <c r="J45" t="s">
-        <v>324</v>
+        <v>367</v>
       </c>
       <c r="K45" t="s">
-        <v>325</v>
+        <v>368</v>
       </c>
       <c r="L45" t="s">
-        <v>326</v>
+        <v>369</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>283</v>
+        <v>319</v>
       </c>
       <c r="O45" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -5697,56 +6194,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>313</v>
+        <v>354</v>
       </c>
       <c r="X45" t="s">
-        <v>314</v>
+        <v>355</v>
       </c>
       <c r="Y45" t="s">
-        <v>327</v>
+        <v>370</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>29043</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>371</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>328</v>
+        <v>372</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>329</v>
+        <v>373</v>
       </c>
       <c r="J46" t="s">
-        <v>324</v>
+        <v>367</v>
       </c>
       <c r="K46" t="s">
-        <v>330</v>
+        <v>374</v>
       </c>
       <c r="L46" t="s">
-        <v>331</v>
+        <v>375</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>283</v>
+        <v>319</v>
       </c>
       <c r="O46" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -5758,56 +6259,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>313</v>
+        <v>354</v>
       </c>
       <c r="X46" t="s">
-        <v>314</v>
+        <v>355</v>
       </c>
       <c r="Y46" t="s">
-        <v>332</v>
+        <v>376</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>29043</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>377</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>333</v>
+        <v>378</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>334</v>
+        <v>379</v>
       </c>
       <c r="J47" t="s">
-        <v>335</v>
+        <v>380</v>
       </c>
       <c r="K47" t="s">
-        <v>336</v>
+        <v>381</v>
       </c>
       <c r="L47" t="s">
-        <v>337</v>
+        <v>382</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>338</v>
+        <v>383</v>
       </c>
       <c r="O47" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -5825,56 +6330,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>339</v>
+        <v>384</v>
       </c>
       <c r="X47" t="s">
-        <v>340</v>
+        <v>385</v>
       </c>
       <c r="Y47" t="s">
-        <v>341</v>
+        <v>386</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>29043</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>387</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>342</v>
+        <v>388</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>343</v>
+        <v>389</v>
       </c>
       <c r="J48" t="s">
-        <v>344</v>
+        <v>390</v>
       </c>
       <c r="K48" t="s">
-        <v>345</v>
+        <v>391</v>
       </c>
       <c r="L48" t="s">
-        <v>346</v>
+        <v>392</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>338</v>
+        <v>383</v>
       </c>
       <c r="O48" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -5890,56 +6399,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>347</v>
+        <v>393</v>
       </c>
       <c r="X48" t="s">
-        <v>348</v>
+        <v>394</v>
       </c>
       <c r="Y48" t="s">
-        <v>349</v>
+        <v>395</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>29043</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>396</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>350</v>
+        <v>397</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>351</v>
+        <v>398</v>
       </c>
       <c r="J49" t="s">
-        <v>352</v>
+        <v>399</v>
       </c>
       <c r="K49" t="s">
-        <v>353</v>
+        <v>400</v>
       </c>
       <c r="L49" t="s">
-        <v>354</v>
+        <v>401</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>338</v>
+        <v>383</v>
       </c>
       <c r="O49" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="P49" t="n">
         <v>4</v>
@@ -5961,54 +6474,58 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>355</v>
+        <v>402</v>
       </c>
       <c r="X49" t="s">
-        <v>356</v>
+        <v>403</v>
       </c>
       <c r="Y49" t="s">
-        <v>357</v>
+        <v>404</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>29043</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>105</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>358</v>
+        <v>405</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>359</v>
+        <v>406</v>
       </c>
       <c r="J50" t="s">
-        <v>360</v>
+        <v>407</v>
       </c>
       <c r="K50" t="s"/>
       <c r="L50" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>338</v>
+        <v>383</v>
       </c>
       <c r="O50" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="P50" t="n">
         <v>4</v>
@@ -6030,56 +6547,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>361</v>
+        <v>408</v>
       </c>
       <c r="X50" t="s">
-        <v>362</v>
+        <v>409</v>
       </c>
       <c r="Y50" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>29043</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>410</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>363</v>
+        <v>411</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>364</v>
+        <v>412</v>
       </c>
       <c r="J51" t="s">
-        <v>365</v>
+        <v>413</v>
       </c>
       <c r="K51" t="s">
-        <v>366</v>
+        <v>414</v>
       </c>
       <c r="L51" t="s">
-        <v>367</v>
+        <v>415</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>338</v>
+        <v>383</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -6101,56 +6622,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>361</v>
+        <v>408</v>
       </c>
       <c r="X51" t="s">
-        <v>362</v>
+        <v>409</v>
       </c>
       <c r="Y51" t="s">
-        <v>368</v>
+        <v>416</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>29043</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>417</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>369</v>
+        <v>418</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>370</v>
+        <v>419</v>
       </c>
       <c r="J52" t="s">
-        <v>371</v>
+        <v>420</v>
       </c>
       <c r="K52" t="s">
-        <v>372</v>
+        <v>421</v>
       </c>
       <c r="L52" t="s">
-        <v>373</v>
+        <v>422</v>
       </c>
       <c r="M52" t="n">
         <v>3</v>
       </c>
       <c r="N52" t="s">
-        <v>338</v>
+        <v>383</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -6162,54 +6687,58 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>374</v>
+        <v>423</v>
       </c>
       <c r="X52" t="s">
-        <v>375</v>
+        <v>424</v>
       </c>
       <c r="Y52" t="s">
-        <v>376</v>
+        <v>425</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>29043</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>426</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>377</v>
+        <v>427</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>378</v>
+        <v>428</v>
       </c>
       <c r="J53" t="s">
-        <v>379</v>
+        <v>429</v>
       </c>
       <c r="K53" t="s"/>
       <c r="L53" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>380</v>
+        <v>430</v>
       </c>
       <c r="O53" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P53" t="n">
         <v>4</v>
@@ -6231,56 +6760,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>381</v>
+        <v>431</v>
       </c>
       <c r="X53" t="s">
-        <v>382</v>
+        <v>432</v>
       </c>
       <c r="Y53" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>29043</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>433</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>383</v>
+        <v>434</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>384</v>
+        <v>435</v>
       </c>
       <c r="J54" t="s">
-        <v>385</v>
+        <v>436</v>
       </c>
       <c r="K54" t="s">
-        <v>386</v>
+        <v>437</v>
       </c>
       <c r="L54" t="s">
-        <v>387</v>
+        <v>438</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>388</v>
+        <v>439</v>
       </c>
       <c r="O54" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="P54" t="n">
         <v>4</v>
@@ -6302,54 +6835,58 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>381</v>
+        <v>431</v>
       </c>
       <c r="X54" t="s">
-        <v>382</v>
+        <v>432</v>
       </c>
       <c r="Y54" t="s">
-        <v>389</v>
+        <v>440</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>29043</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>441</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>390</v>
+        <v>442</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>391</v>
+        <v>443</v>
       </c>
       <c r="J55" t="s">
-        <v>385</v>
+        <v>436</v>
       </c>
       <c r="K55" t="s"/>
       <c r="L55" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>380</v>
+        <v>430</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P55" t="n">
         <v>4</v>
@@ -6371,54 +6908,58 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>381</v>
+        <v>431</v>
       </c>
       <c r="X55" t="s">
-        <v>382</v>
+        <v>432</v>
       </c>
       <c r="Y55" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>29043</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>444</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>392</v>
+        <v>445</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>393</v>
+        <v>446</v>
       </c>
       <c r="J56" t="s">
-        <v>394</v>
+        <v>447</v>
       </c>
       <c r="K56" t="s"/>
       <c r="L56" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>395</v>
+        <v>448</v>
       </c>
       <c r="O56" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
@@ -6430,56 +6971,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>396</v>
+        <v>449</v>
       </c>
       <c r="X56" t="s">
-        <v>397</v>
+        <v>450</v>
       </c>
       <c r="Y56" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>29043</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>451</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>398</v>
+        <v>452</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>399</v>
+        <v>453</v>
       </c>
       <c r="J57" t="s">
-        <v>400</v>
+        <v>454</v>
       </c>
       <c r="K57" t="s">
-        <v>401</v>
+        <v>455</v>
       </c>
       <c r="L57" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>388</v>
+        <v>439</v>
       </c>
       <c r="O57" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -6501,56 +7046,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>403</v>
+        <v>457</v>
       </c>
       <c r="X57" t="s">
-        <v>404</v>
+        <v>458</v>
       </c>
       <c r="Y57" t="s">
-        <v>405</v>
+        <v>459</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>29043</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>460</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>406</v>
+        <v>461</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>407</v>
+        <v>462</v>
       </c>
       <c r="J58" t="s">
-        <v>408</v>
+        <v>463</v>
       </c>
       <c r="K58" t="s">
-        <v>409</v>
+        <v>464</v>
       </c>
       <c r="L58" t="s">
-        <v>410</v>
+        <v>465</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>388</v>
+        <v>439</v>
       </c>
       <c r="O58" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="P58" t="n">
         <v>3</v>
@@ -6572,41 +7121,45 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>403</v>
+        <v>457</v>
       </c>
       <c r="X58" t="s">
-        <v>404</v>
+        <v>458</v>
       </c>
       <c r="Y58" t="s">
-        <v>411</v>
+        <v>466</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>29043</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>274</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>412</v>
+        <v>467</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>413</v>
+        <v>468</v>
       </c>
       <c r="J59" t="s">
-        <v>414</v>
+        <v>469</v>
       </c>
       <c r="K59" t="s"/>
       <c r="L59" t="s"/>
@@ -6614,10 +7167,10 @@
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>415</v>
+        <v>470</v>
       </c>
       <c r="O59" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P59" t="n">
         <v>3</v>
@@ -6638,51 +7191,52 @@
       <c r="V59" t="n">
         <v>0</v>
       </c>
-      <c r="W59" t="s"/>
-      <c r="X59" t="s"/>
-      <c r="Y59" t="s"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>29043</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>471</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>416</v>
+        <v>472</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>417</v>
+        <v>473</v>
       </c>
       <c r="J60" t="s">
-        <v>418</v>
+        <v>474</v>
       </c>
       <c r="K60" t="s">
-        <v>419</v>
+        <v>475</v>
       </c>
       <c r="L60" t="s">
-        <v>420</v>
+        <v>476</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>415</v>
+        <v>470</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P60" t="n">
         <v>4</v>
@@ -6706,50 +7260,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>420</v>
+        <v>476</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>29043</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>105</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>421</v>
+        <v>477</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>422</v>
+        <v>478</v>
       </c>
       <c r="J61" t="s">
-        <v>423</v>
+        <v>479</v>
       </c>
       <c r="K61" t="s">
-        <v>424</v>
+        <v>480</v>
       </c>
       <c r="L61" t="s">
-        <v>425</v>
+        <v>481</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>426</v>
+        <v>482</v>
       </c>
       <c r="O61" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
@@ -6763,56 +7321,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>427</v>
+        <v>483</v>
       </c>
       <c r="X61" t="s">
-        <v>428</v>
+        <v>484</v>
       </c>
       <c r="Y61" t="s">
-        <v>429</v>
+        <v>485</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>29043</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>486</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>430</v>
+        <v>487</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>431</v>
+        <v>488</v>
       </c>
       <c r="J62" t="s">
-        <v>432</v>
+        <v>489</v>
       </c>
       <c r="K62" t="s">
-        <v>433</v>
+        <v>490</v>
       </c>
       <c r="L62" t="s">
-        <v>434</v>
+        <v>491</v>
       </c>
       <c r="M62" t="n">
         <v>3</v>
       </c>
       <c r="N62" t="s">
-        <v>435</v>
+        <v>492</v>
       </c>
       <c r="O62" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="P62" t="n">
         <v>4</v>
@@ -6834,56 +7396,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>436</v>
+        <v>493</v>
       </c>
       <c r="X62" t="s">
-        <v>437</v>
+        <v>494</v>
       </c>
       <c r="Y62" t="s">
-        <v>438</v>
+        <v>495</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>29043</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>496</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>439</v>
+        <v>497</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>440</v>
+        <v>498</v>
       </c>
       <c r="J63" t="s">
-        <v>441</v>
+        <v>499</v>
       </c>
       <c r="K63" t="s">
-        <v>442</v>
+        <v>500</v>
       </c>
       <c r="L63" t="s">
-        <v>443</v>
+        <v>501</v>
       </c>
       <c r="M63" t="n">
         <v>3</v>
       </c>
       <c r="N63" t="s">
-        <v>444</v>
+        <v>502</v>
       </c>
       <c r="O63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P63" t="n">
         <v>3</v>
@@ -6907,50 +7473,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>443</v>
+        <v>501</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>29043</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>503</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>445</v>
+        <v>504</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>446</v>
+        <v>505</v>
       </c>
       <c r="J64" t="s">
-        <v>447</v>
+        <v>506</v>
       </c>
       <c r="K64" t="s">
-        <v>448</v>
+        <v>507</v>
       </c>
       <c r="L64" t="s">
-        <v>449</v>
+        <v>508</v>
       </c>
       <c r="M64" t="n">
         <v>3</v>
       </c>
       <c r="N64" t="s">
-        <v>444</v>
+        <v>502</v>
       </c>
       <c r="O64" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="P64" t="n">
         <v>3</v>
@@ -6972,56 +7542,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>450</v>
+        <v>509</v>
       </c>
       <c r="X64" t="s">
-        <v>451</v>
+        <v>510</v>
       </c>
       <c r="Y64" t="s">
-        <v>452</v>
+        <v>511</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>29043</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>512</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>453</v>
+        <v>513</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>454</v>
+        <v>514</v>
       </c>
       <c r="J65" t="s">
-        <v>455</v>
+        <v>515</v>
       </c>
       <c r="K65" t="s">
-        <v>456</v>
+        <v>516</v>
       </c>
       <c r="L65" t="s">
-        <v>457</v>
+        <v>517</v>
       </c>
       <c r="M65" t="n">
         <v>3</v>
       </c>
       <c r="N65" t="s">
-        <v>458</v>
+        <v>518</v>
       </c>
       <c r="O65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P65" t="n">
         <v>3</v>
@@ -7045,35 +7619,39 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>457</v>
+        <v>517</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>29043</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>519</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>459</v>
+        <v>520</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>460</v>
+        <v>521</v>
       </c>
       <c r="J66" t="s">
-        <v>461</v>
+        <v>522</v>
       </c>
       <c r="K66" t="s"/>
       <c r="L66" t="s"/>
@@ -7081,10 +7659,10 @@
         <v>2</v>
       </c>
       <c r="N66" t="s">
-        <v>462</v>
+        <v>523</v>
       </c>
       <c r="O66" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P66" t="n">
         <v>1</v>
@@ -7105,51 +7683,52 @@
       <c r="V66" t="n">
         <v>0</v>
       </c>
-      <c r="W66" t="s"/>
-      <c r="X66" t="s"/>
-      <c r="Y66" t="s"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>29043</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>524</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>463</v>
+        <v>525</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>464</v>
+        <v>526</v>
       </c>
       <c r="J67" t="s">
-        <v>465</v>
+        <v>527</v>
       </c>
       <c r="K67" t="s">
-        <v>466</v>
+        <v>528</v>
       </c>
       <c r="L67" t="s">
-        <v>467</v>
+        <v>529</v>
       </c>
       <c r="M67" t="n">
         <v>3</v>
       </c>
       <c r="N67" t="s">
-        <v>462</v>
+        <v>523</v>
       </c>
       <c r="O67" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="P67" t="n">
         <v>4</v>
@@ -7173,35 +7752,39 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>467</v>
+        <v>529</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>29043</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>530</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>468</v>
+        <v>531</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>469</v>
+        <v>532</v>
       </c>
       <c r="J68" t="s">
-        <v>470</v>
+        <v>533</v>
       </c>
       <c r="K68" t="s"/>
       <c r="L68" t="s"/>
@@ -7209,10 +7792,10 @@
         <v>3</v>
       </c>
       <c r="N68" t="s">
-        <v>471</v>
+        <v>534</v>
       </c>
       <c r="O68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P68" t="n">
         <v>4</v>
@@ -7233,51 +7816,52 @@
       <c r="V68" t="n">
         <v>0</v>
       </c>
-      <c r="W68" t="s"/>
-      <c r="X68" t="s"/>
-      <c r="Y68" t="s"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>29043</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>535</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>472</v>
+        <v>536</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>473</v>
+        <v>537</v>
       </c>
       <c r="J69" t="s">
-        <v>474</v>
+        <v>538</v>
       </c>
       <c r="K69" t="s">
-        <v>475</v>
+        <v>539</v>
       </c>
       <c r="L69" t="s">
-        <v>476</v>
+        <v>540</v>
       </c>
       <c r="M69" t="n">
         <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>471</v>
+        <v>534</v>
       </c>
       <c r="O69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P69" t="n">
         <v>4</v>
@@ -7301,50 +7885,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>476</v>
+        <v>540</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>29043</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>541</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>477</v>
+        <v>542</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>478</v>
+        <v>543</v>
       </c>
       <c r="J70" t="s">
-        <v>479</v>
+        <v>544</v>
       </c>
       <c r="K70" t="s">
-        <v>480</v>
+        <v>545</v>
       </c>
       <c r="L70" t="s">
-        <v>481</v>
+        <v>546</v>
       </c>
       <c r="M70" t="n">
         <v>2</v>
       </c>
       <c r="N70" t="s">
-        <v>471</v>
+        <v>534</v>
       </c>
       <c r="O70" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P70" t="s"/>
       <c r="Q70" t="s"/>
@@ -7358,50 +7946,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>481</v>
+        <v>546</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>29043</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>547</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>482</v>
+        <v>548</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>483</v>
+        <v>549</v>
       </c>
       <c r="J71" t="s">
-        <v>484</v>
+        <v>550</v>
       </c>
       <c r="K71" t="s">
-        <v>485</v>
+        <v>551</v>
       </c>
       <c r="L71" t="s">
-        <v>486</v>
+        <v>552</v>
       </c>
       <c r="M71" t="n">
         <v>2</v>
       </c>
       <c r="N71" t="s">
-        <v>487</v>
+        <v>553</v>
       </c>
       <c r="O71" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P71" t="n">
         <v>2</v>
@@ -7421,50 +8013,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>488</v>
+        <v>554</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>29043</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>555</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>489</v>
+        <v>556</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>490</v>
+        <v>557</v>
       </c>
       <c r="J72" t="s">
-        <v>491</v>
+        <v>558</v>
       </c>
       <c r="K72" t="s">
-        <v>492</v>
+        <v>559</v>
       </c>
       <c r="L72" t="s">
-        <v>493</v>
+        <v>560</v>
       </c>
       <c r="M72" t="n">
         <v>3</v>
       </c>
       <c r="N72" t="s">
-        <v>494</v>
+        <v>561</v>
       </c>
       <c r="O72" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -7482,56 +8078,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>495</v>
+        <v>562</v>
       </c>
       <c r="X72" t="s">
-        <v>496</v>
+        <v>563</v>
       </c>
       <c r="Y72" t="s">
-        <v>497</v>
+        <v>564</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>29043</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>565</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>498</v>
+        <v>566</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>499</v>
+        <v>567</v>
       </c>
       <c r="J73" t="s">
-        <v>500</v>
+        <v>568</v>
       </c>
       <c r="K73" t="s">
-        <v>501</v>
+        <v>569</v>
       </c>
       <c r="L73" t="s">
-        <v>502</v>
+        <v>570</v>
       </c>
       <c r="M73" t="n">
         <v>3</v>
       </c>
       <c r="N73" t="s">
-        <v>503</v>
+        <v>571</v>
       </c>
       <c r="O73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P73" t="n">
         <v>3</v>
@@ -7555,48 +8155,52 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>502</v>
+        <v>570</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>29043</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>572</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>504</v>
+        <v>573</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>505</v>
+        <v>574</v>
       </c>
       <c r="J74" t="s">
-        <v>506</v>
+        <v>575</v>
       </c>
       <c r="K74" t="s"/>
       <c r="L74" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M74" t="n">
         <v>3</v>
       </c>
       <c r="N74" t="s">
-        <v>507</v>
+        <v>576</v>
       </c>
       <c r="O74" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="P74" t="n">
         <v>4</v>
@@ -7618,41 +8222,45 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>508</v>
+        <v>577</v>
       </c>
       <c r="X74" t="s">
-        <v>509</v>
+        <v>578</v>
       </c>
       <c r="Y74" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>29043</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>579</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>510</v>
+        <v>580</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>511</v>
+        <v>581</v>
       </c>
       <c r="J75" t="s">
-        <v>512</v>
+        <v>582</v>
       </c>
       <c r="K75" t="s"/>
       <c r="L75" t="s"/>
@@ -7660,10 +8268,10 @@
         <v>3</v>
       </c>
       <c r="N75" t="s">
-        <v>513</v>
+        <v>583</v>
       </c>
       <c r="O75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P75" t="n">
         <v>1</v>
@@ -7684,36 +8292,37 @@
       <c r="V75" t="n">
         <v>0</v>
       </c>
-      <c r="W75" t="s"/>
-      <c r="X75" t="s"/>
-      <c r="Y75" t="s"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>29043</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>584</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>514</v>
+        <v>585</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>515</v>
+        <v>586</v>
       </c>
       <c r="J76" t="s">
-        <v>516</v>
+        <v>587</v>
       </c>
       <c r="K76" t="s"/>
       <c r="L76" t="s"/>
@@ -7721,10 +8330,10 @@
         <v>4</v>
       </c>
       <c r="N76" t="s">
-        <v>513</v>
+        <v>583</v>
       </c>
       <c r="O76" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -7745,49 +8354,50 @@
       <c r="V76" t="n">
         <v>0</v>
       </c>
-      <c r="W76" t="s"/>
-      <c r="X76" t="s"/>
-      <c r="Y76" t="s"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>29043</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>588</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>517</v>
+        <v>589</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>518</v>
+        <v>590</v>
       </c>
       <c r="J77" t="s">
-        <v>519</v>
+        <v>591</v>
       </c>
       <c r="K77" t="s"/>
       <c r="L77" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>520</v>
+        <v>592</v>
       </c>
       <c r="O77" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="P77" t="n">
         <v>5</v>
@@ -7809,41 +8419,45 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>521</v>
+        <v>593</v>
       </c>
       <c r="X77" t="s">
-        <v>522</v>
+        <v>594</v>
       </c>
       <c r="Y77" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>29043</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>595</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>523</v>
+        <v>596</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>524</v>
+        <v>597</v>
       </c>
       <c r="J78" t="s">
-        <v>525</v>
+        <v>598</v>
       </c>
       <c r="K78" t="s"/>
       <c r="L78" t="s"/>
@@ -7851,10 +8465,10 @@
         <v>4</v>
       </c>
       <c r="N78" t="s">
-        <v>520</v>
+        <v>592</v>
       </c>
       <c r="O78" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P78" t="n">
         <v>4</v>
@@ -7875,51 +8489,52 @@
       <c r="V78" t="n">
         <v>0</v>
       </c>
-      <c r="W78" t="s"/>
-      <c r="X78" t="s"/>
-      <c r="Y78" t="s"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>29043</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>599</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>526</v>
+        <v>600</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>527</v>
+        <v>601</v>
       </c>
       <c r="J79" t="s">
-        <v>528</v>
+        <v>602</v>
       </c>
       <c r="K79" t="s">
-        <v>529</v>
+        <v>603</v>
       </c>
       <c r="L79" t="s">
-        <v>530</v>
+        <v>604</v>
       </c>
       <c r="M79" t="n">
         <v>2</v>
       </c>
       <c r="N79" t="s">
-        <v>520</v>
+        <v>592</v>
       </c>
       <c r="O79" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="P79" t="n">
         <v>2</v>
@@ -7935,54 +8550,58 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>531</v>
+        <v>605</v>
       </c>
       <c r="X79" t="s">
-        <v>532</v>
+        <v>606</v>
       </c>
       <c r="Y79" t="s">
-        <v>533</v>
+        <v>607</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>29043</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>608</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>534</v>
+        <v>609</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>535</v>
+        <v>610</v>
       </c>
       <c r="J80" t="s">
-        <v>536</v>
+        <v>611</v>
       </c>
       <c r="K80" t="s"/>
       <c r="L80" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M80" t="n">
         <v>3</v>
       </c>
       <c r="N80" t="s">
-        <v>537</v>
+        <v>612</v>
       </c>
       <c r="O80" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="P80" t="n">
         <v>3</v>
@@ -8006,50 +8625,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>29043</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>613</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>538</v>
+        <v>614</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>539</v>
+        <v>615</v>
       </c>
       <c r="J81" t="s">
-        <v>540</v>
+        <v>616</v>
       </c>
       <c r="K81" t="s">
-        <v>541</v>
+        <v>617</v>
       </c>
       <c r="L81" t="s">
-        <v>542</v>
+        <v>618</v>
       </c>
       <c r="M81" t="n">
         <v>3</v>
       </c>
       <c r="N81" t="s">
-        <v>543</v>
+        <v>619</v>
       </c>
       <c r="O81" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="P81" t="s"/>
       <c r="Q81" t="s"/>
@@ -8063,35 +8686,39 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>542</v>
+        <v>618</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>29043</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>620</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>544</v>
+        <v>621</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>545</v>
+        <v>622</v>
       </c>
       <c r="J82" t="s">
-        <v>546</v>
+        <v>623</v>
       </c>
       <c r="K82" t="s"/>
       <c r="L82" t="s"/>
@@ -8099,10 +8726,10 @@
         <v>2</v>
       </c>
       <c r="N82" t="s">
-        <v>547</v>
+        <v>624</v>
       </c>
       <c r="O82" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P82" t="n">
         <v>2</v>
@@ -8123,36 +8750,37 @@
       <c r="V82" t="n">
         <v>0</v>
       </c>
-      <c r="W82" t="s"/>
-      <c r="X82" t="s"/>
-      <c r="Y82" t="s"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>29043</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>625</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>548</v>
+        <v>626</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>549</v>
+        <v>627</v>
       </c>
       <c r="J83" t="s">
-        <v>550</v>
+        <v>628</v>
       </c>
       <c r="K83" t="s"/>
       <c r="L83" t="s"/>
@@ -8160,10 +8788,10 @@
         <v>4</v>
       </c>
       <c r="N83" t="s">
-        <v>547</v>
+        <v>624</v>
       </c>
       <c r="O83" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="P83" t="n">
         <v>4</v>
@@ -8184,42 +8812,43 @@
       <c r="V83" t="n">
         <v>0</v>
       </c>
-      <c r="W83" t="s"/>
-      <c r="X83" t="s"/>
-      <c r="Y83" t="s"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>29043</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>629</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>551</v>
+        <v>630</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>552</v>
+        <v>631</v>
       </c>
       <c r="J84" t="s">
-        <v>553</v>
+        <v>632</v>
       </c>
       <c r="K84" t="s">
-        <v>554</v>
+        <v>633</v>
       </c>
       <c r="L84" t="s">
-        <v>555</v>
+        <v>634</v>
       </c>
       <c r="M84" t="n">
         <v>1</v>
@@ -8246,56 +8875,60 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>556</v>
+        <v>635</v>
       </c>
       <c r="X84" t="s">
-        <v>557</v>
+        <v>636</v>
       </c>
       <c r="Y84" t="s">
-        <v>558</v>
+        <v>637</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>29043</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>638</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>559</v>
+        <v>639</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>560</v>
+        <v>640</v>
       </c>
       <c r="J85" t="s">
-        <v>561</v>
+        <v>641</v>
       </c>
       <c r="K85" t="s">
-        <v>562</v>
+        <v>642</v>
       </c>
       <c r="L85" t="s">
-        <v>563</v>
+        <v>643</v>
       </c>
       <c r="M85" t="n">
         <v>4</v>
       </c>
       <c r="N85" t="s">
-        <v>564</v>
+        <v>644</v>
       </c>
       <c r="O85" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="P85" t="s"/>
       <c r="Q85" t="s"/>
@@ -8309,50 +8942,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>565</v>
+        <v>645</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>29043</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>629</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>566</v>
+        <v>646</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>567</v>
+        <v>647</v>
       </c>
       <c r="J86" t="s">
-        <v>568</v>
+        <v>648</v>
       </c>
       <c r="K86" t="s">
-        <v>569</v>
+        <v>649</v>
       </c>
       <c r="L86" t="s">
-        <v>570</v>
+        <v>650</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>571</v>
+        <v>651</v>
       </c>
       <c r="O86" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="P86" t="s"/>
       <c r="Q86" t="s"/>
@@ -8366,50 +9003,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>570</v>
+        <v>650</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>29043</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>652</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>572</v>
+        <v>653</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>573</v>
+        <v>654</v>
       </c>
       <c r="J87" t="s">
-        <v>574</v>
+        <v>655</v>
       </c>
       <c r="K87" t="s">
-        <v>575</v>
+        <v>656</v>
       </c>
       <c r="L87" t="s">
-        <v>576</v>
+        <v>657</v>
       </c>
       <c r="M87" t="n">
         <v>3</v>
       </c>
       <c r="N87" t="s">
-        <v>577</v>
+        <v>658</v>
       </c>
       <c r="O87" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P87" t="n">
         <v>3</v>
@@ -8431,54 +9072,58 @@
         <v>0</v>
       </c>
       <c r="W87" t="s">
-        <v>578</v>
+        <v>659</v>
       </c>
       <c r="X87" t="s">
-        <v>579</v>
+        <v>660</v>
       </c>
       <c r="Y87" t="s">
-        <v>580</v>
+        <v>661</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>29043</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>444</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>581</v>
+        <v>662</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>582</v>
+        <v>663</v>
       </c>
       <c r="J88" t="s">
-        <v>583</v>
+        <v>664</v>
       </c>
       <c r="K88" t="s"/>
       <c r="L88" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M88" t="n">
         <v>5</v>
       </c>
       <c r="N88" t="s">
-        <v>584</v>
+        <v>665</v>
       </c>
       <c r="O88" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P88" t="n">
         <v>5</v>
@@ -8500,41 +9145,45 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>578</v>
+        <v>659</v>
       </c>
       <c r="X88" t="s">
-        <v>579</v>
+        <v>660</v>
       </c>
       <c r="Y88" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>29043</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>666</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>585</v>
+        <v>667</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>586</v>
+        <v>668</v>
       </c>
       <c r="J89" t="s">
-        <v>587</v>
+        <v>669</v>
       </c>
       <c r="K89" t="s"/>
       <c r="L89" t="s"/>
@@ -8542,10 +9191,10 @@
         <v>4</v>
       </c>
       <c r="N89" t="s">
-        <v>588</v>
+        <v>670</v>
       </c>
       <c r="O89" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P89" t="n">
         <v>3</v>
@@ -8566,51 +9215,52 @@
       <c r="V89" t="n">
         <v>0</v>
       </c>
-      <c r="W89" t="s"/>
-      <c r="X89" t="s"/>
-      <c r="Y89" t="s"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>29043</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>671</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>589</v>
+        <v>672</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>590</v>
+        <v>673</v>
       </c>
       <c r="J90" t="s">
-        <v>591</v>
+        <v>674</v>
       </c>
       <c r="K90" t="s">
-        <v>592</v>
+        <v>675</v>
       </c>
       <c r="L90" t="s">
-        <v>593</v>
+        <v>676</v>
       </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
       <c r="N90" t="s">
-        <v>588</v>
+        <v>670</v>
       </c>
       <c r="O90" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="P90" t="s"/>
       <c r="Q90" t="s"/>
@@ -8622,41 +9272,45 @@
         <v>0</v>
       </c>
       <c r="W90" t="s">
-        <v>594</v>
+        <v>677</v>
       </c>
       <c r="X90" t="s">
-        <v>595</v>
+        <v>678</v>
       </c>
       <c r="Y90" t="s">
-        <v>596</v>
+        <v>679</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>29043</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>680</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>597</v>
+        <v>681</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>598</v>
+        <v>682</v>
       </c>
       <c r="J91" t="s">
-        <v>599</v>
+        <v>683</v>
       </c>
       <c r="K91" t="s"/>
       <c r="L91" t="s"/>
@@ -8664,10 +9318,10 @@
         <v>4</v>
       </c>
       <c r="N91" t="s">
-        <v>600</v>
+        <v>684</v>
       </c>
       <c r="O91" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P91" t="n">
         <v>5</v>
@@ -8688,36 +9342,37 @@
       <c r="V91" t="n">
         <v>0</v>
       </c>
-      <c r="W91" t="s"/>
-      <c r="X91" t="s"/>
-      <c r="Y91" t="s"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>29043</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>685</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>601</v>
+        <v>686</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>602</v>
+        <v>687</v>
       </c>
       <c r="J92" t="s">
-        <v>603</v>
+        <v>688</v>
       </c>
       <c r="K92" t="s"/>
       <c r="L92" t="s"/>
@@ -8725,10 +9380,10 @@
         <v>3</v>
       </c>
       <c r="N92" t="s">
-        <v>604</v>
+        <v>689</v>
       </c>
       <c r="O92" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="P92" t="n">
         <v>5</v>
@@ -8749,36 +9404,37 @@
       <c r="V92" t="n">
         <v>0</v>
       </c>
-      <c r="W92" t="s"/>
-      <c r="X92" t="s"/>
-      <c r="Y92" t="s"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>29043</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>690</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>605</v>
+        <v>691</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>606</v>
+        <v>692</v>
       </c>
       <c r="J93" t="s">
-        <v>607</v>
+        <v>693</v>
       </c>
       <c r="K93" t="s"/>
       <c r="L93" t="s"/>
@@ -8786,10 +9442,10 @@
         <v>4</v>
       </c>
       <c r="N93" t="s">
-        <v>604</v>
+        <v>689</v>
       </c>
       <c r="O93" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P93" t="n">
         <v>4</v>
@@ -8810,36 +9466,37 @@
       <c r="V93" t="n">
         <v>0</v>
       </c>
-      <c r="W93" t="s"/>
-      <c r="X93" t="s"/>
-      <c r="Y93" t="s"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>29043</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>694</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>608</v>
+        <v>695</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>609</v>
+        <v>696</v>
       </c>
       <c r="J94" t="s">
-        <v>610</v>
+        <v>697</v>
       </c>
       <c r="K94" t="s"/>
       <c r="L94" t="s"/>
@@ -8847,10 +9504,10 @@
         <v>2</v>
       </c>
       <c r="N94" t="s">
-        <v>611</v>
+        <v>698</v>
       </c>
       <c r="O94" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="P94" t="n">
         <v>2</v>
@@ -8871,36 +9528,37 @@
       <c r="V94" t="n">
         <v>0</v>
       </c>
-      <c r="W94" t="s"/>
-      <c r="X94" t="s"/>
-      <c r="Y94" t="s"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>29043</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>699</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>612</v>
+        <v>700</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>613</v>
+        <v>701</v>
       </c>
       <c r="J95" t="s">
-        <v>614</v>
+        <v>702</v>
       </c>
       <c r="K95" t="s"/>
       <c r="L95" t="s"/>
@@ -8908,10 +9566,10 @@
         <v>4</v>
       </c>
       <c r="N95" t="s">
-        <v>611</v>
+        <v>698</v>
       </c>
       <c r="O95" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="P95" t="n">
         <v>5</v>
@@ -8932,49 +9590,50 @@
       <c r="V95" t="n">
         <v>0</v>
       </c>
-      <c r="W95" t="s"/>
-      <c r="X95" t="s"/>
-      <c r="Y95" t="s"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>29043</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>703</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>615</v>
+        <v>704</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>616</v>
+        <v>705</v>
       </c>
       <c r="J96" t="s">
-        <v>617</v>
+        <v>706</v>
       </c>
       <c r="K96" t="s"/>
       <c r="L96" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M96" t="n">
         <v>5</v>
       </c>
       <c r="N96" t="s">
-        <v>618</v>
+        <v>707</v>
       </c>
       <c r="O96" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="P96" t="n">
         <v>5</v>
@@ -8996,56 +9655,60 @@
         <v>0</v>
       </c>
       <c r="W96" t="s">
-        <v>619</v>
+        <v>708</v>
       </c>
       <c r="X96" t="s">
-        <v>620</v>
+        <v>709</v>
       </c>
       <c r="Y96" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>29043</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>710</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>621</v>
+        <v>711</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>622</v>
+        <v>712</v>
       </c>
       <c r="J97" t="s">
-        <v>623</v>
+        <v>713</v>
       </c>
       <c r="K97" t="s">
-        <v>624</v>
+        <v>714</v>
       </c>
       <c r="L97" t="s">
-        <v>625</v>
+        <v>715</v>
       </c>
       <c r="M97" t="n">
         <v>4</v>
       </c>
       <c r="N97" t="s">
-        <v>618</v>
+        <v>707</v>
       </c>
       <c r="O97" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="P97" t="n">
         <v>5</v>
@@ -9067,41 +9730,45 @@
         <v>0</v>
       </c>
       <c r="W97" t="s">
-        <v>619</v>
+        <v>708</v>
       </c>
       <c r="X97" t="s">
-        <v>620</v>
+        <v>709</v>
       </c>
       <c r="Y97" t="s">
-        <v>626</v>
+        <v>716</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>29043</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>717</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>627</v>
+        <v>718</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>628</v>
+        <v>719</v>
       </c>
       <c r="J98" t="s">
-        <v>629</v>
+        <v>720</v>
       </c>
       <c r="K98" t="s"/>
       <c r="L98" t="s"/>
@@ -9109,10 +9776,10 @@
         <v>4</v>
       </c>
       <c r="N98" t="s">
-        <v>630</v>
+        <v>721</v>
       </c>
       <c r="O98" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P98" t="n">
         <v>4</v>
@@ -9133,49 +9800,50 @@
       <c r="V98" t="n">
         <v>0</v>
       </c>
-      <c r="W98" t="s"/>
-      <c r="X98" t="s"/>
-      <c r="Y98" t="s"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>29043</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>722</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>631</v>
+        <v>723</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>632</v>
+        <v>724</v>
       </c>
       <c r="J99" t="s">
-        <v>633</v>
+        <v>725</v>
       </c>
       <c r="K99" t="s"/>
       <c r="L99" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M99" t="n">
         <v>2</v>
       </c>
       <c r="N99" t="s">
-        <v>634</v>
+        <v>726</v>
       </c>
       <c r="O99" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P99" t="n">
         <v>4</v>
@@ -9197,54 +9865,58 @@
         <v>0</v>
       </c>
       <c r="W99" t="s">
-        <v>635</v>
+        <v>727</v>
       </c>
       <c r="X99" t="s">
-        <v>636</v>
+        <v>728</v>
       </c>
       <c r="Y99" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>29043</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>729</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>637</v>
+        <v>730</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>638</v>
+        <v>731</v>
       </c>
       <c r="J100" t="s">
-        <v>639</v>
+        <v>732</v>
       </c>
       <c r="K100" t="s"/>
       <c r="L100" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M100" t="n">
         <v>2</v>
       </c>
       <c r="N100" t="s">
-        <v>630</v>
+        <v>721</v>
       </c>
       <c r="O100" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P100" t="n">
         <v>3</v>
@@ -9266,56 +9938,60 @@
         <v>0</v>
       </c>
       <c r="W100" t="s">
-        <v>635</v>
+        <v>727</v>
       </c>
       <c r="X100" t="s">
-        <v>636</v>
+        <v>728</v>
       </c>
       <c r="Y100" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>29043</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>733</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>640</v>
+        <v>734</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>641</v>
+        <v>735</v>
       </c>
       <c r="J101" t="s">
-        <v>642</v>
+        <v>736</v>
       </c>
       <c r="K101" t="s">
-        <v>643</v>
+        <v>737</v>
       </c>
       <c r="L101" t="s">
-        <v>644</v>
+        <v>738</v>
       </c>
       <c r="M101" t="n">
         <v>5</v>
       </c>
       <c r="N101" t="s">
-        <v>630</v>
+        <v>721</v>
       </c>
       <c r="O101" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P101" t="n">
         <v>5</v>
@@ -9337,56 +10013,60 @@
         <v>0</v>
       </c>
       <c r="W101" t="s">
-        <v>635</v>
+        <v>727</v>
       </c>
       <c r="X101" t="s">
-        <v>636</v>
+        <v>728</v>
       </c>
       <c r="Y101" t="s">
-        <v>645</v>
+        <v>739</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>29043</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>740</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>646</v>
+        <v>741</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>647</v>
+        <v>742</v>
       </c>
       <c r="J102" t="s">
-        <v>648</v>
+        <v>743</v>
       </c>
       <c r="K102" t="s">
-        <v>649</v>
+        <v>744</v>
       </c>
       <c r="L102" t="s">
-        <v>650</v>
+        <v>745</v>
       </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
       <c r="N102" t="s">
-        <v>651</v>
+        <v>746</v>
       </c>
       <c r="O102" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="P102" t="n">
         <v>2</v>
@@ -9408,54 +10088,58 @@
         <v>0</v>
       </c>
       <c r="W102" t="s">
-        <v>652</v>
+        <v>747</v>
       </c>
       <c r="X102" t="s">
-        <v>653</v>
+        <v>748</v>
       </c>
       <c r="Y102" t="s">
-        <v>654</v>
+        <v>749</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>29043</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C103" t="s">
+        <v>750</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>655</v>
+        <v>751</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>656</v>
+        <v>752</v>
       </c>
       <c r="J103" t="s">
-        <v>657</v>
+        <v>753</v>
       </c>
       <c r="K103" t="s"/>
       <c r="L103" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M103" t="n">
         <v>5</v>
       </c>
       <c r="N103" t="s">
-        <v>651</v>
+        <v>746</v>
       </c>
       <c r="O103" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P103" t="n">
         <v>5</v>
@@ -9477,56 +10161,60 @@
         <v>0</v>
       </c>
       <c r="W103" t="s">
-        <v>652</v>
+        <v>747</v>
       </c>
       <c r="X103" t="s">
-        <v>653</v>
+        <v>748</v>
       </c>
       <c r="Y103" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>29043</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C104" t="s">
+        <v>754</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>658</v>
+        <v>755</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>659</v>
+        <v>756</v>
       </c>
       <c r="J104" t="s">
-        <v>660</v>
+        <v>757</v>
       </c>
       <c r="K104" t="s">
-        <v>661</v>
+        <v>758</v>
       </c>
       <c r="L104" t="s">
-        <v>662</v>
+        <v>759</v>
       </c>
       <c r="M104" t="n">
         <v>4</v>
       </c>
       <c r="N104" t="s">
-        <v>663</v>
+        <v>760</v>
       </c>
       <c r="O104" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P104" t="n">
         <v>4</v>
@@ -9548,54 +10236,58 @@
         <v>0</v>
       </c>
       <c r="W104" t="s">
-        <v>664</v>
+        <v>761</v>
       </c>
       <c r="X104" t="s">
-        <v>665</v>
+        <v>762</v>
       </c>
       <c r="Y104" t="s">
-        <v>666</v>
+        <v>763</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>29043</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C105" t="s">
+        <v>764</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>667</v>
+        <v>765</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>668</v>
+        <v>766</v>
       </c>
       <c r="J105" t="s">
-        <v>669</v>
+        <v>767</v>
       </c>
       <c r="K105" t="s"/>
       <c r="L105" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M105" t="n">
         <v>2</v>
       </c>
       <c r="N105" t="s">
-        <v>663</v>
+        <v>760</v>
       </c>
       <c r="O105" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="P105" t="n">
         <v>5</v>
@@ -9617,54 +10309,58 @@
         <v>0</v>
       </c>
       <c r="W105" t="s">
-        <v>664</v>
+        <v>761</v>
       </c>
       <c r="X105" t="s">
-        <v>665</v>
+        <v>762</v>
       </c>
       <c r="Y105" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>29043</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>768</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>670</v>
+        <v>769</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>671</v>
+        <v>770</v>
       </c>
       <c r="J106" t="s">
-        <v>672</v>
+        <v>771</v>
       </c>
       <c r="K106" t="s"/>
       <c r="L106" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M106" t="n">
         <v>3</v>
       </c>
       <c r="N106" t="s">
-        <v>673</v>
+        <v>772</v>
       </c>
       <c r="O106" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="P106" t="n">
         <v>3</v>
@@ -9686,56 +10382,60 @@
         <v>0</v>
       </c>
       <c r="W106" t="s">
-        <v>664</v>
+        <v>761</v>
       </c>
       <c r="X106" t="s">
-        <v>665</v>
+        <v>762</v>
       </c>
       <c r="Y106" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>29043</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C107" t="s">
+        <v>773</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>674</v>
+        <v>774</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="J107" t="s">
-        <v>676</v>
+        <v>776</v>
       </c>
       <c r="K107" t="s">
-        <v>677</v>
+        <v>777</v>
       </c>
       <c r="L107" t="s">
-        <v>678</v>
+        <v>778</v>
       </c>
       <c r="M107" t="n">
         <v>4</v>
       </c>
       <c r="N107" t="s">
-        <v>679</v>
+        <v>779</v>
       </c>
       <c r="O107" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P107" t="n">
         <v>4</v>
@@ -9757,54 +10457,58 @@
         <v>0</v>
       </c>
       <c r="W107" t="s">
-        <v>680</v>
+        <v>780</v>
       </c>
       <c r="X107" t="s">
-        <v>681</v>
+        <v>781</v>
       </c>
       <c r="Y107" t="s">
-        <v>682</v>
+        <v>782</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>29043</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C108" t="s">
+        <v>783</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>683</v>
+        <v>784</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>684</v>
+        <v>785</v>
       </c>
       <c r="J108" t="s">
-        <v>685</v>
+        <v>786</v>
       </c>
       <c r="K108" t="s"/>
       <c r="L108" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M108" t="n">
         <v>3</v>
       </c>
       <c r="N108" t="s">
-        <v>686</v>
+        <v>787</v>
       </c>
       <c r="O108" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="P108" t="n">
         <v>3</v>
@@ -9826,56 +10530,60 @@
         <v>0</v>
       </c>
       <c r="W108" t="s">
-        <v>687</v>
+        <v>788</v>
       </c>
       <c r="X108" t="s">
-        <v>688</v>
+        <v>789</v>
       </c>
       <c r="Y108" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>29043</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C109" t="s">
+        <v>790</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>689</v>
+        <v>791</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s">
-        <v>690</v>
+        <v>792</v>
       </c>
       <c r="J109" t="s">
-        <v>691</v>
+        <v>793</v>
       </c>
       <c r="K109" t="s">
-        <v>692</v>
+        <v>794</v>
       </c>
       <c r="L109" t="s">
-        <v>693</v>
+        <v>795</v>
       </c>
       <c r="M109" t="n">
         <v>4</v>
       </c>
       <c r="N109" t="s">
-        <v>694</v>
+        <v>796</v>
       </c>
       <c r="O109" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P109" t="n">
         <v>5</v>
@@ -9897,56 +10605,60 @@
         <v>0</v>
       </c>
       <c r="W109" t="s">
-        <v>687</v>
+        <v>788</v>
       </c>
       <c r="X109" t="s">
-        <v>688</v>
+        <v>789</v>
       </c>
       <c r="Y109" t="s">
-        <v>695</v>
+        <v>797</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>29043</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C110" t="s">
+        <v>798</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>696</v>
+        <v>799</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I110" t="s">
-        <v>697</v>
+        <v>800</v>
       </c>
       <c r="J110" t="s">
-        <v>698</v>
+        <v>801</v>
       </c>
       <c r="K110" t="s">
-        <v>699</v>
+        <v>802</v>
       </c>
       <c r="L110" t="s">
-        <v>700</v>
+        <v>803</v>
       </c>
       <c r="M110" t="n">
         <v>2</v>
       </c>
       <c r="N110" t="s">
-        <v>701</v>
+        <v>804</v>
       </c>
       <c r="O110" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="P110" t="n">
         <v>2</v>
@@ -9970,50 +10682,54 @@
       <c r="W110" t="s"/>
       <c r="X110" t="s"/>
       <c r="Y110" t="s">
-        <v>702</v>
+        <v>805</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>29043</v>
       </c>
-      <c r="B111" t="s"/>
-      <c r="C111" t="s"/>
+      <c r="B111" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C111" t="s">
+        <v>806</v>
+      </c>
       <c r="D111" t="n">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>703</v>
+        <v>807</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I111" t="s">
-        <v>704</v>
+        <v>808</v>
       </c>
       <c r="J111" t="s">
-        <v>705</v>
+        <v>809</v>
       </c>
       <c r="K111" t="s">
-        <v>706</v>
+        <v>810</v>
       </c>
       <c r="L111" t="s">
-        <v>707</v>
+        <v>811</v>
       </c>
       <c r="M111" t="n">
         <v>5</v>
       </c>
       <c r="N111" t="s">
-        <v>708</v>
+        <v>812</v>
       </c>
       <c r="O111" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P111" t="n">
         <v>4</v>
@@ -10037,50 +10753,54 @@
       <c r="W111" t="s"/>
       <c r="X111" t="s"/>
       <c r="Y111" t="s">
-        <v>707</v>
+        <v>811</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>29043</v>
       </c>
-      <c r="B112" t="s"/>
-      <c r="C112" t="s"/>
+      <c r="B112" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C112" t="s">
+        <v>813</v>
+      </c>
       <c r="D112" t="n">
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F112" t="s">
-        <v>709</v>
+        <v>814</v>
       </c>
       <c r="G112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I112" t="s">
-        <v>710</v>
+        <v>815</v>
       </c>
       <c r="J112" t="s">
-        <v>711</v>
+        <v>816</v>
       </c>
       <c r="K112" t="s">
-        <v>712</v>
+        <v>817</v>
       </c>
       <c r="L112" t="s">
-        <v>713</v>
+        <v>818</v>
       </c>
       <c r="M112" t="n">
         <v>5</v>
       </c>
       <c r="N112" t="s">
-        <v>708</v>
+        <v>812</v>
       </c>
       <c r="O112" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P112" t="n">
         <v>5</v>
@@ -10104,50 +10824,54 @@
       <c r="W112" t="s"/>
       <c r="X112" t="s"/>
       <c r="Y112" t="s">
-        <v>713</v>
+        <v>818</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
         <v>29043</v>
       </c>
-      <c r="B113" t="s"/>
-      <c r="C113" t="s"/>
+      <c r="B113" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C113" t="s">
+        <v>819</v>
+      </c>
       <c r="D113" t="n">
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F113" t="s">
-        <v>714</v>
+        <v>820</v>
       </c>
       <c r="G113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I113" t="s">
-        <v>715</v>
+        <v>821</v>
       </c>
       <c r="J113" t="s">
-        <v>716</v>
+        <v>822</v>
       </c>
       <c r="K113" t="s">
-        <v>717</v>
+        <v>823</v>
       </c>
       <c r="L113" t="s">
-        <v>718</v>
+        <v>824</v>
       </c>
       <c r="M113" t="n">
         <v>4</v>
       </c>
       <c r="N113" t="s">
-        <v>719</v>
+        <v>825</v>
       </c>
       <c r="O113" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P113" t="n">
         <v>5</v>
@@ -10171,50 +10895,54 @@
       <c r="W113" t="s"/>
       <c r="X113" t="s"/>
       <c r="Y113" t="s">
-        <v>718</v>
+        <v>824</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
         <v>29043</v>
       </c>
-      <c r="B114" t="s"/>
-      <c r="C114" t="s"/>
+      <c r="B114" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C114" t="s">
+        <v>826</v>
+      </c>
       <c r="D114" t="n">
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F114" t="s">
-        <v>720</v>
+        <v>827</v>
       </c>
       <c r="G114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I114" t="s">
-        <v>721</v>
+        <v>828</v>
       </c>
       <c r="J114" t="s">
-        <v>722</v>
+        <v>829</v>
       </c>
       <c r="K114" t="s">
-        <v>723</v>
+        <v>830</v>
       </c>
       <c r="L114" t="s">
-        <v>724</v>
+        <v>831</v>
       </c>
       <c r="M114" t="n">
         <v>5</v>
       </c>
       <c r="N114" t="s">
-        <v>708</v>
+        <v>812</v>
       </c>
       <c r="O114" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P114" t="n">
         <v>5</v>
@@ -10238,50 +10966,54 @@
       <c r="W114" t="s"/>
       <c r="X114" t="s"/>
       <c r="Y114" t="s">
-        <v>724</v>
+        <v>831</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
         <v>29043</v>
       </c>
-      <c r="B115" t="s"/>
-      <c r="C115" t="s"/>
+      <c r="B115" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C115" t="s">
+        <v>832</v>
+      </c>
       <c r="D115" t="n">
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F115" t="s">
-        <v>725</v>
+        <v>833</v>
       </c>
       <c r="G115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I115" t="s">
-        <v>726</v>
+        <v>834</v>
       </c>
       <c r="J115" t="s">
-        <v>727</v>
+        <v>835</v>
       </c>
       <c r="K115" t="s">
-        <v>728</v>
+        <v>836</v>
       </c>
       <c r="L115" t="s">
-        <v>729</v>
+        <v>837</v>
       </c>
       <c r="M115" t="n">
         <v>4</v>
       </c>
       <c r="N115" t="s">
-        <v>719</v>
+        <v>825</v>
       </c>
       <c r="O115" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="P115" t="n">
         <v>5</v>
@@ -10305,7 +11037,7 @@
       <c r="W115" t="s"/>
       <c r="X115" t="s"/>
       <c r="Y115" t="s">
-        <v>729</v>
+        <v>837</v>
       </c>
     </row>
   </sheetData>
